--- a/app/out.xlsx
+++ b/app/out.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="25">
   <si>
     <t>Вопрос</t>
   </si>
@@ -58,13 +58,16 @@
     <t>ПВИ</t>
   </si>
   <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Ново-Уренгойское ЛПУМГ</t>
+  </si>
+  <si>
     <t>Название_ПВИ</t>
   </si>
   <si>
     <t>Местонахождение_ПВИ</t>
-  </si>
-  <si>
-    <t>Ново-Уренгойское ЛПУМГ</t>
   </si>
   <si>
     <t>УС</t>
@@ -537,13 +540,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G1"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:7">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
@@ -561,6 +564,558 @@
       </c>
       <c r="G1" s="1" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>30922</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="2">
+        <v>44157</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>30922</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="2">
+        <v>44157</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>30922</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="2">
+        <v>44157</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>30922</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="2">
+        <v>44157</v>
+      </c>
+      <c r="G5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>30922</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="2">
+        <v>44157</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>30922</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="2">
+        <v>44157</v>
+      </c>
+      <c r="G7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>72757</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="2">
+        <v>44157</v>
+      </c>
+      <c r="G8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>72757</v>
+      </c>
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="2">
+        <v>44157</v>
+      </c>
+      <c r="G9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>72757</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="2">
+        <v>44157</v>
+      </c>
+      <c r="G10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>72757</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="2">
+        <v>44157</v>
+      </c>
+      <c r="G11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>72757</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="2">
+        <v>44157</v>
+      </c>
+      <c r="G12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>72757</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="2">
+        <v>44157</v>
+      </c>
+      <c r="G13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>220295</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="2">
+        <v>44157</v>
+      </c>
+      <c r="G14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>220295</v>
+      </c>
+      <c r="C15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="2">
+        <v>44157</v>
+      </c>
+      <c r="G15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>220295</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16">
+        <v>5</v>
+      </c>
+      <c r="E16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="2">
+        <v>44157</v>
+      </c>
+      <c r="G16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>220295</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17">
+        <v>5</v>
+      </c>
+      <c r="E17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="2">
+        <v>44157</v>
+      </c>
+      <c r="G17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>220295</v>
+      </c>
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18">
+        <v>5</v>
+      </c>
+      <c r="E18" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="2">
+        <v>44157</v>
+      </c>
+      <c r="G18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>220295</v>
+      </c>
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19">
+        <v>4</v>
+      </c>
+      <c r="E19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="2">
+        <v>44157</v>
+      </c>
+      <c r="G19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>96032</v>
+      </c>
+      <c r="C20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>5</v>
+      </c>
+      <c r="E20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="2">
+        <v>44157</v>
+      </c>
+      <c r="G20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>96032</v>
+      </c>
+      <c r="C21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21">
+        <v>5</v>
+      </c>
+      <c r="E21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="2">
+        <v>44157</v>
+      </c>
+      <c r="G21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>96032</v>
+      </c>
+      <c r="C22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22">
+        <v>5</v>
+      </c>
+      <c r="E22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="2">
+        <v>44157</v>
+      </c>
+      <c r="G22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>96032</v>
+      </c>
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="2">
+        <v>44157</v>
+      </c>
+      <c r="G23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>96032</v>
+      </c>
+      <c r="C24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+      <c r="E24" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="2">
+        <v>44157</v>
+      </c>
+      <c r="G24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>96032</v>
+      </c>
+      <c r="C25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="2">
+        <v>44157</v>
+      </c>
+      <c r="G25" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -578,10 +1133,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -589,10 +1144,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -600,10 +1155,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -611,10 +1166,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -622,10 +1177,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -633,10 +1188,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -657,7 +1212,7 @@
         <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/app/out.xlsx
+++ b/app/out.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="43">
   <si>
     <t>Вопрос</t>
   </si>
@@ -25,16 +25,13 @@
     <t>Дата создания</t>
   </si>
   <si>
-    <t>Первый вопрос</t>
-  </si>
-  <si>
-    <t>Второй вопрос</t>
-  </si>
-  <si>
-    <t>Третий вопрос</t>
-  </si>
-  <si>
-    <t>Четвертый вопрос</t>
+    <t>Довольны ли Вы качеством предоставляемого питания?</t>
+  </si>
+  <si>
+    <t>Устраивают ли Вас бытовые условия? (питьевой режим, температура в помещении, досуг и психологический климат)</t>
+  </si>
+  <si>
+    <t>Довольны ли Вы работой обслуживающего персонала?</t>
   </si>
   <si>
     <t>unique_key</t>
@@ -52,34 +49,13 @@
     <t>ПВИ</t>
   </si>
   <si>
-    <t>Коментрий 1</t>
-  </si>
-  <si>
     <t>None</t>
   </si>
   <si>
-    <t>ДАаааа</t>
-  </si>
-  <si>
-    <t>Отлично</t>
-  </si>
-  <si>
-    <t>Комментарий, к первому вопросу</t>
-  </si>
-  <si>
-    <t>Каноэ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">хорошо </t>
-  </si>
-  <si>
-    <t>Плохо</t>
-  </si>
-  <si>
-    <t>ТЕст</t>
-  </si>
-  <si>
-    <t>КС Пуртазовская</t>
+    <t>Н-Уренгойское ЛПУМГ (КС Пуртазовская)</t>
+  </si>
+  <si>
+    <t>Губкинское ЛПУМГ (КС - 03, Общежитие №1)</t>
   </si>
   <si>
     <t>Название_ПВИ</t>
@@ -88,43 +64,88 @@
     <t>Местонахождение_ПВИ</t>
   </si>
   <si>
-    <t>КС-3</t>
-  </si>
-  <si>
-    <t>Губкинское ЛПУМГ</t>
-  </si>
-  <si>
-    <t>КС-4</t>
-  </si>
-  <si>
-    <t>КС-01</t>
-  </si>
-  <si>
-    <t>КС-2</t>
-  </si>
-  <si>
-    <t>Новый-Уренгой</t>
-  </si>
-  <si>
-    <t>Сургут кое ЛМУМГ</t>
-  </si>
-  <si>
-    <t>Даалеко</t>
-  </si>
-  <si>
-    <t>Сургуткое ЛПУМГ</t>
-  </si>
-  <si>
-    <t>Пурпейское ЛПУМГ</t>
-  </si>
-  <si>
-    <t>Ортьягунское ЛПУМГ</t>
+    <t>Н-Уренгойское ЛПУМГ (ПВП № 1, КС Пуртазовская)</t>
+  </si>
+  <si>
+    <t>Н-Уренгойское ЛПУМГ (ПВП №2)</t>
+  </si>
+  <si>
+    <t>Пурпейское ЛПУМГ (КС - 01, Общежитие на 100 мест Ягенетская п/п)</t>
+  </si>
+  <si>
+    <t>Демьянское ЛПУМГ (КС - 7, Общежитие в п. Демьянка)</t>
+  </si>
+  <si>
+    <t>Туртасское ЛПУМГ (КС-8, Общежитие в п. Пионерный)</t>
+  </si>
+  <si>
+    <t>Тобольское ЛПУМГ (КС-9, Общежитие на 80 мест)</t>
+  </si>
+  <si>
+    <t>Вынгапуровское ЛПУМГ (КС-1, Общежитие)</t>
+  </si>
+  <si>
+    <t>Сургутское ЛПУМГ (УСС "Факел")</t>
+  </si>
+  <si>
+    <t>Сургутское ЛПУМГ (КС-3, Общежитие)</t>
+  </si>
+  <si>
+    <t>Сургутское ЛПУМГ (КС-4, Общежитие)</t>
+  </si>
+  <si>
+    <t>Сургутское ЛПУМГ (гост. "Ермак")</t>
+  </si>
+  <si>
+    <t>Сургутское ЛПУМГ (КС-2, Общежитие)</t>
+  </si>
+  <si>
+    <t>ЯНАО, ВЖК при КС "Пуртазовская" системы газопроводов Заполярье-Уренгой</t>
+  </si>
+  <si>
+    <t>ЯНАО, Новый Уренгой, ул. Сибирская, д.75</t>
+  </si>
+  <si>
+    <t>ЯНАО, Вахтовый поселок КС-01 Ягенетская Пурпейского района</t>
+  </si>
+  <si>
+    <t>ЯНАО, Пуровский район, вахтовый поселок КС-03 Губкинская</t>
+  </si>
+  <si>
+    <t>Тюм.обл., п. Демьянка Уватский район ул. Строительная, дом 1</t>
+  </si>
+  <si>
+    <t>Тюм.обл., Уватский район, вахтовый поселок КС-8</t>
+  </si>
+  <si>
+    <t>Тюм. обл., Тобольский район, вахтовый поселок КС-9</t>
+  </si>
+  <si>
+    <t>ЯНАО, г. Ноябрьск, жилой поселок КС-1 Вынгапуровская, ул. Южная, д. 10</t>
+  </si>
+  <si>
+    <t>ХМАО-Югра, г.Сургут ул.50 лет ВЛКСМ 3/1</t>
+  </si>
+  <si>
+    <t>ХМАО-Югра, КС-3 "Аганская" Нижневартовский район</t>
+  </si>
+  <si>
+    <t>ХМАО-Югра, КС-4 "Приобская" Сургутский район</t>
+  </si>
+  <si>
+    <t>ХМАО-Югра, г. Сургут проспект Набережный, 31</t>
+  </si>
+  <si>
+    <t>Сургутское ЛПУМГ</t>
   </si>
   <si>
     <t>Пожелание</t>
   </si>
   <si>
     <t>Очень положительный комент</t>
+  </si>
+  <si>
+    <t>Общий комментарий</t>
   </si>
 </sst>
 </file>
@@ -486,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -508,7 +529,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="2">
-        <v>44152</v>
+        <v>44161</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -519,7 +540,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="2">
-        <v>44152</v>
+        <v>44161</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -530,18 +551,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="2">
-        <v>44152</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="2">
-        <v>44152</v>
+        <v>44161</v>
       </c>
     </row>
   </sheetData>
@@ -551,7 +561,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -559,22 +569,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -582,22 +592,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>22511</v>
+        <v>186933</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2">
+        <v>44165</v>
+      </c>
+      <c r="G2" t="s">
         <v>11</v>
-      </c>
-      <c r="F2" s="2">
-        <v>44152</v>
-      </c>
-      <c r="G2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -605,7 +615,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22511</v>
+        <v>186933</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
@@ -614,13 +624,13 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2">
-        <v>44152</v>
+        <v>44165</v>
       </c>
       <c r="G3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -628,7 +638,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22511</v>
+        <v>186933</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
@@ -637,13 +647,13 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F4" s="2">
-        <v>44152</v>
+        <v>44165</v>
       </c>
       <c r="G4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -651,22 +661,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22511</v>
+        <v>217166</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F5" s="2">
-        <v>44152</v>
+        <v>44165</v>
       </c>
       <c r="G5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -674,22 +684,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>107179</v>
+        <v>217166</v>
       </c>
       <c r="C6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F6" s="2">
-        <v>44152</v>
+        <v>44165</v>
       </c>
       <c r="G6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -697,22 +707,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>107179</v>
+        <v>217166</v>
       </c>
       <c r="C7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F7" s="2">
-        <v>44152</v>
+        <v>44165</v>
       </c>
       <c r="G7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -720,22 +730,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>107179</v>
+        <v>136953</v>
       </c>
       <c r="C8" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="2">
+        <v>44165</v>
+      </c>
+      <c r="G8" t="s">
         <v>12</v>
-      </c>
-      <c r="F8" s="2">
-        <v>44152</v>
-      </c>
-      <c r="G8" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -743,22 +753,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>107179</v>
+        <v>136953</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="2">
+        <v>44165</v>
+      </c>
+      <c r="G9" t="s">
         <v>12</v>
-      </c>
-      <c r="F9" s="2">
-        <v>44152</v>
-      </c>
-      <c r="G9" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -766,367 +776,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>81319</v>
+        <v>136953</v>
       </c>
       <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10">
         <v>2</v>
       </c>
-      <c r="D10">
-        <v>3</v>
-      </c>
       <c r="E10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="2">
+        <v>44165</v>
+      </c>
+      <c r="G10" t="s">
         <v>12</v>
-      </c>
-      <c r="F10" s="2">
-        <v>44153</v>
-      </c>
-      <c r="G10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>81319</v>
-      </c>
-      <c r="C11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11">
-        <v>5</v>
-      </c>
-      <c r="E11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="2">
-        <v>44153</v>
-      </c>
-      <c r="G11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>81319</v>
-      </c>
-      <c r="C12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12">
-        <v>5</v>
-      </c>
-      <c r="E12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="2">
-        <v>44153</v>
-      </c>
-      <c r="G12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>81319</v>
-      </c>
-      <c r="C13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13">
-        <v>3</v>
-      </c>
-      <c r="E13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="2">
-        <v>44153</v>
-      </c>
-      <c r="G13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>11482</v>
-      </c>
-      <c r="C14" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="2">
-        <v>44153</v>
-      </c>
-      <c r="G14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>11482</v>
-      </c>
-      <c r="C15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="2">
-        <v>44153</v>
-      </c>
-      <c r="G15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16">
-        <v>11482</v>
-      </c>
-      <c r="C16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" s="2">
-        <v>44153</v>
-      </c>
-      <c r="G16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17">
-        <v>11482</v>
-      </c>
-      <c r="C17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" s="2">
-        <v>44153</v>
-      </c>
-      <c r="G17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18">
-        <v>25870</v>
-      </c>
-      <c r="C18" t="s">
-        <v>2</v>
-      </c>
-      <c r="D18">
-        <v>5</v>
-      </c>
-      <c r="E18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="2">
-        <v>44155</v>
-      </c>
-      <c r="G18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19">
-        <v>25870</v>
-      </c>
-      <c r="C19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D19">
-        <v>5</v>
-      </c>
-      <c r="E19" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" s="2">
-        <v>44155</v>
-      </c>
-      <c r="G19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20">
-        <v>25870</v>
-      </c>
-      <c r="C20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20">
-        <v>5</v>
-      </c>
-      <c r="E20" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" s="2">
-        <v>44155</v>
-      </c>
-      <c r="G20" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21">
-        <v>25870</v>
-      </c>
-      <c r="C21" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21">
-        <v>4</v>
-      </c>
-      <c r="E21" t="s">
-        <v>12</v>
-      </c>
-      <c r="F21" s="2">
-        <v>44155</v>
-      </c>
-      <c r="G21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22">
-        <v>24057</v>
-      </c>
-      <c r="C22" t="s">
-        <v>2</v>
-      </c>
-      <c r="D22">
-        <v>4</v>
-      </c>
-      <c r="E22" t="s">
-        <v>19</v>
-      </c>
-      <c r="F22" s="2">
-        <v>44157</v>
-      </c>
-      <c r="G22" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="1">
-        <v>21</v>
-      </c>
-      <c r="B23">
-        <v>24057</v>
-      </c>
-      <c r="C23" t="s">
-        <v>3</v>
-      </c>
-      <c r="D23">
-        <v>5</v>
-      </c>
-      <c r="E23" t="s">
-        <v>19</v>
-      </c>
-      <c r="F23" s="2">
-        <v>44157</v>
-      </c>
-      <c r="G23" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="1">
-        <v>22</v>
-      </c>
-      <c r="B24">
-        <v>24057</v>
-      </c>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24">
-        <v>3</v>
-      </c>
-      <c r="E24" t="s">
-        <v>19</v>
-      </c>
-      <c r="F24" s="2">
-        <v>44157</v>
-      </c>
-      <c r="G24" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="1">
-        <v>23</v>
-      </c>
-      <c r="B25">
-        <v>24057</v>
-      </c>
-      <c r="C25" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="E25" t="s">
-        <v>19</v>
-      </c>
-      <c r="F25" s="2">
-        <v>44157</v>
-      </c>
-      <c r="G25" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1136,7 +801,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1144,10 +809,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1155,10 +820,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1166,10 +831,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1177,10 +842,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1188,10 +853,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1199,10 +864,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1210,10 +875,87 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1223,7 +965,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1231,10 +973,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1245,7 +987,18 @@
         <v>24057</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>233336</v>
+      </c>
+      <c r="C3" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/app/out.xlsx
+++ b/app/out.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="43">
   <si>
     <t>Вопрос</t>
   </si>
@@ -58,13 +58,13 @@
     <t>Губкинское ЛПУМГ (КС - 03, Общежитие №1)</t>
   </si>
   <si>
+    <t>Н-Уренгойское ЛПУМГ (ПВП № 1, КС Пуртазовская)</t>
+  </si>
+  <si>
     <t>Название_ПВИ</t>
   </si>
   <si>
     <t>Местонахождение_ПВИ</t>
-  </si>
-  <si>
-    <t>Н-Уренгойское ЛПУМГ (ПВП № 1, КС Пуртазовская)</t>
   </si>
   <si>
     <t>Н-Уренгойское ЛПУМГ (ПВП №2)</t>
@@ -561,7 +561,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -792,6 +792,75 @@
       </c>
       <c r="G10" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>99295</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="2">
+        <v>44165</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>99295</v>
+      </c>
+      <c r="C12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="2">
+        <v>44165</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>99295</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="2">
+        <v>44165</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -809,10 +878,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -820,7 +889,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
         <v>27</v>

--- a/app/out.xlsx
+++ b/app/out.xlsx
@@ -17,7 +17,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="43">
+  <si>
+    <t>Номер_Вопроса</t>
+  </si>
   <si>
     <t>Вопрос</t>
   </si>
@@ -52,25 +55,22 @@
     <t>None</t>
   </si>
   <si>
-    <t>Н-Уренгойское ЛПУМГ (КС Пуртазовская)</t>
+    <t>Н-Уренгойское ЛПУМГ (ПВП № 1, КС Пуртазовская)</t>
+  </si>
+  <si>
+    <t>Н-Уренгойское ЛПУМГ (ПВП №2)</t>
+  </si>
+  <si>
+    <t>Пурпейское ЛПУМГ (КС - 01, Общежитие на 100 мест Ягенетская п/п)</t>
+  </si>
+  <si>
+    <t>Название_ПВИ</t>
+  </si>
+  <si>
+    <t>Местонахождение_ПВИ</t>
   </si>
   <si>
     <t>Губкинское ЛПУМГ (КС - 03, Общежитие №1)</t>
-  </si>
-  <si>
-    <t>Н-Уренгойское ЛПУМГ (ПВП № 1, КС Пуртазовская)</t>
-  </si>
-  <si>
-    <t>Название_ПВИ</t>
-  </si>
-  <si>
-    <t>Местонахождение_ПВИ</t>
-  </si>
-  <si>
-    <t>Н-Уренгойское ЛПУМГ (ПВП №2)</t>
-  </si>
-  <si>
-    <t>Пурпейское ЛПУМГ (КС - 01, Общежитие на 100 мест Ягенетская п/п)</t>
   </si>
   <si>
     <t>Демьянское ЛПУМГ (КС - 7, Общежитие в п. Демьянка)</t>
@@ -507,50 +507,62 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2">
+        <v>44161</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
         <v>2</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="2">
         <v>44161</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2">
-        <v>44161</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="2">
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2">
         <v>44161</v>
       </c>
     </row>
@@ -569,22 +581,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -592,22 +604,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>186933</v>
+        <v>179182</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" s="2">
         <v>44165</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -615,22 +627,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>186933</v>
+        <v>179182</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" s="2">
         <v>44165</v>
       </c>
       <c r="G3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -638,22 +650,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>186933</v>
+        <v>179182</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" s="2">
         <v>44165</v>
       </c>
       <c r="G4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -661,22 +673,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>217166</v>
+        <v>212300</v>
       </c>
       <c r="C5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" s="2">
         <v>44165</v>
       </c>
       <c r="G5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -684,22 +696,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>217166</v>
+        <v>212300</v>
       </c>
       <c r="C6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" s="2">
         <v>44165</v>
       </c>
       <c r="G6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -707,22 +719,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>217166</v>
+        <v>212300</v>
       </c>
       <c r="C7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" s="2">
         <v>44165</v>
       </c>
       <c r="G7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -730,22 +742,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>136953</v>
+        <v>13679</v>
       </c>
       <c r="C8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" s="2">
         <v>44165</v>
       </c>
       <c r="G8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -753,22 +765,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>136953</v>
+        <v>13679</v>
       </c>
       <c r="C9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" s="2">
         <v>44165</v>
       </c>
       <c r="G9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -776,22 +788,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>136953</v>
+        <v>13679</v>
       </c>
       <c r="C10" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" s="2">
         <v>44165</v>
       </c>
       <c r="G10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -799,22 +811,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>99295</v>
+        <v>146533</v>
       </c>
       <c r="C11" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" s="2">
         <v>44165</v>
       </c>
       <c r="G11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -822,22 +834,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>99295</v>
+        <v>146533</v>
       </c>
       <c r="C12" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" s="2">
         <v>44165</v>
       </c>
       <c r="G12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -845,22 +857,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>99295</v>
+        <v>146533</v>
       </c>
       <c r="C13" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" s="2">
         <v>44165</v>
       </c>
       <c r="G13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -878,10 +890,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -889,7 +901,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
         <v>27</v>
@@ -900,7 +912,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -911,7 +923,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
         <v>29</v>
@@ -922,7 +934,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
         <v>30</v>
@@ -1042,7 +1054,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>40</v>

--- a/app/out.xlsx
+++ b/app/out.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="48">
   <si>
     <t>Вопрос</t>
   </si>
@@ -52,21 +52,30 @@
     <t>None</t>
   </si>
   <si>
-    <t>Н-Уренгойское ЛПУМГ (КС Пуртазовская)</t>
+    <t xml:space="preserve">Не хватает блюд с морской капустой </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Очень душно. Храпит сосед. </t>
+  </si>
+  <si>
+    <t>Молодцы, особенно оср</t>
+  </si>
+  <si>
+    <t>Слишком жарков комнате.</t>
   </si>
   <si>
     <t>Губкинское ЛПУМГ (КС - 03, Общежитие №1)</t>
   </si>
   <si>
+    <t>Н-Уренгойское ЛПУМГ (ПВП №1, КС Пуртазовская)</t>
+  </si>
+  <si>
     <t>Название_ПВИ</t>
   </si>
   <si>
     <t>Местонахождение_ПВИ</t>
   </si>
   <si>
-    <t>Н-Уренгойское ЛПУМГ (ПВП № 1, КС Пуртазовская)</t>
-  </si>
-  <si>
     <t>Н-Уренгойское ЛПУМГ (ПВП №2)</t>
   </si>
   <si>
@@ -146,6 +155,12 @@
   </si>
   <si>
     <t>Общий комментарий</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Прошу организовать доставку товаров из магазина. </t>
+  </si>
+  <si>
+    <t>Очень вкусная еда!</t>
   </si>
 </sst>
 </file>
@@ -561,7 +576,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -592,13 +607,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>186933</v>
+        <v>136953</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
@@ -607,7 +622,7 @@
         <v>44165</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -615,13 +630,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>186933</v>
+        <v>136953</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
@@ -630,7 +645,7 @@
         <v>44165</v>
       </c>
       <c r="G3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -638,13 +653,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>186933</v>
+        <v>136953</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
@@ -653,7 +668,7 @@
         <v>44165</v>
       </c>
       <c r="G4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -661,22 +676,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>217166</v>
+        <v>258094</v>
       </c>
       <c r="C5" t="s">
         <v>2</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" s="2">
         <v>44165</v>
       </c>
       <c r="G5" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -684,22 +699,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>217166</v>
+        <v>258094</v>
       </c>
       <c r="C6" t="s">
         <v>3</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F6" s="2">
         <v>44165</v>
       </c>
       <c r="G6" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -707,7 +722,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>217166</v>
+        <v>258094</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -716,13 +731,13 @@
         <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F7" s="2">
         <v>44165</v>
       </c>
       <c r="G7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -730,13 +745,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>136953</v>
+        <v>279358</v>
       </c>
       <c r="C8" t="s">
         <v>2</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
@@ -745,7 +760,7 @@
         <v>44165</v>
       </c>
       <c r="G8" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -753,13 +768,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>136953</v>
+        <v>279358</v>
       </c>
       <c r="C9" t="s">
         <v>3</v>
       </c>
       <c r="D9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
@@ -768,7 +783,7 @@
         <v>44165</v>
       </c>
       <c r="G9" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -776,13 +791,13 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>136953</v>
+        <v>279358</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
@@ -791,7 +806,76 @@
         <v>44165</v>
       </c>
       <c r="G10" t="s">
-        <v>12</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>107781</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="2">
+        <v>44165</v>
+      </c>
+      <c r="G11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>107781</v>
+      </c>
+      <c r="C12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="2">
+        <v>44165</v>
+      </c>
+      <c r="G12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>107781</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="2">
+        <v>44165</v>
+      </c>
+      <c r="G13" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -809,10 +893,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -820,10 +904,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -831,10 +915,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -842,10 +926,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -853,10 +937,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -864,10 +948,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -875,10 +959,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -886,10 +970,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -897,10 +981,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -908,10 +992,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -919,10 +1003,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -930,10 +1014,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -941,10 +1025,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -952,10 +1036,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -965,7 +1049,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -976,7 +1060,7 @@
         <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -987,7 +1071,7 @@
         <v>24057</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -998,7 +1082,29 @@
         <v>233336</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>258094</v>
+      </c>
+      <c r="C4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>107781</v>
+      </c>
+      <c r="C5" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/app/out.xlsx
+++ b/app/out.xlsx
@@ -17,7 +17,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
+  <si>
+    <t>Номер_Вопроса</t>
+  </si>
   <si>
     <t>Вопрос</t>
   </si>
@@ -49,64 +52,49 @@
     <t>ПВИ</t>
   </si>
   <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Не хватает блюд с морской капустой </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Очень душно. Храпит сосед. </t>
-  </si>
-  <si>
-    <t>Молодцы, особенно оср</t>
-  </si>
-  <si>
-    <t>Слишком жарков комнате.</t>
-  </si>
-  <si>
-    <t>Губкинское ЛПУМГ (КС - 03, Общежитие №1)</t>
+    <t>Название_ПВИ</t>
+  </si>
+  <si>
+    <t>Местонахождение_ПВИ</t>
   </si>
   <si>
     <t>Н-Уренгойское ЛПУМГ (ПВП №1, КС Пуртазовская)</t>
   </si>
   <si>
-    <t>Название_ПВИ</t>
-  </si>
-  <si>
-    <t>Местонахождение_ПВИ</t>
-  </si>
-  <si>
     <t>Н-Уренгойское ЛПУМГ (ПВП №2)</t>
   </si>
   <si>
-    <t>Пурпейское ЛПУМГ (КС - 01, Общежитие на 100 мест Ягенетская п/п)</t>
-  </si>
-  <si>
-    <t>Демьянское ЛПУМГ (КС - 7, Общежитие в п. Демьянка)</t>
-  </si>
-  <si>
-    <t>Туртасское ЛПУМГ (КС-8, Общежитие в п. Пионерный)</t>
-  </si>
-  <si>
-    <t>Тобольское ЛПУМГ (КС-9, Общежитие на 80 мест)</t>
-  </si>
-  <si>
-    <t>Вынгапуровское ЛПУМГ (КС-1, Общежитие)</t>
+    <t>Пурпейское ЛПУМГ (КС-01)</t>
+  </si>
+  <si>
+    <t>Губкинское ЛПУМГ (КС-03)</t>
+  </si>
+  <si>
+    <t>Демьянское ЛПУМГ (КС-7)</t>
+  </si>
+  <si>
+    <t>Туртасское ЛПУМГ (КС-8)</t>
+  </si>
+  <si>
+    <t>Тобольское ЛПУМГ (КС-9)</t>
+  </si>
+  <si>
+    <t>Вынгапуровское ЛПУМГ (КС-1)</t>
   </si>
   <si>
     <t>Сургутское ЛПУМГ (УСС "Факел")</t>
   </si>
   <si>
-    <t>Сургутское ЛПУМГ (КС-3, Общежитие)</t>
-  </si>
-  <si>
-    <t>Сургутское ЛПУМГ (КС-4, Общежитие)</t>
+    <t>Сургутское ЛПУМГ (КС-3)</t>
+  </si>
+  <si>
+    <t>Сургутское ЛПУМГ (КС-4)</t>
   </si>
   <si>
     <t>Сургутское ЛПУМГ (гост. "Ермак")</t>
   </si>
   <si>
-    <t>Сургутское ЛПУМГ (КС-2, Общежитие)</t>
+    <t>Сургутское ЛПУМГ (КС-2)</t>
   </si>
   <si>
     <t>ЯНАО, ВЖК при КС "Пуртазовская" системы газопроводов Заполярье-Уренгой</t>
@@ -161,6 +149,9 @@
   </si>
   <si>
     <t>Очень вкусная еда!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Блюда приносят холодные </t>
   </si>
 </sst>
 </file>
@@ -522,50 +513,62 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2">
         <v>44161</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2">
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="2">
         <v>44161</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="2">
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2">
         <v>44161</v>
       </c>
     </row>
@@ -576,306 +579,30 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G13"/>
+  <dimension ref="B1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="2:7">
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>136953</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
         <v>10</v>
-      </c>
-      <c r="F2" s="2">
-        <v>44165</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>136953</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3">
-        <v>4</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="2">
-        <v>44165</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>136953</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="2">
-        <v>44165</v>
-      </c>
-      <c r="G4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>258094</v>
-      </c>
-      <c r="C5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>4</v>
-      </c>
-      <c r="E5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="2">
-        <v>44165</v>
-      </c>
-      <c r="G5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>258094</v>
-      </c>
-      <c r="C6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6">
-        <v>3</v>
-      </c>
-      <c r="E6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="2">
-        <v>44165</v>
-      </c>
-      <c r="G6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>258094</v>
-      </c>
-      <c r="C7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7">
-        <v>5</v>
-      </c>
-      <c r="E7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="2">
-        <v>44165</v>
-      </c>
-      <c r="G7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>279358</v>
-      </c>
-      <c r="C8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="2">
-        <v>44165</v>
-      </c>
-      <c r="G8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>279358</v>
-      </c>
-      <c r="C9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="2">
-        <v>44165</v>
-      </c>
-      <c r="G9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>279358</v>
-      </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="2">
-        <v>44165</v>
-      </c>
-      <c r="G10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>107781</v>
-      </c>
-      <c r="C11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11">
-        <v>5</v>
-      </c>
-      <c r="E11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="2">
-        <v>44165</v>
-      </c>
-      <c r="G11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>107781</v>
-      </c>
-      <c r="C12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12">
-        <v>4</v>
-      </c>
-      <c r="E12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="2">
-        <v>44165</v>
-      </c>
-      <c r="G12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>107781</v>
-      </c>
-      <c r="C13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13">
-        <v>5</v>
-      </c>
-      <c r="E13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="2">
-        <v>44165</v>
-      </c>
-      <c r="G13" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -893,10 +620,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -904,10 +631,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -915,10 +642,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -926,10 +653,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -937,10 +664,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -948,10 +675,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -959,10 +686,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -970,10 +697,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -981,10 +708,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -992,10 +719,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1003,10 +730,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1014,10 +741,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1025,10 +752,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1036,10 +763,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1049,7 +776,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1057,10 +784,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1071,7 +798,7 @@
         <v>24057</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1082,7 +809,7 @@
         <v>233336</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1093,7 +820,7 @@
         <v>258094</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1104,7 +831,18 @@
         <v>107781</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>216148</v>
+      </c>
+      <c r="C6" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/app/out.xlsx
+++ b/app/out.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="41">
   <si>
     <t>Номер_Вопроса</t>
   </si>
@@ -28,13 +28,13 @@
     <t>Дата создания</t>
   </si>
   <si>
-    <t>Довольны ли Вы качеством предоставляемого питания?</t>
-  </si>
-  <si>
-    <t>Устраивают ли Вас бытовые условия? (питьевой режим, температура в помещении, досуг и психологический климат)</t>
-  </si>
-  <si>
-    <t>Довольны ли Вы работой обслуживающего персонала?</t>
+    <t>Первый вопрос</t>
+  </si>
+  <si>
+    <t>Второй вопрос</t>
+  </si>
+  <si>
+    <t>Третий вопрос</t>
   </si>
   <si>
     <t>unique_key</t>
@@ -64,6 +64,12 @@
     <t>Пурпейское ЛПУМГ (КС - 01, Общежитие на 100 мест Ягенетская п/п)</t>
   </si>
   <si>
+    <t>Демьянское ЛПУМГ (КС - 7, Общежитие в п. Демьянка)</t>
+  </si>
+  <si>
+    <t>Сургутское ЛПУМГ (УСС "Факел")</t>
+  </si>
+  <si>
     <t>Название_ПВИ</t>
   </si>
   <si>
@@ -73,9 +79,6 @@
     <t>Губкинское ЛПУМГ (КС - 03, Общежитие №1)</t>
   </si>
   <si>
-    <t>Демьянское ЛПУМГ (КС - 7, Общежитие в п. Демьянка)</t>
-  </si>
-  <si>
     <t>Туртасское ЛПУМГ (КС-8, Общежитие в п. Пионерный)</t>
   </si>
   <si>
@@ -85,9 +88,6 @@
     <t>Вынгапуровское ЛПУМГ (КС-1, Общежитие)</t>
   </si>
   <si>
-    <t>Сургутское ЛПУМГ (УСС "Факел")</t>
-  </si>
-  <si>
     <t>Сургутское ЛПУМГ (КС-3, Общежитие)</t>
   </si>
   <si>
@@ -140,12 +140,6 @@
   </si>
   <si>
     <t>Пожелание</t>
-  </si>
-  <si>
-    <t>Очень положительный комент</t>
-  </si>
-  <si>
-    <t>Общий комментарий</t>
   </si>
 </sst>
 </file>
@@ -535,7 +529,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="2">
-        <v>44161</v>
+        <v>44165</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -549,7 +543,7 @@
         <v>4</v>
       </c>
       <c r="D3" s="2">
-        <v>44161</v>
+        <v>44165</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -563,7 +557,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="2">
-        <v>44161</v>
+        <v>44165</v>
       </c>
     </row>
   </sheetData>
@@ -573,7 +567,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -604,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>179182</v>
+        <v>78035</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -627,7 +621,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>179182</v>
+        <v>78035</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -650,7 +644,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>179182</v>
+        <v>78035</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -673,7 +667,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>212300</v>
+        <v>142820</v>
       </c>
       <c r="C5" t="s">
         <v>3</v>
@@ -688,7 +682,7 @@
         <v>44165</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -696,7 +690,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>212300</v>
+        <v>142820</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -711,7 +705,7 @@
         <v>44165</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -719,7 +713,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>212300</v>
+        <v>142820</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -734,7 +728,7 @@
         <v>44165</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -742,7 +736,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13679</v>
+        <v>150831</v>
       </c>
       <c r="C8" t="s">
         <v>3</v>
@@ -757,7 +751,7 @@
         <v>44165</v>
       </c>
       <c r="G8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -765,7 +759,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13679</v>
+        <v>150831</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
@@ -780,7 +774,7 @@
         <v>44165</v>
       </c>
       <c r="G9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -788,7 +782,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13679</v>
+        <v>150831</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -803,7 +797,7 @@
         <v>44165</v>
       </c>
       <c r="G10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -811,7 +805,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>146533</v>
+        <v>9022</v>
       </c>
       <c r="C11" t="s">
         <v>3</v>
@@ -826,7 +820,7 @@
         <v>44165</v>
       </c>
       <c r="G11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -834,7 +828,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>146533</v>
+        <v>9022</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
@@ -849,7 +843,7 @@
         <v>44165</v>
       </c>
       <c r="G12" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -857,7 +851,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>146533</v>
+        <v>9022</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -872,6 +866,558 @@
         <v>44165</v>
       </c>
       <c r="G13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>218044</v>
+      </c>
+      <c r="C14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="2">
+        <v>44165</v>
+      </c>
+      <c r="G14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>218044</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="2">
+        <v>44165</v>
+      </c>
+      <c r="G15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>218044</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="2">
+        <v>44165</v>
+      </c>
+      <c r="G16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>233672</v>
+      </c>
+      <c r="C17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="2">
+        <v>44165</v>
+      </c>
+      <c r="G17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>233672</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="2">
+        <v>44165</v>
+      </c>
+      <c r="G18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>233672</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="2">
+        <v>44165</v>
+      </c>
+      <c r="G19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>265177</v>
+      </c>
+      <c r="C20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20">
+        <v>5</v>
+      </c>
+      <c r="E20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="2">
+        <v>44165</v>
+      </c>
+      <c r="G20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>265177</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21">
+        <v>4</v>
+      </c>
+      <c r="E21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="2">
+        <v>44165</v>
+      </c>
+      <c r="G21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>265177</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="2">
+        <v>44165</v>
+      </c>
+      <c r="G22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>292964</v>
+      </c>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="2">
+        <v>44167</v>
+      </c>
+      <c r="G23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>292964</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="2">
+        <v>44167</v>
+      </c>
+      <c r="G24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>292964</v>
+      </c>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="2">
+        <v>44167</v>
+      </c>
+      <c r="G25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>137897</v>
+      </c>
+      <c r="C26" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26">
+        <v>3</v>
+      </c>
+      <c r="E26" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="2">
+        <v>44167</v>
+      </c>
+      <c r="G26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>137897</v>
+      </c>
+      <c r="C27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="2">
+        <v>44167</v>
+      </c>
+      <c r="G27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>137897</v>
+      </c>
+      <c r="C28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28">
+        <v>3</v>
+      </c>
+      <c r="E28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="2">
+        <v>44167</v>
+      </c>
+      <c r="G28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>177809</v>
+      </c>
+      <c r="C29" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29">
+        <v>3</v>
+      </c>
+      <c r="E29" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" s="2">
+        <v>44167</v>
+      </c>
+      <c r="G29" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>177809</v>
+      </c>
+      <c r="C30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30">
+        <v>3</v>
+      </c>
+      <c r="E30" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" s="2">
+        <v>44167</v>
+      </c>
+      <c r="G30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>177809</v>
+      </c>
+      <c r="C31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31">
+        <v>3</v>
+      </c>
+      <c r="E31" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" s="2">
+        <v>44167</v>
+      </c>
+      <c r="G31" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>238761</v>
+      </c>
+      <c r="C32" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32">
+        <v>5</v>
+      </c>
+      <c r="E32" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" s="2">
+        <v>44167</v>
+      </c>
+      <c r="G32" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>238761</v>
+      </c>
+      <c r="C33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33">
+        <v>5</v>
+      </c>
+      <c r="E33" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" s="2">
+        <v>44167</v>
+      </c>
+      <c r="G33" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>238761</v>
+      </c>
+      <c r="C34" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34">
+        <v>3</v>
+      </c>
+      <c r="E34" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" s="2">
+        <v>44167</v>
+      </c>
+      <c r="G34" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>198786</v>
+      </c>
+      <c r="C35" t="s">
+        <v>3</v>
+      </c>
+      <c r="D35">
+        <v>5</v>
+      </c>
+      <c r="E35" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35" s="2">
+        <v>44167</v>
+      </c>
+      <c r="G35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>198786</v>
+      </c>
+      <c r="C36" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36">
+        <v>5</v>
+      </c>
+      <c r="E36" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" s="2">
+        <v>44167</v>
+      </c>
+      <c r="G36" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>198786</v>
+      </c>
+      <c r="C37" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37">
+        <v>3</v>
+      </c>
+      <c r="E37" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" s="2">
+        <v>44167</v>
+      </c>
+      <c r="G37" t="s">
         <v>12</v>
       </c>
     </row>
@@ -890,10 +1436,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -934,7 +1480,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
         <v>30</v>
@@ -945,7 +1491,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
         <v>31</v>
@@ -956,7 +1502,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
         <v>32</v>
@@ -967,7 +1513,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
         <v>33</v>
@@ -978,7 +1524,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
         <v>34</v>
@@ -989,7 +1535,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
         <v>35</v>
@@ -1046,40 +1592,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="B1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="2:3">
       <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>24057</v>
-      </c>
-      <c r="C2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>233336</v>
-      </c>
-      <c r="C3" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/app/out.xlsx
+++ b/app/out.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1845" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1854" uniqueCount="198">
   <si>
     <t>Номер_Вопроса</t>
   </si>
@@ -429,6 +429,9 @@
   </si>
   <si>
     <t>Сургутское ЛПУМГ (УСС "Факел")</t>
+  </si>
+  <si>
+    <t>(КС-2) Ортьягунское ЛПУМГ</t>
   </si>
   <si>
     <t>Название_ПВИ</t>
@@ -1053,7 +1056,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G586"/>
+  <dimension ref="A1:G589"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -14532,6 +14535,75 @@
       </c>
       <c r="G586" t="s">
         <v>133</v>
+      </c>
+    </row>
+    <row r="587" spans="1:7">
+      <c r="A587" s="1">
+        <v>585</v>
+      </c>
+      <c r="B587">
+        <v>57434</v>
+      </c>
+      <c r="C587" t="s">
+        <v>3</v>
+      </c>
+      <c r="D587">
+        <v>5</v>
+      </c>
+      <c r="E587" t="s">
+        <v>11</v>
+      </c>
+      <c r="F587" s="2">
+        <v>44178</v>
+      </c>
+      <c r="G587" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="588" spans="1:7">
+      <c r="A588" s="1">
+        <v>586</v>
+      </c>
+      <c r="B588">
+        <v>57434</v>
+      </c>
+      <c r="C588" t="s">
+        <v>4</v>
+      </c>
+      <c r="D588">
+        <v>5</v>
+      </c>
+      <c r="E588" t="s">
+        <v>11</v>
+      </c>
+      <c r="F588" s="2">
+        <v>44178</v>
+      </c>
+      <c r="G588" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="589" spans="1:7">
+      <c r="A589" s="1">
+        <v>587</v>
+      </c>
+      <c r="B589">
+        <v>57434</v>
+      </c>
+      <c r="C589" t="s">
+        <v>5</v>
+      </c>
+      <c r="D589">
+        <v>5</v>
+      </c>
+      <c r="E589" t="s">
+        <v>11</v>
+      </c>
+      <c r="F589" s="2">
+        <v>44178</v>
+      </c>
+      <c r="G589" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -14549,10 +14621,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -14563,7 +14635,7 @@
         <v>125</v>
       </c>
       <c r="C2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -14571,10 +14643,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -14585,7 +14657,7 @@
         <v>126</v>
       </c>
       <c r="C4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -14596,7 +14668,7 @@
         <v>124</v>
       </c>
       <c r="C5" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -14604,10 +14676,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C6" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -14618,7 +14690,7 @@
         <v>123</v>
       </c>
       <c r="C7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -14629,7 +14701,7 @@
         <v>132</v>
       </c>
       <c r="C8" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -14640,7 +14712,7 @@
         <v>128</v>
       </c>
       <c r="C9" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -14651,7 +14723,7 @@
         <v>133</v>
       </c>
       <c r="C10" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -14662,7 +14734,7 @@
         <v>127</v>
       </c>
       <c r="C11" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -14673,7 +14745,7 @@
         <v>130</v>
       </c>
       <c r="C12" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -14684,7 +14756,7 @@
         <v>131</v>
       </c>
       <c r="C13" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -14692,10 +14764,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C14" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -14716,7 +14788,7 @@
         <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -14727,7 +14799,7 @@
         <v>24057</v>
       </c>
       <c r="C2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -14738,7 +14810,7 @@
         <v>233336</v>
       </c>
       <c r="C3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -14749,7 +14821,7 @@
         <v>258094</v>
       </c>
       <c r="C4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -14760,7 +14832,7 @@
         <v>107781</v>
       </c>
       <c r="C5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -14771,7 +14843,7 @@
         <v>216148</v>
       </c>
       <c r="C6" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -14782,7 +14854,7 @@
         <v>214558</v>
       </c>
       <c r="C7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -14793,7 +14865,7 @@
         <v>5871</v>
       </c>
       <c r="C8" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -14804,7 +14876,7 @@
         <v>80327</v>
       </c>
       <c r="C9" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -14815,7 +14887,7 @@
         <v>232342</v>
       </c>
       <c r="C10" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -14826,7 +14898,7 @@
         <v>215485</v>
       </c>
       <c r="C11" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -14837,7 +14909,7 @@
         <v>106616</v>
       </c>
       <c r="C12" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -14848,7 +14920,7 @@
         <v>293274</v>
       </c>
       <c r="C13" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -14859,7 +14931,7 @@
         <v>137281</v>
       </c>
       <c r="C14" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -14870,7 +14942,7 @@
         <v>215431</v>
       </c>
       <c r="C15" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -14881,7 +14953,7 @@
         <v>208016</v>
       </c>
       <c r="C16" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -14892,7 +14964,7 @@
         <v>227785</v>
       </c>
       <c r="C17" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -14903,7 +14975,7 @@
         <v>107364</v>
       </c>
       <c r="C18" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -14914,7 +14986,7 @@
         <v>284926</v>
       </c>
       <c r="C19" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -14925,7 +14997,7 @@
         <v>124609</v>
       </c>
       <c r="C20" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -14936,7 +15008,7 @@
         <v>183271</v>
       </c>
       <c r="C21" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -14947,7 +15019,7 @@
         <v>214182</v>
       </c>
       <c r="C22" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -14958,7 +15030,7 @@
         <v>126371</v>
       </c>
       <c r="C23" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -14969,7 +15041,7 @@
         <v>218071</v>
       </c>
       <c r="C24" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -14980,7 +15052,7 @@
         <v>277513</v>
       </c>
       <c r="C25" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -14991,7 +15063,7 @@
         <v>112959</v>
       </c>
       <c r="C26" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -15002,7 +15074,7 @@
         <v>278974</v>
       </c>
       <c r="C27" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -15013,7 +15085,7 @@
         <v>50154</v>
       </c>
       <c r="C28" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -15024,7 +15096,7 @@
         <v>258548</v>
       </c>
       <c r="C29" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -15035,7 +15107,7 @@
         <v>48868</v>
       </c>
       <c r="C30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -15046,7 +15118,7 @@
         <v>239683</v>
       </c>
       <c r="C31" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -15057,7 +15129,7 @@
         <v>42165</v>
       </c>
       <c r="C32" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -15068,7 +15140,7 @@
         <v>218901</v>
       </c>
       <c r="C33" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -15079,7 +15151,7 @@
         <v>166374</v>
       </c>
       <c r="C34" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -15090,7 +15162,7 @@
         <v>231747</v>
       </c>
       <c r="C35" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -15101,7 +15173,7 @@
         <v>31016</v>
       </c>
       <c r="C36" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -15112,7 +15184,7 @@
         <v>21933</v>
       </c>
       <c r="C37" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -15123,7 +15195,7 @@
         <v>152440</v>
       </c>
       <c r="C38" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -15134,7 +15206,7 @@
         <v>217149</v>
       </c>
       <c r="C39" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -15145,7 +15217,7 @@
         <v>58273</v>
       </c>
       <c r="C40" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -15156,7 +15228,7 @@
         <v>153489</v>
       </c>
       <c r="C41" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -15167,7 +15239,7 @@
         <v>297019</v>
       </c>
       <c r="C42" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -15178,7 +15250,7 @@
         <v>267752</v>
       </c>
       <c r="C43" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -15189,7 +15261,7 @@
         <v>219521</v>
       </c>
       <c r="C44" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -15200,7 +15272,7 @@
         <v>229749</v>
       </c>
       <c r="C45" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -15211,7 +15283,7 @@
         <v>119098</v>
       </c>
       <c r="C46" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -15222,7 +15294,7 @@
         <v>284142</v>
       </c>
       <c r="C47" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -15233,7 +15305,7 @@
         <v>205192</v>
       </c>
       <c r="C48" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -15244,7 +15316,7 @@
         <v>126808</v>
       </c>
       <c r="C49" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>

--- a/app/out.xlsx
+++ b/app/out.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1854" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1864" uniqueCount="211">
   <si>
     <t>Номер_Вопроса</t>
   </si>
@@ -398,6 +398,9 @@
     <t>Доволен</t>
   </si>
   <si>
+    <t>хорошо</t>
+  </si>
+  <si>
     <t>Туртасское ЛПУМГ (КС-8)</t>
   </si>
   <si>
@@ -434,16 +437,49 @@
     <t>(КС-2) Ортьягунское ЛПУМГ</t>
   </si>
   <si>
+    <t>ПВИ №1, КС Пуртазовская, Н-Уренгойское ЛПУМГ</t>
+  </si>
+  <si>
     <t>Название_ПВИ</t>
   </si>
   <si>
     <t>Местонахождение_ПВИ</t>
   </si>
   <si>
-    <t>Н-Уренгойское ЛПУМГ (ПВП №2)</t>
-  </si>
-  <si>
-    <t>Демьянское ЛПУМГ (КС-7)</t>
+    <t>ПВИ №2, Н-Уренгойское ЛПУМГ</t>
+  </si>
+  <si>
+    <t>КС-01, Пурпейское ЛПУМГ</t>
+  </si>
+  <si>
+    <t>КС-03, Губкинское ЛПУМГ</t>
+  </si>
+  <si>
+    <t>КС-7, Демьянское ЛПУМГ</t>
+  </si>
+  <si>
+    <t>КС-8, Туртасское ЛПУМГ</t>
+  </si>
+  <si>
+    <t>КС-9, Тобольское ЛПУМГ</t>
+  </si>
+  <si>
+    <t>КС-1, Вынгапуровское ЛПУМГ</t>
+  </si>
+  <si>
+    <t>УСС "Факел", Сургутское ЛПУМГ</t>
+  </si>
+  <si>
+    <t>КС-3, Сургутское ЛПУМГ</t>
+  </si>
+  <si>
+    <t>КС-4, Сургутское ЛПУМГ</t>
+  </si>
+  <si>
+    <t>гост. "Ермак", Сургутское ЛПУМГ</t>
+  </si>
+  <si>
+    <t>КС-2, Ортьягунское ЛПУМГ</t>
   </si>
   <si>
     <t>ЯНАО, ВЖК при КС "Пуртазовская" системы газопроводов Заполярье-Уренгой</t>
@@ -482,7 +518,7 @@
     <t>ХМАО-Югра, г. Сургут проспект Набережный, 31</t>
   </si>
   <si>
-    <t>Сургутское ЛПУМГ</t>
+    <t>жилой поселок Ортьягунского ЛПУМГ</t>
   </si>
   <si>
     <t>Пожелание</t>
@@ -629,6 +665,9 @@
   </si>
   <si>
     <t xml:space="preserve">Необходимо доосностить номера СВЧ печами и холодильниками стандартного размера ( которые есть малы) </t>
+  </si>
+  <si>
+    <t>СУПЕР</t>
   </si>
 </sst>
 </file>
@@ -1056,7 +1095,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G589"/>
+  <dimension ref="A1:G592"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1102,7 +1141,7 @@
         <v>44167</v>
       </c>
       <c r="G2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1125,7 +1164,7 @@
         <v>44167</v>
       </c>
       <c r="G3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1148,7 +1187,7 @@
         <v>44167</v>
       </c>
       <c r="G4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1171,7 +1210,7 @@
         <v>44167</v>
       </c>
       <c r="G5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1194,7 +1233,7 @@
         <v>44167</v>
       </c>
       <c r="G6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1217,7 +1256,7 @@
         <v>44167</v>
       </c>
       <c r="G7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1240,7 +1279,7 @@
         <v>44167</v>
       </c>
       <c r="G8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1263,7 +1302,7 @@
         <v>44167</v>
       </c>
       <c r="G9" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1286,7 +1325,7 @@
         <v>44167</v>
       </c>
       <c r="G10" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1309,7 +1348,7 @@
         <v>44167</v>
       </c>
       <c r="G11" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1332,7 +1371,7 @@
         <v>44167</v>
       </c>
       <c r="G12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1355,7 +1394,7 @@
         <v>44167</v>
       </c>
       <c r="G13" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1378,7 +1417,7 @@
         <v>44167</v>
       </c>
       <c r="G14" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1401,7 +1440,7 @@
         <v>44167</v>
       </c>
       <c r="G15" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1424,7 +1463,7 @@
         <v>44167</v>
       </c>
       <c r="G16" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1447,7 +1486,7 @@
         <v>44167</v>
       </c>
       <c r="G17" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1470,7 +1509,7 @@
         <v>44167</v>
       </c>
       <c r="G18" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1493,7 +1532,7 @@
         <v>44167</v>
       </c>
       <c r="G19" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1516,7 +1555,7 @@
         <v>44167</v>
       </c>
       <c r="G20" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1539,7 +1578,7 @@
         <v>44167</v>
       </c>
       <c r="G21" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1562,7 +1601,7 @@
         <v>44167</v>
       </c>
       <c r="G22" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1585,7 +1624,7 @@
         <v>44167</v>
       </c>
       <c r="G23" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1608,7 +1647,7 @@
         <v>44167</v>
       </c>
       <c r="G24" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1631,7 +1670,7 @@
         <v>44167</v>
       </c>
       <c r="G25" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1654,7 +1693,7 @@
         <v>44167</v>
       </c>
       <c r="G26" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1677,7 +1716,7 @@
         <v>44167</v>
       </c>
       <c r="G27" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1700,7 +1739,7 @@
         <v>44167</v>
       </c>
       <c r="G28" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1723,7 +1762,7 @@
         <v>44167</v>
       </c>
       <c r="G29" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1746,7 +1785,7 @@
         <v>44167</v>
       </c>
       <c r="G30" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1769,7 +1808,7 @@
         <v>44167</v>
       </c>
       <c r="G31" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1792,7 +1831,7 @@
         <v>44167</v>
       </c>
       <c r="G32" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1815,7 +1854,7 @@
         <v>44167</v>
       </c>
       <c r="G33" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1838,7 +1877,7 @@
         <v>44167</v>
       </c>
       <c r="G34" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1861,7 +1900,7 @@
         <v>44167</v>
       </c>
       <c r="G35" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1884,7 +1923,7 @@
         <v>44167</v>
       </c>
       <c r="G36" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1907,7 +1946,7 @@
         <v>44167</v>
       </c>
       <c r="G37" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1930,7 +1969,7 @@
         <v>44167</v>
       </c>
       <c r="G38" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1953,7 +1992,7 @@
         <v>44167</v>
       </c>
       <c r="G39" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1976,7 +2015,7 @@
         <v>44167</v>
       </c>
       <c r="G40" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1999,7 +2038,7 @@
         <v>44167</v>
       </c>
       <c r="G41" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -2022,7 +2061,7 @@
         <v>44167</v>
       </c>
       <c r="G42" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -2045,7 +2084,7 @@
         <v>44167</v>
       </c>
       <c r="G43" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -2068,7 +2107,7 @@
         <v>44167</v>
       </c>
       <c r="G44" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -2091,7 +2130,7 @@
         <v>44167</v>
       </c>
       <c r="G45" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -2114,7 +2153,7 @@
         <v>44167</v>
       </c>
       <c r="G46" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -2137,7 +2176,7 @@
         <v>44167</v>
       </c>
       <c r="G47" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -2160,7 +2199,7 @@
         <v>44167</v>
       </c>
       <c r="G48" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -2183,7 +2222,7 @@
         <v>44167</v>
       </c>
       <c r="G49" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -2206,7 +2245,7 @@
         <v>44167</v>
       </c>
       <c r="G50" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -2229,7 +2268,7 @@
         <v>44167</v>
       </c>
       <c r="G51" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -2252,7 +2291,7 @@
         <v>44167</v>
       </c>
       <c r="G52" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -2275,7 +2314,7 @@
         <v>44167</v>
       </c>
       <c r="G53" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -2298,7 +2337,7 @@
         <v>44167</v>
       </c>
       <c r="G54" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -2321,7 +2360,7 @@
         <v>44167</v>
       </c>
       <c r="G55" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -2344,7 +2383,7 @@
         <v>44167</v>
       </c>
       <c r="G56" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -2367,7 +2406,7 @@
         <v>44167</v>
       </c>
       <c r="G57" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -2390,7 +2429,7 @@
         <v>44167</v>
       </c>
       <c r="G58" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -2413,7 +2452,7 @@
         <v>44167</v>
       </c>
       <c r="G59" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -2436,7 +2475,7 @@
         <v>44167</v>
       </c>
       <c r="G60" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -2459,7 +2498,7 @@
         <v>44167</v>
       </c>
       <c r="G61" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -2482,7 +2521,7 @@
         <v>44167</v>
       </c>
       <c r="G62" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -2505,7 +2544,7 @@
         <v>44167</v>
       </c>
       <c r="G63" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -2528,7 +2567,7 @@
         <v>44167</v>
       </c>
       <c r="G64" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -2551,7 +2590,7 @@
         <v>44167</v>
       </c>
       <c r="G65" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -2574,7 +2613,7 @@
         <v>44167</v>
       </c>
       <c r="G66" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -2597,7 +2636,7 @@
         <v>44167</v>
       </c>
       <c r="G67" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -2620,7 +2659,7 @@
         <v>44167</v>
       </c>
       <c r="G68" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -2643,7 +2682,7 @@
         <v>44167</v>
       </c>
       <c r="G69" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -2666,7 +2705,7 @@
         <v>44167</v>
       </c>
       <c r="G70" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2689,7 +2728,7 @@
         <v>44167</v>
       </c>
       <c r="G71" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2712,7 +2751,7 @@
         <v>44167</v>
       </c>
       <c r="G72" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2735,7 +2774,7 @@
         <v>44167</v>
       </c>
       <c r="G73" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2758,7 +2797,7 @@
         <v>44167</v>
       </c>
       <c r="G74" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2781,7 +2820,7 @@
         <v>44167</v>
       </c>
       <c r="G75" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2804,7 +2843,7 @@
         <v>44167</v>
       </c>
       <c r="G76" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2827,7 +2866,7 @@
         <v>44167</v>
       </c>
       <c r="G77" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -2850,7 +2889,7 @@
         <v>44167</v>
       </c>
       <c r="G78" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -2873,7 +2912,7 @@
         <v>44167</v>
       </c>
       <c r="G79" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -2896,7 +2935,7 @@
         <v>44167</v>
       </c>
       <c r="G80" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -2919,7 +2958,7 @@
         <v>44167</v>
       </c>
       <c r="G81" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -2942,7 +2981,7 @@
         <v>44167</v>
       </c>
       <c r="G82" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -2965,7 +3004,7 @@
         <v>44167</v>
       </c>
       <c r="G83" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -2988,7 +3027,7 @@
         <v>44167</v>
       </c>
       <c r="G84" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -3011,7 +3050,7 @@
         <v>44167</v>
       </c>
       <c r="G85" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -3034,7 +3073,7 @@
         <v>44167</v>
       </c>
       <c r="G86" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -3057,7 +3096,7 @@
         <v>44167</v>
       </c>
       <c r="G87" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -3080,7 +3119,7 @@
         <v>44167</v>
       </c>
       <c r="G88" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -3103,7 +3142,7 @@
         <v>44167</v>
       </c>
       <c r="G89" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -3126,7 +3165,7 @@
         <v>44167</v>
       </c>
       <c r="G90" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -3149,7 +3188,7 @@
         <v>44167</v>
       </c>
       <c r="G91" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -3172,7 +3211,7 @@
         <v>44167</v>
       </c>
       <c r="G92" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -3195,7 +3234,7 @@
         <v>44167</v>
       </c>
       <c r="G93" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -3218,7 +3257,7 @@
         <v>44167</v>
       </c>
       <c r="G94" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -3241,7 +3280,7 @@
         <v>44167</v>
       </c>
       <c r="G95" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -3264,7 +3303,7 @@
         <v>44167</v>
       </c>
       <c r="G96" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -3287,7 +3326,7 @@
         <v>44167</v>
       </c>
       <c r="G97" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -3310,7 +3349,7 @@
         <v>44167</v>
       </c>
       <c r="G98" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -3333,7 +3372,7 @@
         <v>44167</v>
       </c>
       <c r="G99" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -3356,7 +3395,7 @@
         <v>44167</v>
       </c>
       <c r="G100" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -3379,7 +3418,7 @@
         <v>44167</v>
       </c>
       <c r="G101" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -3402,7 +3441,7 @@
         <v>44167</v>
       </c>
       <c r="G102" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -3425,7 +3464,7 @@
         <v>44167</v>
       </c>
       <c r="G103" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -3448,7 +3487,7 @@
         <v>44167</v>
       </c>
       <c r="G104" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -3471,7 +3510,7 @@
         <v>44167</v>
       </c>
       <c r="G105" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -3494,7 +3533,7 @@
         <v>44167</v>
       </c>
       <c r="G106" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -3517,7 +3556,7 @@
         <v>44167</v>
       </c>
       <c r="G107" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -3540,7 +3579,7 @@
         <v>44167</v>
       </c>
       <c r="G108" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -3563,7 +3602,7 @@
         <v>44167</v>
       </c>
       <c r="G109" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -3586,7 +3625,7 @@
         <v>44167</v>
       </c>
       <c r="G110" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -3609,7 +3648,7 @@
         <v>44167</v>
       </c>
       <c r="G111" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -3632,7 +3671,7 @@
         <v>44167</v>
       </c>
       <c r="G112" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -3655,7 +3694,7 @@
         <v>44167</v>
       </c>
       <c r="G113" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -3678,7 +3717,7 @@
         <v>44167</v>
       </c>
       <c r="G114" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -3701,7 +3740,7 @@
         <v>44167</v>
       </c>
       <c r="G115" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -3724,7 +3763,7 @@
         <v>44167</v>
       </c>
       <c r="G116" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -3747,7 +3786,7 @@
         <v>44167</v>
       </c>
       <c r="G117" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -3770,7 +3809,7 @@
         <v>44167</v>
       </c>
       <c r="G118" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -3793,7 +3832,7 @@
         <v>44167</v>
       </c>
       <c r="G119" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -3816,7 +3855,7 @@
         <v>44167</v>
       </c>
       <c r="G120" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -3839,7 +3878,7 @@
         <v>44167</v>
       </c>
       <c r="G121" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -3862,7 +3901,7 @@
         <v>44167</v>
       </c>
       <c r="G122" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -3885,7 +3924,7 @@
         <v>44167</v>
       </c>
       <c r="G123" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -3908,7 +3947,7 @@
         <v>44167</v>
       </c>
       <c r="G124" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -3931,7 +3970,7 @@
         <v>44167</v>
       </c>
       <c r="G125" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -3954,7 +3993,7 @@
         <v>44167</v>
       </c>
       <c r="G126" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -3977,7 +4016,7 @@
         <v>44167</v>
       </c>
       <c r="G127" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -4000,7 +4039,7 @@
         <v>44167</v>
       </c>
       <c r="G128" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -4023,7 +4062,7 @@
         <v>44167</v>
       </c>
       <c r="G129" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -4046,7 +4085,7 @@
         <v>44167</v>
       </c>
       <c r="G130" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -4069,7 +4108,7 @@
         <v>44167</v>
       </c>
       <c r="G131" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -4092,7 +4131,7 @@
         <v>44167</v>
       </c>
       <c r="G132" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -4115,7 +4154,7 @@
         <v>44167</v>
       </c>
       <c r="G133" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -4138,7 +4177,7 @@
         <v>44167</v>
       </c>
       <c r="G134" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -4161,7 +4200,7 @@
         <v>44167</v>
       </c>
       <c r="G135" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -4184,7 +4223,7 @@
         <v>44167</v>
       </c>
       <c r="G136" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -4207,7 +4246,7 @@
         <v>44167</v>
       </c>
       <c r="G137" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -4230,7 +4269,7 @@
         <v>44167</v>
       </c>
       <c r="G138" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -4253,7 +4292,7 @@
         <v>44167</v>
       </c>
       <c r="G139" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -4276,7 +4315,7 @@
         <v>44167</v>
       </c>
       <c r="G140" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -4299,7 +4338,7 @@
         <v>44167</v>
       </c>
       <c r="G141" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -4322,7 +4361,7 @@
         <v>44167</v>
       </c>
       <c r="G142" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -4345,7 +4384,7 @@
         <v>44167</v>
       </c>
       <c r="G143" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -4368,7 +4407,7 @@
         <v>44167</v>
       </c>
       <c r="G144" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -4391,7 +4430,7 @@
         <v>44167</v>
       </c>
       <c r="G145" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -4414,7 +4453,7 @@
         <v>44167</v>
       </c>
       <c r="G146" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -4437,7 +4476,7 @@
         <v>44167</v>
       </c>
       <c r="G147" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -4460,7 +4499,7 @@
         <v>44167</v>
       </c>
       <c r="G148" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -4483,7 +4522,7 @@
         <v>44167</v>
       </c>
       <c r="G149" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -4506,7 +4545,7 @@
         <v>44167</v>
       </c>
       <c r="G150" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="151" spans="1:7">
@@ -4529,7 +4568,7 @@
         <v>44167</v>
       </c>
       <c r="G151" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -4552,7 +4591,7 @@
         <v>44167</v>
       </c>
       <c r="G152" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -4575,7 +4614,7 @@
         <v>44167</v>
       </c>
       <c r="G153" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -4598,7 +4637,7 @@
         <v>44167</v>
       </c>
       <c r="G154" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -4621,7 +4660,7 @@
         <v>44167</v>
       </c>
       <c r="G155" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -4644,7 +4683,7 @@
         <v>44167</v>
       </c>
       <c r="G156" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -4667,7 +4706,7 @@
         <v>44167</v>
       </c>
       <c r="G157" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -4690,7 +4729,7 @@
         <v>44167</v>
       </c>
       <c r="G158" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -4713,7 +4752,7 @@
         <v>44167</v>
       </c>
       <c r="G159" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -4736,7 +4775,7 @@
         <v>44167</v>
       </c>
       <c r="G160" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -4759,7 +4798,7 @@
         <v>44167</v>
       </c>
       <c r="G161" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -4782,7 +4821,7 @@
         <v>44167</v>
       </c>
       <c r="G162" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -4805,7 +4844,7 @@
         <v>44167</v>
       </c>
       <c r="G163" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -4828,7 +4867,7 @@
         <v>44167</v>
       </c>
       <c r="G164" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -4851,7 +4890,7 @@
         <v>44167</v>
       </c>
       <c r="G165" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -4874,7 +4913,7 @@
         <v>44167</v>
       </c>
       <c r="G166" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -4897,7 +4936,7 @@
         <v>44167</v>
       </c>
       <c r="G167" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -4920,7 +4959,7 @@
         <v>44167</v>
       </c>
       <c r="G168" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="169" spans="1:7">
@@ -4943,7 +4982,7 @@
         <v>44167</v>
       </c>
       <c r="G169" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="170" spans="1:7">
@@ -4966,7 +5005,7 @@
         <v>44167</v>
       </c>
       <c r="G170" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -4989,7 +5028,7 @@
         <v>44167</v>
       </c>
       <c r="G171" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="172" spans="1:7">
@@ -5012,7 +5051,7 @@
         <v>44167</v>
       </c>
       <c r="G172" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="173" spans="1:7">
@@ -5035,7 +5074,7 @@
         <v>44167</v>
       </c>
       <c r="G173" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -5058,7 +5097,7 @@
         <v>44167</v>
       </c>
       <c r="G174" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="175" spans="1:7">
@@ -5081,7 +5120,7 @@
         <v>44167</v>
       </c>
       <c r="G175" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="176" spans="1:7">
@@ -5104,7 +5143,7 @@
         <v>44167</v>
       </c>
       <c r="G176" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="177" spans="1:7">
@@ -5127,7 +5166,7 @@
         <v>44167</v>
       </c>
       <c r="G177" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="178" spans="1:7">
@@ -5150,7 +5189,7 @@
         <v>44167</v>
       </c>
       <c r="G178" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="179" spans="1:7">
@@ -5173,7 +5212,7 @@
         <v>44167</v>
       </c>
       <c r="G179" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -5196,7 +5235,7 @@
         <v>44167</v>
       </c>
       <c r="G180" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="181" spans="1:7">
@@ -5219,7 +5258,7 @@
         <v>44167</v>
       </c>
       <c r="G181" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="182" spans="1:7">
@@ -5242,7 +5281,7 @@
         <v>44167</v>
       </c>
       <c r="G182" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="183" spans="1:7">
@@ -5265,7 +5304,7 @@
         <v>44167</v>
       </c>
       <c r="G183" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="184" spans="1:7">
@@ -5288,7 +5327,7 @@
         <v>44167</v>
       </c>
       <c r="G184" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="185" spans="1:7">
@@ -5311,7 +5350,7 @@
         <v>44167</v>
       </c>
       <c r="G185" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="186" spans="1:7">
@@ -5334,7 +5373,7 @@
         <v>44167</v>
       </c>
       <c r="G186" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="187" spans="1:7">
@@ -5357,7 +5396,7 @@
         <v>44167</v>
       </c>
       <c r="G187" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="188" spans="1:7">
@@ -5380,7 +5419,7 @@
         <v>44167</v>
       </c>
       <c r="G188" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="189" spans="1:7">
@@ -5403,7 +5442,7 @@
         <v>44167</v>
       </c>
       <c r="G189" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="190" spans="1:7">
@@ -5426,7 +5465,7 @@
         <v>44167</v>
       </c>
       <c r="G190" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="191" spans="1:7">
@@ -5449,7 +5488,7 @@
         <v>44167</v>
       </c>
       <c r="G191" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="192" spans="1:7">
@@ -5472,7 +5511,7 @@
         <v>44167</v>
       </c>
       <c r="G192" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="193" spans="1:7">
@@ -5495,7 +5534,7 @@
         <v>44167</v>
       </c>
       <c r="G193" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="194" spans="1:7">
@@ -5518,7 +5557,7 @@
         <v>44167</v>
       </c>
       <c r="G194" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="195" spans="1:7">
@@ -5541,7 +5580,7 @@
         <v>44167</v>
       </c>
       <c r="G195" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="196" spans="1:7">
@@ -5564,7 +5603,7 @@
         <v>44167</v>
       </c>
       <c r="G196" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="197" spans="1:7">
@@ -5587,7 +5626,7 @@
         <v>44167</v>
       </c>
       <c r="G197" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="198" spans="1:7">
@@ -5610,7 +5649,7 @@
         <v>44167</v>
       </c>
       <c r="G198" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="199" spans="1:7">
@@ -5633,7 +5672,7 @@
         <v>44167</v>
       </c>
       <c r="G199" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="200" spans="1:7">
@@ -5656,7 +5695,7 @@
         <v>44167</v>
       </c>
       <c r="G200" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="201" spans="1:7">
@@ -5679,7 +5718,7 @@
         <v>44167</v>
       </c>
       <c r="G201" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="202" spans="1:7">
@@ -5702,7 +5741,7 @@
         <v>44167</v>
       </c>
       <c r="G202" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="203" spans="1:7">
@@ -5725,7 +5764,7 @@
         <v>44167</v>
       </c>
       <c r="G203" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="204" spans="1:7">
@@ -5748,7 +5787,7 @@
         <v>44167</v>
       </c>
       <c r="G204" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="205" spans="1:7">
@@ -5771,7 +5810,7 @@
         <v>44167</v>
       </c>
       <c r="G205" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="206" spans="1:7">
@@ -5794,7 +5833,7 @@
         <v>44167</v>
       </c>
       <c r="G206" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="207" spans="1:7">
@@ -5817,7 +5856,7 @@
         <v>44167</v>
       </c>
       <c r="G207" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="208" spans="1:7">
@@ -5840,7 +5879,7 @@
         <v>44167</v>
       </c>
       <c r="G208" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="209" spans="1:7">
@@ -5863,7 +5902,7 @@
         <v>44167</v>
       </c>
       <c r="G209" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="210" spans="1:7">
@@ -5886,7 +5925,7 @@
         <v>44167</v>
       </c>
       <c r="G210" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="211" spans="1:7">
@@ -5909,7 +5948,7 @@
         <v>44167</v>
       </c>
       <c r="G211" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="212" spans="1:7">
@@ -5932,7 +5971,7 @@
         <v>44167</v>
       </c>
       <c r="G212" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="213" spans="1:7">
@@ -5955,7 +5994,7 @@
         <v>44167</v>
       </c>
       <c r="G213" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="214" spans="1:7">
@@ -5978,7 +6017,7 @@
         <v>44167</v>
       </c>
       <c r="G214" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="215" spans="1:7">
@@ -6001,7 +6040,7 @@
         <v>44167</v>
       </c>
       <c r="G215" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="216" spans="1:7">
@@ -6024,7 +6063,7 @@
         <v>44167</v>
       </c>
       <c r="G216" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="217" spans="1:7">
@@ -6047,7 +6086,7 @@
         <v>44167</v>
       </c>
       <c r="G217" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="218" spans="1:7">
@@ -6070,7 +6109,7 @@
         <v>44167</v>
       </c>
       <c r="G218" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="219" spans="1:7">
@@ -6093,7 +6132,7 @@
         <v>44167</v>
       </c>
       <c r="G219" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="220" spans="1:7">
@@ -6116,7 +6155,7 @@
         <v>44167</v>
       </c>
       <c r="G220" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="221" spans="1:7">
@@ -6139,7 +6178,7 @@
         <v>44167</v>
       </c>
       <c r="G221" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="222" spans="1:7">
@@ -6162,7 +6201,7 @@
         <v>44167</v>
       </c>
       <c r="G222" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="223" spans="1:7">
@@ -6185,7 +6224,7 @@
         <v>44167</v>
       </c>
       <c r="G223" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="224" spans="1:7">
@@ -6208,7 +6247,7 @@
         <v>44167</v>
       </c>
       <c r="G224" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="225" spans="1:7">
@@ -6231,7 +6270,7 @@
         <v>44167</v>
       </c>
       <c r="G225" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="226" spans="1:7">
@@ -6254,7 +6293,7 @@
         <v>44167</v>
       </c>
       <c r="G226" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="227" spans="1:7">
@@ -6277,7 +6316,7 @@
         <v>44167</v>
       </c>
       <c r="G227" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="228" spans="1:7">
@@ -6300,7 +6339,7 @@
         <v>44167</v>
       </c>
       <c r="G228" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="229" spans="1:7">
@@ -6323,7 +6362,7 @@
         <v>44167</v>
       </c>
       <c r="G229" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="230" spans="1:7">
@@ -6346,7 +6385,7 @@
         <v>44167</v>
       </c>
       <c r="G230" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="231" spans="1:7">
@@ -6369,7 +6408,7 @@
         <v>44167</v>
       </c>
       <c r="G231" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="232" spans="1:7">
@@ -6392,7 +6431,7 @@
         <v>44167</v>
       </c>
       <c r="G232" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="233" spans="1:7">
@@ -6415,7 +6454,7 @@
         <v>44167</v>
       </c>
       <c r="G233" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="234" spans="1:7">
@@ -6438,7 +6477,7 @@
         <v>44167</v>
       </c>
       <c r="G234" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="235" spans="1:7">
@@ -6461,7 +6500,7 @@
         <v>44167</v>
       </c>
       <c r="G235" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="236" spans="1:7">
@@ -6484,7 +6523,7 @@
         <v>44167</v>
       </c>
       <c r="G236" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="237" spans="1:7">
@@ -6507,7 +6546,7 @@
         <v>44167</v>
       </c>
       <c r="G237" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="238" spans="1:7">
@@ -6530,7 +6569,7 @@
         <v>44167</v>
       </c>
       <c r="G238" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="239" spans="1:7">
@@ -6553,7 +6592,7 @@
         <v>44167</v>
       </c>
       <c r="G239" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="240" spans="1:7">
@@ -6576,7 +6615,7 @@
         <v>44167</v>
       </c>
       <c r="G240" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="241" spans="1:7">
@@ -6599,7 +6638,7 @@
         <v>44167</v>
       </c>
       <c r="G241" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="242" spans="1:7">
@@ -6622,7 +6661,7 @@
         <v>44167</v>
       </c>
       <c r="G242" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="243" spans="1:7">
@@ -6645,7 +6684,7 @@
         <v>44167</v>
       </c>
       <c r="G243" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="244" spans="1:7">
@@ -6668,7 +6707,7 @@
         <v>44167</v>
       </c>
       <c r="G244" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="245" spans="1:7">
@@ -6691,7 +6730,7 @@
         <v>44167</v>
       </c>
       <c r="G245" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="246" spans="1:7">
@@ -6714,7 +6753,7 @@
         <v>44167</v>
       </c>
       <c r="G246" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="247" spans="1:7">
@@ -6737,7 +6776,7 @@
         <v>44167</v>
       </c>
       <c r="G247" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="248" spans="1:7">
@@ -6760,7 +6799,7 @@
         <v>44167</v>
       </c>
       <c r="G248" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="249" spans="1:7">
@@ -6783,7 +6822,7 @@
         <v>44167</v>
       </c>
       <c r="G249" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="250" spans="1:7">
@@ -6806,7 +6845,7 @@
         <v>44167</v>
       </c>
       <c r="G250" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="251" spans="1:7">
@@ -6829,7 +6868,7 @@
         <v>44167</v>
       </c>
       <c r="G251" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="252" spans="1:7">
@@ -6852,7 +6891,7 @@
         <v>44167</v>
       </c>
       <c r="G252" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="253" spans="1:7">
@@ -6875,7 +6914,7 @@
         <v>44167</v>
       </c>
       <c r="G253" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="254" spans="1:7">
@@ -6898,7 +6937,7 @@
         <v>44167</v>
       </c>
       <c r="G254" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="255" spans="1:7">
@@ -6921,7 +6960,7 @@
         <v>44167</v>
       </c>
       <c r="G255" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="256" spans="1:7">
@@ -6944,7 +6983,7 @@
         <v>44167</v>
       </c>
       <c r="G256" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="257" spans="1:7">
@@ -6967,7 +7006,7 @@
         <v>44167</v>
       </c>
       <c r="G257" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="258" spans="1:7">
@@ -6990,7 +7029,7 @@
         <v>44167</v>
       </c>
       <c r="G258" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="259" spans="1:7">
@@ -7013,7 +7052,7 @@
         <v>44167</v>
       </c>
       <c r="G259" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="260" spans="1:7">
@@ -7036,7 +7075,7 @@
         <v>44167</v>
       </c>
       <c r="G260" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="261" spans="1:7">
@@ -7059,7 +7098,7 @@
         <v>44167</v>
       </c>
       <c r="G261" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="262" spans="1:7">
@@ -7082,7 +7121,7 @@
         <v>44167</v>
       </c>
       <c r="G262" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="263" spans="1:7">
@@ -7105,7 +7144,7 @@
         <v>44167</v>
       </c>
       <c r="G263" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="264" spans="1:7">
@@ -7128,7 +7167,7 @@
         <v>44167</v>
       </c>
       <c r="G264" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="265" spans="1:7">
@@ -7151,7 +7190,7 @@
         <v>44167</v>
       </c>
       <c r="G265" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="266" spans="1:7">
@@ -7174,7 +7213,7 @@
         <v>44167</v>
       </c>
       <c r="G266" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="267" spans="1:7">
@@ -7197,7 +7236,7 @@
         <v>44167</v>
       </c>
       <c r="G267" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="268" spans="1:7">
@@ -7220,7 +7259,7 @@
         <v>44167</v>
       </c>
       <c r="G268" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="269" spans="1:7">
@@ -7243,7 +7282,7 @@
         <v>44167</v>
       </c>
       <c r="G269" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="270" spans="1:7">
@@ -7266,7 +7305,7 @@
         <v>44167</v>
       </c>
       <c r="G270" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="271" spans="1:7">
@@ -7289,7 +7328,7 @@
         <v>44167</v>
       </c>
       <c r="G271" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="272" spans="1:7">
@@ -7312,7 +7351,7 @@
         <v>44167</v>
       </c>
       <c r="G272" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="273" spans="1:7">
@@ -7335,7 +7374,7 @@
         <v>44167</v>
       </c>
       <c r="G273" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="274" spans="1:7">
@@ -7358,7 +7397,7 @@
         <v>44167</v>
       </c>
       <c r="G274" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="275" spans="1:7">
@@ -7381,7 +7420,7 @@
         <v>44167</v>
       </c>
       <c r="G275" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="276" spans="1:7">
@@ -7404,7 +7443,7 @@
         <v>44167</v>
       </c>
       <c r="G276" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="277" spans="1:7">
@@ -7427,7 +7466,7 @@
         <v>44167</v>
       </c>
       <c r="G277" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="278" spans="1:7">
@@ -7450,7 +7489,7 @@
         <v>44167</v>
       </c>
       <c r="G278" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="279" spans="1:7">
@@ -7473,7 +7512,7 @@
         <v>44167</v>
       </c>
       <c r="G279" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="280" spans="1:7">
@@ -7496,7 +7535,7 @@
         <v>44167</v>
       </c>
       <c r="G280" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="281" spans="1:7">
@@ -7519,7 +7558,7 @@
         <v>44167</v>
       </c>
       <c r="G281" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="282" spans="1:7">
@@ -7542,7 +7581,7 @@
         <v>44167</v>
       </c>
       <c r="G282" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="283" spans="1:7">
@@ -7565,7 +7604,7 @@
         <v>44167</v>
       </c>
       <c r="G283" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="284" spans="1:7">
@@ -7588,7 +7627,7 @@
         <v>44167</v>
       </c>
       <c r="G284" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="285" spans="1:7">
@@ -7611,7 +7650,7 @@
         <v>44167</v>
       </c>
       <c r="G285" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="286" spans="1:7">
@@ -7634,7 +7673,7 @@
         <v>44167</v>
       </c>
       <c r="G286" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="287" spans="1:7">
@@ -7657,7 +7696,7 @@
         <v>44167</v>
       </c>
       <c r="G287" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="288" spans="1:7">
@@ -7680,7 +7719,7 @@
         <v>44167</v>
       </c>
       <c r="G288" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="289" spans="1:7">
@@ -7703,7 +7742,7 @@
         <v>44167</v>
       </c>
       <c r="G289" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="290" spans="1:7">
@@ -7726,7 +7765,7 @@
         <v>44167</v>
       </c>
       <c r="G290" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="291" spans="1:7">
@@ -7749,7 +7788,7 @@
         <v>44167</v>
       </c>
       <c r="G291" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="292" spans="1:7">
@@ -7772,7 +7811,7 @@
         <v>44167</v>
       </c>
       <c r="G292" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="293" spans="1:7">
@@ -7795,7 +7834,7 @@
         <v>44167</v>
       </c>
       <c r="G293" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="294" spans="1:7">
@@ -7818,7 +7857,7 @@
         <v>44167</v>
       </c>
       <c r="G294" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="295" spans="1:7">
@@ -7841,7 +7880,7 @@
         <v>44167</v>
       </c>
       <c r="G295" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="296" spans="1:7">
@@ -7864,7 +7903,7 @@
         <v>44167</v>
       </c>
       <c r="G296" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="297" spans="1:7">
@@ -7887,7 +7926,7 @@
         <v>44167</v>
       </c>
       <c r="G297" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="298" spans="1:7">
@@ -7910,7 +7949,7 @@
         <v>44167</v>
       </c>
       <c r="G298" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="299" spans="1:7">
@@ -7933,7 +7972,7 @@
         <v>44167</v>
       </c>
       <c r="G299" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="300" spans="1:7">
@@ -7956,7 +7995,7 @@
         <v>44167</v>
       </c>
       <c r="G300" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="301" spans="1:7">
@@ -7979,7 +8018,7 @@
         <v>44167</v>
       </c>
       <c r="G301" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="302" spans="1:7">
@@ -8002,7 +8041,7 @@
         <v>44167</v>
       </c>
       <c r="G302" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="303" spans="1:7">
@@ -8025,7 +8064,7 @@
         <v>44167</v>
       </c>
       <c r="G303" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="304" spans="1:7">
@@ -8048,7 +8087,7 @@
         <v>44167</v>
       </c>
       <c r="G304" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="305" spans="1:7">
@@ -8071,7 +8110,7 @@
         <v>44167</v>
       </c>
       <c r="G305" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="306" spans="1:7">
@@ -8094,7 +8133,7 @@
         <v>44167</v>
       </c>
       <c r="G306" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="307" spans="1:7">
@@ -8117,7 +8156,7 @@
         <v>44167</v>
       </c>
       <c r="G307" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="308" spans="1:7">
@@ -8140,7 +8179,7 @@
         <v>44167</v>
       </c>
       <c r="G308" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="309" spans="1:7">
@@ -8163,7 +8202,7 @@
         <v>44167</v>
       </c>
       <c r="G309" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="310" spans="1:7">
@@ -8186,7 +8225,7 @@
         <v>44167</v>
       </c>
       <c r="G310" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="311" spans="1:7">
@@ -8209,7 +8248,7 @@
         <v>44167</v>
       </c>
       <c r="G311" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="312" spans="1:7">
@@ -8232,7 +8271,7 @@
         <v>44167</v>
       </c>
       <c r="G312" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="313" spans="1:7">
@@ -8255,7 +8294,7 @@
         <v>44167</v>
       </c>
       <c r="G313" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="314" spans="1:7">
@@ -8278,7 +8317,7 @@
         <v>44167</v>
       </c>
       <c r="G314" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="315" spans="1:7">
@@ -8301,7 +8340,7 @@
         <v>44167</v>
       </c>
       <c r="G315" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="316" spans="1:7">
@@ -8324,7 +8363,7 @@
         <v>44167</v>
       </c>
       <c r="G316" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="317" spans="1:7">
@@ -8347,7 +8386,7 @@
         <v>44167</v>
       </c>
       <c r="G317" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="318" spans="1:7">
@@ -8370,7 +8409,7 @@
         <v>44167</v>
       </c>
       <c r="G318" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="319" spans="1:7">
@@ -8393,7 +8432,7 @@
         <v>44167</v>
       </c>
       <c r="G319" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="320" spans="1:7">
@@ -8416,7 +8455,7 @@
         <v>44167</v>
       </c>
       <c r="G320" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="321" spans="1:7">
@@ -8439,7 +8478,7 @@
         <v>44167</v>
       </c>
       <c r="G321" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="322" spans="1:7">
@@ -8462,7 +8501,7 @@
         <v>44167</v>
       </c>
       <c r="G322" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="323" spans="1:7">
@@ -8485,7 +8524,7 @@
         <v>44167</v>
       </c>
       <c r="G323" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="324" spans="1:7">
@@ -8508,7 +8547,7 @@
         <v>44167</v>
       </c>
       <c r="G324" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="325" spans="1:7">
@@ -8531,7 +8570,7 @@
         <v>44167</v>
       </c>
       <c r="G325" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="326" spans="1:7">
@@ -8554,7 +8593,7 @@
         <v>44167</v>
       </c>
       <c r="G326" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="327" spans="1:7">
@@ -8577,7 +8616,7 @@
         <v>44167</v>
       </c>
       <c r="G327" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="328" spans="1:7">
@@ -8600,7 +8639,7 @@
         <v>44167</v>
       </c>
       <c r="G328" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="329" spans="1:7">
@@ -8623,7 +8662,7 @@
         <v>44167</v>
       </c>
       <c r="G329" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="330" spans="1:7">
@@ -8646,7 +8685,7 @@
         <v>44167</v>
       </c>
       <c r="G330" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="331" spans="1:7">
@@ -8669,7 +8708,7 @@
         <v>44167</v>
       </c>
       <c r="G331" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="332" spans="1:7">
@@ -8692,7 +8731,7 @@
         <v>44167</v>
       </c>
       <c r="G332" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="333" spans="1:7">
@@ -8715,7 +8754,7 @@
         <v>44167</v>
       </c>
       <c r="G333" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="334" spans="1:7">
@@ -8738,7 +8777,7 @@
         <v>44167</v>
       </c>
       <c r="G334" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="335" spans="1:7">
@@ -8761,7 +8800,7 @@
         <v>44167</v>
       </c>
       <c r="G335" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="336" spans="1:7">
@@ -8784,7 +8823,7 @@
         <v>44167</v>
       </c>
       <c r="G336" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="337" spans="1:7">
@@ -8807,7 +8846,7 @@
         <v>44167</v>
       </c>
       <c r="G337" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="338" spans="1:7">
@@ -8830,7 +8869,7 @@
         <v>44167</v>
       </c>
       <c r="G338" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="339" spans="1:7">
@@ -8853,7 +8892,7 @@
         <v>44167</v>
       </c>
       <c r="G339" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="340" spans="1:7">
@@ -8876,7 +8915,7 @@
         <v>44167</v>
       </c>
       <c r="G340" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="341" spans="1:7">
@@ -8899,7 +8938,7 @@
         <v>44167</v>
       </c>
       <c r="G341" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="342" spans="1:7">
@@ -8922,7 +8961,7 @@
         <v>44167</v>
       </c>
       <c r="G342" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="343" spans="1:7">
@@ -8945,7 +8984,7 @@
         <v>44167</v>
       </c>
       <c r="G343" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="344" spans="1:7">
@@ -8968,7 +9007,7 @@
         <v>44167</v>
       </c>
       <c r="G344" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="345" spans="1:7">
@@ -8991,7 +9030,7 @@
         <v>44167</v>
       </c>
       <c r="G345" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="346" spans="1:7">
@@ -9014,7 +9053,7 @@
         <v>44167</v>
       </c>
       <c r="G346" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="347" spans="1:7">
@@ -9037,7 +9076,7 @@
         <v>44167</v>
       </c>
       <c r="G347" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="348" spans="1:7">
@@ -9060,7 +9099,7 @@
         <v>44167</v>
       </c>
       <c r="G348" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="349" spans="1:7">
@@ -9083,7 +9122,7 @@
         <v>44167</v>
       </c>
       <c r="G349" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="350" spans="1:7">
@@ -9106,7 +9145,7 @@
         <v>44167</v>
       </c>
       <c r="G350" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="351" spans="1:7">
@@ -9129,7 +9168,7 @@
         <v>44167</v>
       </c>
       <c r="G351" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="352" spans="1:7">
@@ -9152,7 +9191,7 @@
         <v>44167</v>
       </c>
       <c r="G352" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="353" spans="1:7">
@@ -9175,7 +9214,7 @@
         <v>44167</v>
       </c>
       <c r="G353" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="354" spans="1:7">
@@ -9198,7 +9237,7 @@
         <v>44167</v>
       </c>
       <c r="G354" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="355" spans="1:7">
@@ -9221,7 +9260,7 @@
         <v>44167</v>
       </c>
       <c r="G355" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="356" spans="1:7">
@@ -9244,7 +9283,7 @@
         <v>44167</v>
       </c>
       <c r="G356" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="357" spans="1:7">
@@ -9267,7 +9306,7 @@
         <v>44167</v>
       </c>
       <c r="G357" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="358" spans="1:7">
@@ -9290,7 +9329,7 @@
         <v>44167</v>
       </c>
       <c r="G358" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="359" spans="1:7">
@@ -9313,7 +9352,7 @@
         <v>44167</v>
       </c>
       <c r="G359" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="360" spans="1:7">
@@ -9336,7 +9375,7 @@
         <v>44167</v>
       </c>
       <c r="G360" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="361" spans="1:7">
@@ -9359,7 +9398,7 @@
         <v>44167</v>
       </c>
       <c r="G361" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="362" spans="1:7">
@@ -9382,7 +9421,7 @@
         <v>44167</v>
       </c>
       <c r="G362" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="363" spans="1:7">
@@ -9405,7 +9444,7 @@
         <v>44167</v>
       </c>
       <c r="G363" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="364" spans="1:7">
@@ -9428,7 +9467,7 @@
         <v>44167</v>
       </c>
       <c r="G364" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="365" spans="1:7">
@@ -9451,7 +9490,7 @@
         <v>44167</v>
       </c>
       <c r="G365" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="366" spans="1:7">
@@ -9474,7 +9513,7 @@
         <v>44167</v>
       </c>
       <c r="G366" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="367" spans="1:7">
@@ -9497,7 +9536,7 @@
         <v>44167</v>
       </c>
       <c r="G367" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="368" spans="1:7">
@@ -9520,7 +9559,7 @@
         <v>44167</v>
       </c>
       <c r="G368" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="369" spans="1:7">
@@ -9543,7 +9582,7 @@
         <v>44167</v>
       </c>
       <c r="G369" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="370" spans="1:7">
@@ -9566,7 +9605,7 @@
         <v>44167</v>
       </c>
       <c r="G370" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="371" spans="1:7">
@@ -9589,7 +9628,7 @@
         <v>44167</v>
       </c>
       <c r="G371" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="372" spans="1:7">
@@ -9612,7 +9651,7 @@
         <v>44167</v>
       </c>
       <c r="G372" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="373" spans="1:7">
@@ -9635,7 +9674,7 @@
         <v>44167</v>
       </c>
       <c r="G373" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="374" spans="1:7">
@@ -9658,7 +9697,7 @@
         <v>44167</v>
       </c>
       <c r="G374" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="375" spans="1:7">
@@ -9681,7 +9720,7 @@
         <v>44167</v>
       </c>
       <c r="G375" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="376" spans="1:7">
@@ -9704,7 +9743,7 @@
         <v>44167</v>
       </c>
       <c r="G376" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="377" spans="1:7">
@@ -9727,7 +9766,7 @@
         <v>44167</v>
       </c>
       <c r="G377" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="378" spans="1:7">
@@ -9750,7 +9789,7 @@
         <v>44167</v>
       </c>
       <c r="G378" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="379" spans="1:7">
@@ -9773,7 +9812,7 @@
         <v>44167</v>
       </c>
       <c r="G379" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="380" spans="1:7">
@@ -9796,7 +9835,7 @@
         <v>44167</v>
       </c>
       <c r="G380" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="381" spans="1:7">
@@ -9819,7 +9858,7 @@
         <v>44167</v>
       </c>
       <c r="G381" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="382" spans="1:7">
@@ -9842,7 +9881,7 @@
         <v>44167</v>
       </c>
       <c r="G382" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="383" spans="1:7">
@@ -9865,7 +9904,7 @@
         <v>44167</v>
       </c>
       <c r="G383" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="384" spans="1:7">
@@ -9888,7 +9927,7 @@
         <v>44167</v>
       </c>
       <c r="G384" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="385" spans="1:7">
@@ -9911,7 +9950,7 @@
         <v>44167</v>
       </c>
       <c r="G385" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="386" spans="1:7">
@@ -9934,7 +9973,7 @@
         <v>44167</v>
       </c>
       <c r="G386" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="387" spans="1:7">
@@ -9957,7 +9996,7 @@
         <v>44167</v>
       </c>
       <c r="G387" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="388" spans="1:7">
@@ -9980,7 +10019,7 @@
         <v>44167</v>
       </c>
       <c r="G388" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="389" spans="1:7">
@@ -10003,7 +10042,7 @@
         <v>44167</v>
       </c>
       <c r="G389" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="390" spans="1:7">
@@ -10026,7 +10065,7 @@
         <v>44167</v>
       </c>
       <c r="G390" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="391" spans="1:7">
@@ -10049,7 +10088,7 @@
         <v>44167</v>
       </c>
       <c r="G391" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="392" spans="1:7">
@@ -10072,7 +10111,7 @@
         <v>44167</v>
       </c>
       <c r="G392" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="393" spans="1:7">
@@ -10095,7 +10134,7 @@
         <v>44167</v>
       </c>
       <c r="G393" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="394" spans="1:7">
@@ -10118,7 +10157,7 @@
         <v>44167</v>
       </c>
       <c r="G394" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="395" spans="1:7">
@@ -10141,7 +10180,7 @@
         <v>44169</v>
       </c>
       <c r="G395" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="396" spans="1:7">
@@ -10164,7 +10203,7 @@
         <v>44169</v>
       </c>
       <c r="G396" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="397" spans="1:7">
@@ -10187,7 +10226,7 @@
         <v>44169</v>
       </c>
       <c r="G397" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="398" spans="1:7">
@@ -10210,7 +10249,7 @@
         <v>44169</v>
       </c>
       <c r="G398" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="399" spans="1:7">
@@ -10233,7 +10272,7 @@
         <v>44169</v>
       </c>
       <c r="G399" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="400" spans="1:7">
@@ -10256,7 +10295,7 @@
         <v>44169</v>
       </c>
       <c r="G400" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="401" spans="1:7">
@@ -10279,7 +10318,7 @@
         <v>44169</v>
       </c>
       <c r="G401" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="402" spans="1:7">
@@ -10302,7 +10341,7 @@
         <v>44169</v>
       </c>
       <c r="G402" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="403" spans="1:7">
@@ -10325,7 +10364,7 @@
         <v>44169</v>
       </c>
       <c r="G403" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="404" spans="1:7">
@@ -10348,7 +10387,7 @@
         <v>44169</v>
       </c>
       <c r="G404" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="405" spans="1:7">
@@ -10371,7 +10410,7 @@
         <v>44169</v>
       </c>
       <c r="G405" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="406" spans="1:7">
@@ -10394,7 +10433,7 @@
         <v>44169</v>
       </c>
       <c r="G406" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="407" spans="1:7">
@@ -10417,7 +10456,7 @@
         <v>44169</v>
       </c>
       <c r="G407" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="408" spans="1:7">
@@ -10440,7 +10479,7 @@
         <v>44169</v>
       </c>
       <c r="G408" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="409" spans="1:7">
@@ -10463,7 +10502,7 @@
         <v>44169</v>
       </c>
       <c r="G409" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="410" spans="1:7">
@@ -10486,7 +10525,7 @@
         <v>44169</v>
       </c>
       <c r="G410" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="411" spans="1:7">
@@ -10509,7 +10548,7 @@
         <v>44169</v>
       </c>
       <c r="G411" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="412" spans="1:7">
@@ -10532,7 +10571,7 @@
         <v>44169</v>
       </c>
       <c r="G412" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="413" spans="1:7">
@@ -10555,7 +10594,7 @@
         <v>44169</v>
       </c>
       <c r="G413" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="414" spans="1:7">
@@ -10578,7 +10617,7 @@
         <v>44169</v>
       </c>
       <c r="G414" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="415" spans="1:7">
@@ -10601,7 +10640,7 @@
         <v>44169</v>
       </c>
       <c r="G415" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="416" spans="1:7">
@@ -10624,7 +10663,7 @@
         <v>44169</v>
       </c>
       <c r="G416" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="417" spans="1:7">
@@ -10647,7 +10686,7 @@
         <v>44169</v>
       </c>
       <c r="G417" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="418" spans="1:7">
@@ -10670,7 +10709,7 @@
         <v>44169</v>
       </c>
       <c r="G418" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="419" spans="1:7">
@@ -10693,7 +10732,7 @@
         <v>44169</v>
       </c>
       <c r="G419" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="420" spans="1:7">
@@ -10716,7 +10755,7 @@
         <v>44169</v>
       </c>
       <c r="G420" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="421" spans="1:7">
@@ -10739,7 +10778,7 @@
         <v>44169</v>
       </c>
       <c r="G421" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="422" spans="1:7">
@@ -10762,7 +10801,7 @@
         <v>44169</v>
       </c>
       <c r="G422" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="423" spans="1:7">
@@ -10785,7 +10824,7 @@
         <v>44169</v>
       </c>
       <c r="G423" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="424" spans="1:7">
@@ -10808,7 +10847,7 @@
         <v>44169</v>
       </c>
       <c r="G424" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="425" spans="1:7">
@@ -10831,7 +10870,7 @@
         <v>44170</v>
       </c>
       <c r="G425" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="426" spans="1:7">
@@ -10854,7 +10893,7 @@
         <v>44170</v>
       </c>
       <c r="G426" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="427" spans="1:7">
@@ -10877,7 +10916,7 @@
         <v>44170</v>
       </c>
       <c r="G427" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="428" spans="1:7">
@@ -10900,7 +10939,7 @@
         <v>44170</v>
       </c>
       <c r="G428" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="429" spans="1:7">
@@ -10923,7 +10962,7 @@
         <v>44170</v>
       </c>
       <c r="G429" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="430" spans="1:7">
@@ -10946,7 +10985,7 @@
         <v>44170</v>
       </c>
       <c r="G430" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="431" spans="1:7">
@@ -10969,7 +11008,7 @@
         <v>44170</v>
       </c>
       <c r="G431" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="432" spans="1:7">
@@ -10992,7 +11031,7 @@
         <v>44170</v>
       </c>
       <c r="G432" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="433" spans="1:7">
@@ -11015,7 +11054,7 @@
         <v>44170</v>
       </c>
       <c r="G433" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="434" spans="1:7">
@@ -11038,7 +11077,7 @@
         <v>44170</v>
       </c>
       <c r="G434" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="435" spans="1:7">
@@ -11061,7 +11100,7 @@
         <v>44170</v>
       </c>
       <c r="G435" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="436" spans="1:7">
@@ -11084,7 +11123,7 @@
         <v>44170</v>
       </c>
       <c r="G436" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="437" spans="1:7">
@@ -11107,7 +11146,7 @@
         <v>44170</v>
       </c>
       <c r="G437" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="438" spans="1:7">
@@ -11130,7 +11169,7 @@
         <v>44170</v>
       </c>
       <c r="G438" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="439" spans="1:7">
@@ -11153,7 +11192,7 @@
         <v>44170</v>
       </c>
       <c r="G439" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="440" spans="1:7">
@@ -11176,7 +11215,7 @@
         <v>44170</v>
       </c>
       <c r="G440" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="441" spans="1:7">
@@ -11199,7 +11238,7 @@
         <v>44170</v>
       </c>
       <c r="G441" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="442" spans="1:7">
@@ -11222,7 +11261,7 @@
         <v>44170</v>
       </c>
       <c r="G442" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="443" spans="1:7">
@@ -11245,7 +11284,7 @@
         <v>44170</v>
       </c>
       <c r="G443" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="444" spans="1:7">
@@ -11268,7 +11307,7 @@
         <v>44170</v>
       </c>
       <c r="G444" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="445" spans="1:7">
@@ -11291,7 +11330,7 @@
         <v>44170</v>
       </c>
       <c r="G445" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="446" spans="1:7">
@@ -11314,7 +11353,7 @@
         <v>44170</v>
       </c>
       <c r="G446" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="447" spans="1:7">
@@ -11337,7 +11376,7 @@
         <v>44170</v>
       </c>
       <c r="G447" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="448" spans="1:7">
@@ -11360,7 +11399,7 @@
         <v>44170</v>
       </c>
       <c r="G448" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="449" spans="1:7">
@@ -11383,7 +11422,7 @@
         <v>44170</v>
       </c>
       <c r="G449" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="450" spans="1:7">
@@ -11406,7 +11445,7 @@
         <v>44170</v>
       </c>
       <c r="G450" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="451" spans="1:7">
@@ -11429,7 +11468,7 @@
         <v>44170</v>
       </c>
       <c r="G451" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="452" spans="1:7">
@@ -11452,7 +11491,7 @@
         <v>44170</v>
       </c>
       <c r="G452" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="453" spans="1:7">
@@ -11475,7 +11514,7 @@
         <v>44170</v>
       </c>
       <c r="G453" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="454" spans="1:7">
@@ -11498,7 +11537,7 @@
         <v>44170</v>
       </c>
       <c r="G454" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="455" spans="1:7">
@@ -11521,7 +11560,7 @@
         <v>44170</v>
       </c>
       <c r="G455" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="456" spans="1:7">
@@ -11544,7 +11583,7 @@
         <v>44170</v>
       </c>
       <c r="G456" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="457" spans="1:7">
@@ -11567,7 +11606,7 @@
         <v>44170</v>
       </c>
       <c r="G457" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="458" spans="1:7">
@@ -11590,7 +11629,7 @@
         <v>44170</v>
       </c>
       <c r="G458" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="459" spans="1:7">
@@ -11613,7 +11652,7 @@
         <v>44170</v>
       </c>
       <c r="G459" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="460" spans="1:7">
@@ -11636,7 +11675,7 @@
         <v>44170</v>
       </c>
       <c r="G460" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="461" spans="1:7">
@@ -11659,7 +11698,7 @@
         <v>44170</v>
       </c>
       <c r="G461" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="462" spans="1:7">
@@ -11682,7 +11721,7 @@
         <v>44170</v>
       </c>
       <c r="G462" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="463" spans="1:7">
@@ -11705,7 +11744,7 @@
         <v>44170</v>
       </c>
       <c r="G463" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="464" spans="1:7">
@@ -11728,7 +11767,7 @@
         <v>44170</v>
       </c>
       <c r="G464" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="465" spans="1:7">
@@ -11751,7 +11790,7 @@
         <v>44170</v>
       </c>
       <c r="G465" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="466" spans="1:7">
@@ -11774,7 +11813,7 @@
         <v>44170</v>
       </c>
       <c r="G466" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="467" spans="1:7">
@@ -11797,7 +11836,7 @@
         <v>44170</v>
       </c>
       <c r="G467" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="468" spans="1:7">
@@ -11820,7 +11859,7 @@
         <v>44170</v>
       </c>
       <c r="G468" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="469" spans="1:7">
@@ -11843,7 +11882,7 @@
         <v>44170</v>
       </c>
       <c r="G469" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="470" spans="1:7">
@@ -11866,7 +11905,7 @@
         <v>44170</v>
       </c>
       <c r="G470" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="471" spans="1:7">
@@ -11889,7 +11928,7 @@
         <v>44170</v>
       </c>
       <c r="G471" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="472" spans="1:7">
@@ -11912,7 +11951,7 @@
         <v>44170</v>
       </c>
       <c r="G472" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="473" spans="1:7">
@@ -11935,7 +11974,7 @@
         <v>44170</v>
       </c>
       <c r="G473" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="474" spans="1:7">
@@ -11958,7 +11997,7 @@
         <v>44170</v>
       </c>
       <c r="G474" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="475" spans="1:7">
@@ -11981,7 +12020,7 @@
         <v>44170</v>
       </c>
       <c r="G475" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="476" spans="1:7">
@@ -12004,7 +12043,7 @@
         <v>44170</v>
       </c>
       <c r="G476" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="477" spans="1:7">
@@ -12027,7 +12066,7 @@
         <v>44170</v>
       </c>
       <c r="G477" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="478" spans="1:7">
@@ -12050,7 +12089,7 @@
         <v>44170</v>
       </c>
       <c r="G478" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="479" spans="1:7">
@@ -12073,7 +12112,7 @@
         <v>44170</v>
       </c>
       <c r="G479" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="480" spans="1:7">
@@ -12096,7 +12135,7 @@
         <v>44170</v>
       </c>
       <c r="G480" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="481" spans="1:7">
@@ -12119,7 +12158,7 @@
         <v>44170</v>
       </c>
       <c r="G481" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="482" spans="1:7">
@@ -12142,7 +12181,7 @@
         <v>44170</v>
       </c>
       <c r="G482" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="483" spans="1:7">
@@ -12165,7 +12204,7 @@
         <v>44170</v>
       </c>
       <c r="G483" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="484" spans="1:7">
@@ -12188,7 +12227,7 @@
         <v>44170</v>
       </c>
       <c r="G484" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="485" spans="1:7">
@@ -12211,7 +12250,7 @@
         <v>44170</v>
       </c>
       <c r="G485" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="486" spans="1:7">
@@ -12234,7 +12273,7 @@
         <v>44170</v>
       </c>
       <c r="G486" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="487" spans="1:7">
@@ -12257,7 +12296,7 @@
         <v>44170</v>
       </c>
       <c r="G487" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="488" spans="1:7">
@@ -12280,7 +12319,7 @@
         <v>44170</v>
       </c>
       <c r="G488" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="489" spans="1:7">
@@ -12303,7 +12342,7 @@
         <v>44170</v>
       </c>
       <c r="G489" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="490" spans="1:7">
@@ -12326,7 +12365,7 @@
         <v>44170</v>
       </c>
       <c r="G490" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="491" spans="1:7">
@@ -12349,7 +12388,7 @@
         <v>44170</v>
       </c>
       <c r="G491" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="492" spans="1:7">
@@ -12372,7 +12411,7 @@
         <v>44170</v>
       </c>
       <c r="G492" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="493" spans="1:7">
@@ -12395,7 +12434,7 @@
         <v>44170</v>
       </c>
       <c r="G493" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="494" spans="1:7">
@@ -12418,7 +12457,7 @@
         <v>44170</v>
       </c>
       <c r="G494" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="495" spans="1:7">
@@ -12441,7 +12480,7 @@
         <v>44170</v>
       </c>
       <c r="G495" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="496" spans="1:7">
@@ -12464,7 +12503,7 @@
         <v>44170</v>
       </c>
       <c r="G496" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="497" spans="1:7">
@@ -12487,7 +12526,7 @@
         <v>44170</v>
       </c>
       <c r="G497" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="498" spans="1:7">
@@ -12510,7 +12549,7 @@
         <v>44170</v>
       </c>
       <c r="G498" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="499" spans="1:7">
@@ -12533,7 +12572,7 @@
         <v>44170</v>
       </c>
       <c r="G499" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="500" spans="1:7">
@@ -12556,7 +12595,7 @@
         <v>44170</v>
       </c>
       <c r="G500" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="501" spans="1:7">
@@ -12579,7 +12618,7 @@
         <v>44170</v>
       </c>
       <c r="G501" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="502" spans="1:7">
@@ -12602,7 +12641,7 @@
         <v>44170</v>
       </c>
       <c r="G502" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="503" spans="1:7">
@@ -12625,7 +12664,7 @@
         <v>44170</v>
       </c>
       <c r="G503" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="504" spans="1:7">
@@ -12648,7 +12687,7 @@
         <v>44170</v>
       </c>
       <c r="G504" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="505" spans="1:7">
@@ -12671,7 +12710,7 @@
         <v>44170</v>
       </c>
       <c r="G505" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="506" spans="1:7">
@@ -12694,7 +12733,7 @@
         <v>44170</v>
       </c>
       <c r="G506" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="507" spans="1:7">
@@ -12717,7 +12756,7 @@
         <v>44170</v>
       </c>
       <c r="G507" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="508" spans="1:7">
@@ -12740,7 +12779,7 @@
         <v>44170</v>
       </c>
       <c r="G508" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="509" spans="1:7">
@@ -12763,7 +12802,7 @@
         <v>44170</v>
       </c>
       <c r="G509" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="510" spans="1:7">
@@ -12786,7 +12825,7 @@
         <v>44170</v>
       </c>
       <c r="G510" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="511" spans="1:7">
@@ -12809,7 +12848,7 @@
         <v>44170</v>
       </c>
       <c r="G511" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="512" spans="1:7">
@@ -12832,7 +12871,7 @@
         <v>44170</v>
       </c>
       <c r="G512" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="513" spans="1:7">
@@ -12855,7 +12894,7 @@
         <v>44170</v>
       </c>
       <c r="G513" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="514" spans="1:7">
@@ -12878,7 +12917,7 @@
         <v>44170</v>
       </c>
       <c r="G514" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="515" spans="1:7">
@@ -12901,7 +12940,7 @@
         <v>44170</v>
       </c>
       <c r="G515" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="516" spans="1:7">
@@ -12924,7 +12963,7 @@
         <v>44170</v>
       </c>
       <c r="G516" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="517" spans="1:7">
@@ -12947,7 +12986,7 @@
         <v>44170</v>
       </c>
       <c r="G517" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="518" spans="1:7">
@@ -12970,7 +13009,7 @@
         <v>44170</v>
       </c>
       <c r="G518" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="519" spans="1:7">
@@ -12993,7 +13032,7 @@
         <v>44170</v>
       </c>
       <c r="G519" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="520" spans="1:7">
@@ -13016,7 +13055,7 @@
         <v>44170</v>
       </c>
       <c r="G520" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="521" spans="1:7">
@@ -13039,7 +13078,7 @@
         <v>44170</v>
       </c>
       <c r="G521" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="522" spans="1:7">
@@ -13062,7 +13101,7 @@
         <v>44170</v>
       </c>
       <c r="G522" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="523" spans="1:7">
@@ -13085,7 +13124,7 @@
         <v>44170</v>
       </c>
       <c r="G523" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="524" spans="1:7">
@@ -13108,7 +13147,7 @@
         <v>44170</v>
       </c>
       <c r="G524" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="525" spans="1:7">
@@ -13131,7 +13170,7 @@
         <v>44170</v>
       </c>
       <c r="G525" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="526" spans="1:7">
@@ -13154,7 +13193,7 @@
         <v>44170</v>
       </c>
       <c r="G526" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="527" spans="1:7">
@@ -13177,7 +13216,7 @@
         <v>44170</v>
       </c>
       <c r="G527" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="528" spans="1:7">
@@ -13200,7 +13239,7 @@
         <v>44170</v>
       </c>
       <c r="G528" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="529" spans="1:7">
@@ -13223,7 +13262,7 @@
         <v>44170</v>
       </c>
       <c r="G529" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="530" spans="1:7">
@@ -13246,7 +13285,7 @@
         <v>44170</v>
       </c>
       <c r="G530" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="531" spans="1:7">
@@ -13269,7 +13308,7 @@
         <v>44170</v>
       </c>
       <c r="G531" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="532" spans="1:7">
@@ -13292,7 +13331,7 @@
         <v>44170</v>
       </c>
       <c r="G532" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="533" spans="1:7">
@@ -13315,7 +13354,7 @@
         <v>44170</v>
       </c>
       <c r="G533" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="534" spans="1:7">
@@ -13338,7 +13377,7 @@
         <v>44170</v>
       </c>
       <c r="G534" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="535" spans="1:7">
@@ -13361,7 +13400,7 @@
         <v>44170</v>
       </c>
       <c r="G535" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="536" spans="1:7">
@@ -13384,7 +13423,7 @@
         <v>44170</v>
       </c>
       <c r="G536" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="537" spans="1:7">
@@ -13407,7 +13446,7 @@
         <v>44170</v>
       </c>
       <c r="G537" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="538" spans="1:7">
@@ -13430,7 +13469,7 @@
         <v>44170</v>
       </c>
       <c r="G538" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="539" spans="1:7">
@@ -13453,7 +13492,7 @@
         <v>44170</v>
       </c>
       <c r="G539" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="540" spans="1:7">
@@ -13476,7 +13515,7 @@
         <v>44170</v>
       </c>
       <c r="G540" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="541" spans="1:7">
@@ -13499,7 +13538,7 @@
         <v>44170</v>
       </c>
       <c r="G541" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="542" spans="1:7">
@@ -13522,7 +13561,7 @@
         <v>44170</v>
       </c>
       <c r="G542" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="543" spans="1:7">
@@ -13545,7 +13584,7 @@
         <v>44170</v>
       </c>
       <c r="G543" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="544" spans="1:7">
@@ -13568,7 +13607,7 @@
         <v>44170</v>
       </c>
       <c r="G544" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="545" spans="1:7">
@@ -13591,7 +13630,7 @@
         <v>44170</v>
       </c>
       <c r="G545" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="546" spans="1:7">
@@ -13614,7 +13653,7 @@
         <v>44170</v>
       </c>
       <c r="G546" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="547" spans="1:7">
@@ -13637,7 +13676,7 @@
         <v>44170</v>
       </c>
       <c r="G547" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="548" spans="1:7">
@@ -13660,7 +13699,7 @@
         <v>44170</v>
       </c>
       <c r="G548" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="549" spans="1:7">
@@ -13683,7 +13722,7 @@
         <v>44170</v>
       </c>
       <c r="G549" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="550" spans="1:7">
@@ -13706,7 +13745,7 @@
         <v>44170</v>
       </c>
       <c r="G550" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="551" spans="1:7">
@@ -13729,7 +13768,7 @@
         <v>44170</v>
       </c>
       <c r="G551" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="552" spans="1:7">
@@ -13752,7 +13791,7 @@
         <v>44170</v>
       </c>
       <c r="G552" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="553" spans="1:7">
@@ -13775,7 +13814,7 @@
         <v>44170</v>
       </c>
       <c r="G553" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="554" spans="1:7">
@@ -13798,7 +13837,7 @@
         <v>44171</v>
       </c>
       <c r="G554" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="555" spans="1:7">
@@ -13821,7 +13860,7 @@
         <v>44171</v>
       </c>
       <c r="G555" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="556" spans="1:7">
@@ -13844,7 +13883,7 @@
         <v>44171</v>
       </c>
       <c r="G556" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="557" spans="1:7">
@@ -13867,7 +13906,7 @@
         <v>44171</v>
       </c>
       <c r="G557" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="558" spans="1:7">
@@ -13890,7 +13929,7 @@
         <v>44171</v>
       </c>
       <c r="G558" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="559" spans="1:7">
@@ -13913,7 +13952,7 @@
         <v>44171</v>
       </c>
       <c r="G559" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="560" spans="1:7">
@@ -13936,7 +13975,7 @@
         <v>44171</v>
       </c>
       <c r="G560" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="561" spans="1:7">
@@ -13959,7 +13998,7 @@
         <v>44171</v>
       </c>
       <c r="G561" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="562" spans="1:7">
@@ -13982,7 +14021,7 @@
         <v>44171</v>
       </c>
       <c r="G562" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="563" spans="1:7">
@@ -14005,7 +14044,7 @@
         <v>44171</v>
       </c>
       <c r="G563" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="564" spans="1:7">
@@ -14028,7 +14067,7 @@
         <v>44171</v>
       </c>
       <c r="G564" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="565" spans="1:7">
@@ -14051,7 +14090,7 @@
         <v>44171</v>
       </c>
       <c r="G565" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="566" spans="1:7">
@@ -14074,7 +14113,7 @@
         <v>44171</v>
       </c>
       <c r="G566" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="567" spans="1:7">
@@ -14097,7 +14136,7 @@
         <v>44171</v>
       </c>
       <c r="G567" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="568" spans="1:7">
@@ -14120,7 +14159,7 @@
         <v>44171</v>
       </c>
       <c r="G568" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="569" spans="1:7">
@@ -14143,7 +14182,7 @@
         <v>44171</v>
       </c>
       <c r="G569" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="570" spans="1:7">
@@ -14166,7 +14205,7 @@
         <v>44171</v>
       </c>
       <c r="G570" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="571" spans="1:7">
@@ -14189,7 +14228,7 @@
         <v>44171</v>
       </c>
       <c r="G571" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="572" spans="1:7">
@@ -14212,7 +14251,7 @@
         <v>44171</v>
       </c>
       <c r="G572" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="573" spans="1:7">
@@ -14235,7 +14274,7 @@
         <v>44171</v>
       </c>
       <c r="G573" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="574" spans="1:7">
@@ -14258,7 +14297,7 @@
         <v>44171</v>
       </c>
       <c r="G574" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="575" spans="1:7">
@@ -14281,7 +14320,7 @@
         <v>44171</v>
       </c>
       <c r="G575" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="576" spans="1:7">
@@ -14304,7 +14343,7 @@
         <v>44171</v>
       </c>
       <c r="G576" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="577" spans="1:7">
@@ -14327,7 +14366,7 @@
         <v>44171</v>
       </c>
       <c r="G577" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="578" spans="1:7">
@@ -14350,7 +14389,7 @@
         <v>44171</v>
       </c>
       <c r="G578" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="579" spans="1:7">
@@ -14373,7 +14412,7 @@
         <v>44171</v>
       </c>
       <c r="G579" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="580" spans="1:7">
@@ -14396,7 +14435,7 @@
         <v>44171</v>
       </c>
       <c r="G580" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="581" spans="1:7">
@@ -14419,7 +14458,7 @@
         <v>44171</v>
       </c>
       <c r="G581" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="582" spans="1:7">
@@ -14442,7 +14481,7 @@
         <v>44171</v>
       </c>
       <c r="G582" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="583" spans="1:7">
@@ -14465,7 +14504,7 @@
         <v>44171</v>
       </c>
       <c r="G583" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="584" spans="1:7">
@@ -14488,7 +14527,7 @@
         <v>44171</v>
       </c>
       <c r="G584" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="585" spans="1:7">
@@ -14511,7 +14550,7 @@
         <v>44171</v>
       </c>
       <c r="G585" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="586" spans="1:7">
@@ -14534,7 +14573,7 @@
         <v>44171</v>
       </c>
       <c r="G586" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="587" spans="1:7">
@@ -14557,7 +14596,7 @@
         <v>44178</v>
       </c>
       <c r="G587" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="588" spans="1:7">
@@ -14580,7 +14619,7 @@
         <v>44178</v>
       </c>
       <c r="G588" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="589" spans="1:7">
@@ -14603,7 +14642,76 @@
         <v>44178</v>
       </c>
       <c r="G589" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="590" spans="1:7">
+      <c r="A590" s="1">
+        <v>588</v>
+      </c>
+      <c r="B590">
+        <v>69464</v>
+      </c>
+      <c r="C590" t="s">
+        <v>3</v>
+      </c>
+      <c r="D590">
+        <v>5</v>
+      </c>
+      <c r="E590" t="s">
+        <v>123</v>
+      </c>
+      <c r="F590" s="2">
+        <v>44178</v>
+      </c>
+      <c r="G590" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="591" spans="1:7">
+      <c r="A591" s="1">
+        <v>589</v>
+      </c>
+      <c r="B591">
+        <v>69464</v>
+      </c>
+      <c r="C591" t="s">
+        <v>4</v>
+      </c>
+      <c r="D591">
+        <v>5</v>
+      </c>
+      <c r="E591" t="s">
+        <v>123</v>
+      </c>
+      <c r="F591" s="2">
+        <v>44178</v>
+      </c>
+      <c r="G591" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="592" spans="1:7">
+      <c r="A592" s="1">
+        <v>590</v>
+      </c>
+      <c r="B592">
+        <v>69464</v>
+      </c>
+      <c r="C592" t="s">
+        <v>5</v>
+      </c>
+      <c r="D592">
+        <v>5</v>
+      </c>
+      <c r="E592" t="s">
+        <v>123</v>
+      </c>
+      <c r="F592" s="2">
+        <v>44178</v>
+      </c>
+      <c r="G592" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -14621,10 +14729,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -14632,10 +14740,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="C2" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -14643,10 +14751,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C3" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -14654,10 +14762,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="C4" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -14665,10 +14773,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="C5" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -14676,10 +14784,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C6" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -14687,10 +14795,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="C7" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -14698,10 +14806,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="C8" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -14709,10 +14817,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="C9" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -14720,10 +14828,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="C10" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -14731,10 +14839,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="C11" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -14742,10 +14850,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="C12" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -14753,10 +14861,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="C13" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -14764,10 +14872,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="C14" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -14777,7 +14885,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C49"/>
+  <dimension ref="A1:C50"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -14788,7 +14896,7 @@
         <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -14799,7 +14907,7 @@
         <v>24057</v>
       </c>
       <c r="C2" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -14810,7 +14918,7 @@
         <v>233336</v>
       </c>
       <c r="C3" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -14821,7 +14929,7 @@
         <v>258094</v>
       </c>
       <c r="C4" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -14832,7 +14940,7 @@
         <v>107781</v>
       </c>
       <c r="C5" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -14843,7 +14951,7 @@
         <v>216148</v>
       </c>
       <c r="C6" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -14854,7 +14962,7 @@
         <v>214558</v>
       </c>
       <c r="C7" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -14865,7 +14973,7 @@
         <v>5871</v>
       </c>
       <c r="C8" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -14876,7 +14984,7 @@
         <v>80327</v>
       </c>
       <c r="C9" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -14887,7 +14995,7 @@
         <v>232342</v>
       </c>
       <c r="C10" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -14898,7 +15006,7 @@
         <v>215485</v>
       </c>
       <c r="C11" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -14909,7 +15017,7 @@
         <v>106616</v>
       </c>
       <c r="C12" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -14920,7 +15028,7 @@
         <v>293274</v>
       </c>
       <c r="C13" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -14931,7 +15039,7 @@
         <v>137281</v>
       </c>
       <c r="C14" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -14942,7 +15050,7 @@
         <v>215431</v>
       </c>
       <c r="C15" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -14953,7 +15061,7 @@
         <v>208016</v>
       </c>
       <c r="C16" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -14964,7 +15072,7 @@
         <v>227785</v>
       </c>
       <c r="C17" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -14975,7 +15083,7 @@
         <v>107364</v>
       </c>
       <c r="C18" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -14986,7 +15094,7 @@
         <v>284926</v>
       </c>
       <c r="C19" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -14997,7 +15105,7 @@
         <v>124609</v>
       </c>
       <c r="C20" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -15008,7 +15116,7 @@
         <v>183271</v>
       </c>
       <c r="C21" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -15019,7 +15127,7 @@
         <v>214182</v>
       </c>
       <c r="C22" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -15030,7 +15138,7 @@
         <v>126371</v>
       </c>
       <c r="C23" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -15041,7 +15149,7 @@
         <v>218071</v>
       </c>
       <c r="C24" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -15052,7 +15160,7 @@
         <v>277513</v>
       </c>
       <c r="C25" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -15063,7 +15171,7 @@
         <v>112959</v>
       </c>
       <c r="C26" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -15074,7 +15182,7 @@
         <v>278974</v>
       </c>
       <c r="C27" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -15085,7 +15193,7 @@
         <v>50154</v>
       </c>
       <c r="C28" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -15096,7 +15204,7 @@
         <v>258548</v>
       </c>
       <c r="C29" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -15107,7 +15215,7 @@
         <v>48868</v>
       </c>
       <c r="C30" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -15118,7 +15226,7 @@
         <v>239683</v>
       </c>
       <c r="C31" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -15129,7 +15237,7 @@
         <v>42165</v>
       </c>
       <c r="C32" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -15140,7 +15248,7 @@
         <v>218901</v>
       </c>
       <c r="C33" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -15151,7 +15259,7 @@
         <v>166374</v>
       </c>
       <c r="C34" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -15162,7 +15270,7 @@
         <v>231747</v>
       </c>
       <c r="C35" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -15173,7 +15281,7 @@
         <v>31016</v>
       </c>
       <c r="C36" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -15184,7 +15292,7 @@
         <v>21933</v>
       </c>
       <c r="C37" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -15195,7 +15303,7 @@
         <v>152440</v>
       </c>
       <c r="C38" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -15206,7 +15314,7 @@
         <v>217149</v>
       </c>
       <c r="C39" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -15217,7 +15325,7 @@
         <v>58273</v>
       </c>
       <c r="C40" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -15228,7 +15336,7 @@
         <v>153489</v>
       </c>
       <c r="C41" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -15239,7 +15347,7 @@
         <v>297019</v>
       </c>
       <c r="C42" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -15250,7 +15358,7 @@
         <v>267752</v>
       </c>
       <c r="C43" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -15261,7 +15369,7 @@
         <v>219521</v>
       </c>
       <c r="C44" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -15272,7 +15380,7 @@
         <v>229749</v>
       </c>
       <c r="C45" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -15283,7 +15391,7 @@
         <v>119098</v>
       </c>
       <c r="C46" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -15294,7 +15402,7 @@
         <v>284142</v>
       </c>
       <c r="C47" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -15305,7 +15413,7 @@
         <v>205192</v>
       </c>
       <c r="C48" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -15316,7 +15424,18 @@
         <v>126808</v>
       </c>
       <c r="C49" t="s">
-        <v>197</v>
+        <v>209</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>69464</v>
+      </c>
+      <c r="C50" t="s">
+        <v>210</v>
       </c>
     </row>
   </sheetData>

--- a/app/out.xlsx
+++ b/app/out.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1864" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2302" uniqueCount="236">
   <si>
     <t>Номер_Вопроса</t>
   </si>
@@ -401,6 +401,63 @@
     <t>хорошо</t>
   </si>
   <si>
+    <t>Всё вкусно</t>
+  </si>
+  <si>
+    <t>Персонал отзывчивый и всегда интересуется все ли хорошо</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Просто замечательно </t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Не заказывал</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Для двоих в одной маленькой комнате,плохой вариант проживания. А остальное-отлично </t>
+  </si>
+  <si>
+    <t>Огромное Спасибо девочкам и медработнику.Была бы оценка выше. Я  бы поставила ещё выше.</t>
+  </si>
+  <si>
+    <t>Не заказывала.</t>
+  </si>
+  <si>
+    <t>Вполне</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Дорого! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">В комнате холодно и какой может быть тут досуг? Психологический климат-как на зоне. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какой тут персонал? Медик, пришла ушла и всё, больше ни кого. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Дорогая столовая. Продукты вроде шоколада и чая (100пакет) - дороже в три раза чем в городе и др. </t>
+  </si>
+  <si>
+    <t>Зомбоящик уже мало кто смотрит, если совсем уже не чего. Интернет проведите, 2-5 килобита в среднем - не серьёзно.</t>
+  </si>
+  <si>
+    <t>Выбор питания не велик</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Воды в достатке, 5 литровые банки воды, хотелось бы и минералку и пепси. Температура в комнате при 8 гр на улице, умеренная. Одеяла, подушка, матрас не лучшего качества. </t>
+  </si>
+  <si>
+    <t>К персоналу вопросов нет</t>
+  </si>
+  <si>
+    <t>Добавить в питание фруктов. (Яблоко, апельсин)</t>
+  </si>
+  <si>
+    <t>Прохладно, но предоставили обогреватель. На кс-9 нет мобильного интернета. Сделанный интернет по wifi очень медленный.</t>
+  </si>
+  <si>
     <t>Туртасское ЛПУМГ (КС-8)</t>
   </si>
   <si>
@@ -440,6 +497,18 @@
     <t>ПВИ №1, КС Пуртазовская, Н-Уренгойское ЛПУМГ</t>
   </si>
   <si>
+    <t>КС-8, Туртасское ЛПУМГ</t>
+  </si>
+  <si>
+    <t>КС-2, Ортьягунское ЛПУМГ</t>
+  </si>
+  <si>
+    <t>КС-4, Сургутское ЛПУМГ</t>
+  </si>
+  <si>
+    <t>КС-9, Тобольское ЛПУМГ</t>
+  </si>
+  <si>
     <t>Название_ПВИ</t>
   </si>
   <si>
@@ -458,12 +527,6 @@
     <t>КС-7, Демьянское ЛПУМГ</t>
   </si>
   <si>
-    <t>КС-8, Туртасское ЛПУМГ</t>
-  </si>
-  <si>
-    <t>КС-9, Тобольское ЛПУМГ</t>
-  </si>
-  <si>
     <t>КС-1, Вынгапуровское ЛПУМГ</t>
   </si>
   <si>
@@ -473,13 +536,7 @@
     <t>КС-3, Сургутское ЛПУМГ</t>
   </si>
   <si>
-    <t>КС-4, Сургутское ЛПУМГ</t>
-  </si>
-  <si>
     <t>гост. "Ермак", Сургутское ЛПУМГ</t>
-  </si>
-  <si>
-    <t>КС-2, Ортьягунское ЛПУМГ</t>
   </si>
   <si>
     <t>ЯНАО, ВЖК при КС "Пуртазовская" системы газопроводов Заполярье-Уренгой</t>
@@ -668,6 +725,24 @@
   </si>
   <si>
     <t>СУПЕР</t>
+  </si>
+  <si>
+    <t xml:space="preserve">С наступающим Новым годом. Всем Крепкого здоровья и всех благ </t>
+  </si>
+  <si>
+    <t>Организовать прогулки на свежем воздухе, хотя-бы раз 3-4 дня. Аграновский</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Почему не селят семейные пары вместе? Так психологически было бы легче! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Интернет доступный безлимитный </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Не все эфирные тв каналы показывают. Интернет периодический, то есть слабенький, то нет вовсе. </t>
+  </si>
+  <si>
+    <t>Не мешало бы установить шторку для принятия душа.</t>
   </si>
 </sst>
 </file>
@@ -1095,7 +1170,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G592"/>
+  <dimension ref="A1:G736"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1141,7 +1216,7 @@
         <v>44167</v>
       </c>
       <c r="G2" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1164,7 +1239,7 @@
         <v>44167</v>
       </c>
       <c r="G3" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1187,7 +1262,7 @@
         <v>44167</v>
       </c>
       <c r="G4" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1210,7 +1285,7 @@
         <v>44167</v>
       </c>
       <c r="G5" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1233,7 +1308,7 @@
         <v>44167</v>
       </c>
       <c r="G6" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1256,7 +1331,7 @@
         <v>44167</v>
       </c>
       <c r="G7" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1279,7 +1354,7 @@
         <v>44167</v>
       </c>
       <c r="G8" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1302,7 +1377,7 @@
         <v>44167</v>
       </c>
       <c r="G9" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1325,7 +1400,7 @@
         <v>44167</v>
       </c>
       <c r="G10" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1348,7 +1423,7 @@
         <v>44167</v>
       </c>
       <c r="G11" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1371,7 +1446,7 @@
         <v>44167</v>
       </c>
       <c r="G12" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1394,7 +1469,7 @@
         <v>44167</v>
       </c>
       <c r="G13" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1417,7 +1492,7 @@
         <v>44167</v>
       </c>
       <c r="G14" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1440,7 +1515,7 @@
         <v>44167</v>
       </c>
       <c r="G15" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1463,7 +1538,7 @@
         <v>44167</v>
       </c>
       <c r="G16" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1486,7 +1561,7 @@
         <v>44167</v>
       </c>
       <c r="G17" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1509,7 +1584,7 @@
         <v>44167</v>
       </c>
       <c r="G18" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1532,7 +1607,7 @@
         <v>44167</v>
       </c>
       <c r="G19" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1555,7 +1630,7 @@
         <v>44167</v>
       </c>
       <c r="G20" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1578,7 +1653,7 @@
         <v>44167</v>
       </c>
       <c r="G21" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1601,7 +1676,7 @@
         <v>44167</v>
       </c>
       <c r="G22" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1624,7 +1699,7 @@
         <v>44167</v>
       </c>
       <c r="G23" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1647,7 +1722,7 @@
         <v>44167</v>
       </c>
       <c r="G24" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1670,7 +1745,7 @@
         <v>44167</v>
       </c>
       <c r="G25" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1693,7 +1768,7 @@
         <v>44167</v>
       </c>
       <c r="G26" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1716,7 +1791,7 @@
         <v>44167</v>
       </c>
       <c r="G27" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1739,7 +1814,7 @@
         <v>44167</v>
       </c>
       <c r="G28" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1762,7 +1837,7 @@
         <v>44167</v>
       </c>
       <c r="G29" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1785,7 +1860,7 @@
         <v>44167</v>
       </c>
       <c r="G30" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1808,7 +1883,7 @@
         <v>44167</v>
       </c>
       <c r="G31" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1831,7 +1906,7 @@
         <v>44167</v>
       </c>
       <c r="G32" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1854,7 +1929,7 @@
         <v>44167</v>
       </c>
       <c r="G33" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1877,7 +1952,7 @@
         <v>44167</v>
       </c>
       <c r="G34" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1900,7 +1975,7 @@
         <v>44167</v>
       </c>
       <c r="G35" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1923,7 +1998,7 @@
         <v>44167</v>
       </c>
       <c r="G36" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1946,7 +2021,7 @@
         <v>44167</v>
       </c>
       <c r="G37" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1969,7 +2044,7 @@
         <v>44167</v>
       </c>
       <c r="G38" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1992,7 +2067,7 @@
         <v>44167</v>
       </c>
       <c r="G39" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -2015,7 +2090,7 @@
         <v>44167</v>
       </c>
       <c r="G40" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -2038,7 +2113,7 @@
         <v>44167</v>
       </c>
       <c r="G41" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -2061,7 +2136,7 @@
         <v>44167</v>
       </c>
       <c r="G42" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -2084,7 +2159,7 @@
         <v>44167</v>
       </c>
       <c r="G43" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -2107,7 +2182,7 @@
         <v>44167</v>
       </c>
       <c r="G44" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -2130,7 +2205,7 @@
         <v>44167</v>
       </c>
       <c r="G45" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -2153,7 +2228,7 @@
         <v>44167</v>
       </c>
       <c r="G46" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -2176,7 +2251,7 @@
         <v>44167</v>
       </c>
       <c r="G47" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -2199,7 +2274,7 @@
         <v>44167</v>
       </c>
       <c r="G48" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -2222,7 +2297,7 @@
         <v>44167</v>
       </c>
       <c r="G49" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -2245,7 +2320,7 @@
         <v>44167</v>
       </c>
       <c r="G50" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -2268,7 +2343,7 @@
         <v>44167</v>
       </c>
       <c r="G51" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -2291,7 +2366,7 @@
         <v>44167</v>
       </c>
       <c r="G52" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -2314,7 +2389,7 @@
         <v>44167</v>
       </c>
       <c r="G53" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -2337,7 +2412,7 @@
         <v>44167</v>
       </c>
       <c r="G54" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -2360,7 +2435,7 @@
         <v>44167</v>
       </c>
       <c r="G55" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -2383,7 +2458,7 @@
         <v>44167</v>
       </c>
       <c r="G56" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -2406,7 +2481,7 @@
         <v>44167</v>
       </c>
       <c r="G57" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -2429,7 +2504,7 @@
         <v>44167</v>
       </c>
       <c r="G58" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -2452,7 +2527,7 @@
         <v>44167</v>
       </c>
       <c r="G59" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -2475,7 +2550,7 @@
         <v>44167</v>
       </c>
       <c r="G60" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -2498,7 +2573,7 @@
         <v>44167</v>
       </c>
       <c r="G61" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -2521,7 +2596,7 @@
         <v>44167</v>
       </c>
       <c r="G62" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -2544,7 +2619,7 @@
         <v>44167</v>
       </c>
       <c r="G63" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -2567,7 +2642,7 @@
         <v>44167</v>
       </c>
       <c r="G64" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -2590,7 +2665,7 @@
         <v>44167</v>
       </c>
       <c r="G65" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -2613,7 +2688,7 @@
         <v>44167</v>
       </c>
       <c r="G66" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -2636,7 +2711,7 @@
         <v>44167</v>
       </c>
       <c r="G67" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -2659,7 +2734,7 @@
         <v>44167</v>
       </c>
       <c r="G68" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -2682,7 +2757,7 @@
         <v>44167</v>
       </c>
       <c r="G69" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -2705,7 +2780,7 @@
         <v>44167</v>
       </c>
       <c r="G70" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2728,7 +2803,7 @@
         <v>44167</v>
       </c>
       <c r="G71" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2751,7 +2826,7 @@
         <v>44167</v>
       </c>
       <c r="G72" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2774,7 +2849,7 @@
         <v>44167</v>
       </c>
       <c r="G73" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2797,7 +2872,7 @@
         <v>44167</v>
       </c>
       <c r="G74" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2820,7 +2895,7 @@
         <v>44167</v>
       </c>
       <c r="G75" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2843,7 +2918,7 @@
         <v>44167</v>
       </c>
       <c r="G76" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2866,7 +2941,7 @@
         <v>44167</v>
       </c>
       <c r="G77" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -2889,7 +2964,7 @@
         <v>44167</v>
       </c>
       <c r="G78" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -2912,7 +2987,7 @@
         <v>44167</v>
       </c>
       <c r="G79" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -2935,7 +3010,7 @@
         <v>44167</v>
       </c>
       <c r="G80" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -2958,7 +3033,7 @@
         <v>44167</v>
       </c>
       <c r="G81" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -2981,7 +3056,7 @@
         <v>44167</v>
       </c>
       <c r="G82" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -3004,7 +3079,7 @@
         <v>44167</v>
       </c>
       <c r="G83" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -3027,7 +3102,7 @@
         <v>44167</v>
       </c>
       <c r="G84" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -3050,7 +3125,7 @@
         <v>44167</v>
       </c>
       <c r="G85" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -3073,7 +3148,7 @@
         <v>44167</v>
       </c>
       <c r="G86" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -3096,7 +3171,7 @@
         <v>44167</v>
       </c>
       <c r="G87" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -3119,7 +3194,7 @@
         <v>44167</v>
       </c>
       <c r="G88" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -3142,7 +3217,7 @@
         <v>44167</v>
       </c>
       <c r="G89" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -3165,7 +3240,7 @@
         <v>44167</v>
       </c>
       <c r="G90" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -3188,7 +3263,7 @@
         <v>44167</v>
       </c>
       <c r="G91" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -3211,7 +3286,7 @@
         <v>44167</v>
       </c>
       <c r="G92" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -3234,7 +3309,7 @@
         <v>44167</v>
       </c>
       <c r="G93" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -3257,7 +3332,7 @@
         <v>44167</v>
       </c>
       <c r="G94" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -3280,7 +3355,7 @@
         <v>44167</v>
       </c>
       <c r="G95" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -3303,7 +3378,7 @@
         <v>44167</v>
       </c>
       <c r="G96" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -3326,7 +3401,7 @@
         <v>44167</v>
       </c>
       <c r="G97" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -3349,7 +3424,7 @@
         <v>44167</v>
       </c>
       <c r="G98" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -3372,7 +3447,7 @@
         <v>44167</v>
       </c>
       <c r="G99" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -3395,7 +3470,7 @@
         <v>44167</v>
       </c>
       <c r="G100" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -3418,7 +3493,7 @@
         <v>44167</v>
       </c>
       <c r="G101" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -3441,7 +3516,7 @@
         <v>44167</v>
       </c>
       <c r="G102" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -3464,7 +3539,7 @@
         <v>44167</v>
       </c>
       <c r="G103" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -3487,7 +3562,7 @@
         <v>44167</v>
       </c>
       <c r="G104" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -3510,7 +3585,7 @@
         <v>44167</v>
       </c>
       <c r="G105" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -3533,7 +3608,7 @@
         <v>44167</v>
       </c>
       <c r="G106" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -3556,7 +3631,7 @@
         <v>44167</v>
       </c>
       <c r="G107" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -3579,7 +3654,7 @@
         <v>44167</v>
       </c>
       <c r="G108" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -3602,7 +3677,7 @@
         <v>44167</v>
       </c>
       <c r="G109" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -3625,7 +3700,7 @@
         <v>44167</v>
       </c>
       <c r="G110" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -3648,7 +3723,7 @@
         <v>44167</v>
       </c>
       <c r="G111" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -3671,7 +3746,7 @@
         <v>44167</v>
       </c>
       <c r="G112" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -3694,7 +3769,7 @@
         <v>44167</v>
       </c>
       <c r="G113" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -3717,7 +3792,7 @@
         <v>44167</v>
       </c>
       <c r="G114" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -3740,7 +3815,7 @@
         <v>44167</v>
       </c>
       <c r="G115" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -3763,7 +3838,7 @@
         <v>44167</v>
       </c>
       <c r="G116" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -3786,7 +3861,7 @@
         <v>44167</v>
       </c>
       <c r="G117" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -3809,7 +3884,7 @@
         <v>44167</v>
       </c>
       <c r="G118" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -3832,7 +3907,7 @@
         <v>44167</v>
       </c>
       <c r="G119" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -3855,7 +3930,7 @@
         <v>44167</v>
       </c>
       <c r="G120" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -3878,7 +3953,7 @@
         <v>44167</v>
       </c>
       <c r="G121" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -3901,7 +3976,7 @@
         <v>44167</v>
       </c>
       <c r="G122" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -3924,7 +3999,7 @@
         <v>44167</v>
       </c>
       <c r="G123" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -3947,7 +4022,7 @@
         <v>44167</v>
       </c>
       <c r="G124" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -3970,7 +4045,7 @@
         <v>44167</v>
       </c>
       <c r="G125" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -3993,7 +4068,7 @@
         <v>44167</v>
       </c>
       <c r="G126" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -4016,7 +4091,7 @@
         <v>44167</v>
       </c>
       <c r="G127" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -4039,7 +4114,7 @@
         <v>44167</v>
       </c>
       <c r="G128" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -4062,7 +4137,7 @@
         <v>44167</v>
       </c>
       <c r="G129" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -4085,7 +4160,7 @@
         <v>44167</v>
       </c>
       <c r="G130" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -4108,7 +4183,7 @@
         <v>44167</v>
       </c>
       <c r="G131" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -4131,7 +4206,7 @@
         <v>44167</v>
       </c>
       <c r="G132" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -4154,7 +4229,7 @@
         <v>44167</v>
       </c>
       <c r="G133" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -4177,7 +4252,7 @@
         <v>44167</v>
       </c>
       <c r="G134" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -4200,7 +4275,7 @@
         <v>44167</v>
       </c>
       <c r="G135" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -4223,7 +4298,7 @@
         <v>44167</v>
       </c>
       <c r="G136" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -4246,7 +4321,7 @@
         <v>44167</v>
       </c>
       <c r="G137" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -4269,7 +4344,7 @@
         <v>44167</v>
       </c>
       <c r="G138" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -4292,7 +4367,7 @@
         <v>44167</v>
       </c>
       <c r="G139" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -4315,7 +4390,7 @@
         <v>44167</v>
       </c>
       <c r="G140" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -4338,7 +4413,7 @@
         <v>44167</v>
       </c>
       <c r="G141" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -4361,7 +4436,7 @@
         <v>44167</v>
       </c>
       <c r="G142" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -4384,7 +4459,7 @@
         <v>44167</v>
       </c>
       <c r="G143" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -4407,7 +4482,7 @@
         <v>44167</v>
       </c>
       <c r="G144" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -4430,7 +4505,7 @@
         <v>44167</v>
       </c>
       <c r="G145" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -4453,7 +4528,7 @@
         <v>44167</v>
       </c>
       <c r="G146" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -4476,7 +4551,7 @@
         <v>44167</v>
       </c>
       <c r="G147" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -4499,7 +4574,7 @@
         <v>44167</v>
       </c>
       <c r="G148" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -4522,7 +4597,7 @@
         <v>44167</v>
       </c>
       <c r="G149" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -4545,7 +4620,7 @@
         <v>44167</v>
       </c>
       <c r="G150" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="151" spans="1:7">
@@ -4568,7 +4643,7 @@
         <v>44167</v>
       </c>
       <c r="G151" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -4591,7 +4666,7 @@
         <v>44167</v>
       </c>
       <c r="G152" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -4614,7 +4689,7 @@
         <v>44167</v>
       </c>
       <c r="G153" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -4637,7 +4712,7 @@
         <v>44167</v>
       </c>
       <c r="G154" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -4660,7 +4735,7 @@
         <v>44167</v>
       </c>
       <c r="G155" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -4683,7 +4758,7 @@
         <v>44167</v>
       </c>
       <c r="G156" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -4706,7 +4781,7 @@
         <v>44167</v>
       </c>
       <c r="G157" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -4729,7 +4804,7 @@
         <v>44167</v>
       </c>
       <c r="G158" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -4752,7 +4827,7 @@
         <v>44167</v>
       </c>
       <c r="G159" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -4775,7 +4850,7 @@
         <v>44167</v>
       </c>
       <c r="G160" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -4798,7 +4873,7 @@
         <v>44167</v>
       </c>
       <c r="G161" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -4821,7 +4896,7 @@
         <v>44167</v>
       </c>
       <c r="G162" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -4844,7 +4919,7 @@
         <v>44167</v>
       </c>
       <c r="G163" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -4867,7 +4942,7 @@
         <v>44167</v>
       </c>
       <c r="G164" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -4890,7 +4965,7 @@
         <v>44167</v>
       </c>
       <c r="G165" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -4913,7 +4988,7 @@
         <v>44167</v>
       </c>
       <c r="G166" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -4936,7 +5011,7 @@
         <v>44167</v>
       </c>
       <c r="G167" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -4959,7 +5034,7 @@
         <v>44167</v>
       </c>
       <c r="G168" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
     </row>
     <row r="169" spans="1:7">
@@ -4982,7 +5057,7 @@
         <v>44167</v>
       </c>
       <c r="G169" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
     </row>
     <row r="170" spans="1:7">
@@ -5005,7 +5080,7 @@
         <v>44167</v>
       </c>
       <c r="G170" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -5028,7 +5103,7 @@
         <v>44167</v>
       </c>
       <c r="G171" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
     </row>
     <row r="172" spans="1:7">
@@ -5051,7 +5126,7 @@
         <v>44167</v>
       </c>
       <c r="G172" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
     </row>
     <row r="173" spans="1:7">
@@ -5074,7 +5149,7 @@
         <v>44167</v>
       </c>
       <c r="G173" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -5097,7 +5172,7 @@
         <v>44167</v>
       </c>
       <c r="G174" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
     </row>
     <row r="175" spans="1:7">
@@ -5120,7 +5195,7 @@
         <v>44167</v>
       </c>
       <c r="G175" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
     </row>
     <row r="176" spans="1:7">
@@ -5143,7 +5218,7 @@
         <v>44167</v>
       </c>
       <c r="G176" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="177" spans="1:7">
@@ -5166,7 +5241,7 @@
         <v>44167</v>
       </c>
       <c r="G177" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="178" spans="1:7">
@@ -5189,7 +5264,7 @@
         <v>44167</v>
       </c>
       <c r="G178" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="179" spans="1:7">
@@ -5212,7 +5287,7 @@
         <v>44167</v>
       </c>
       <c r="G179" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -5235,7 +5310,7 @@
         <v>44167</v>
       </c>
       <c r="G180" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
     </row>
     <row r="181" spans="1:7">
@@ -5258,7 +5333,7 @@
         <v>44167</v>
       </c>
       <c r="G181" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
     </row>
     <row r="182" spans="1:7">
@@ -5281,7 +5356,7 @@
         <v>44167</v>
       </c>
       <c r="G182" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="183" spans="1:7">
@@ -5304,7 +5379,7 @@
         <v>44167</v>
       </c>
       <c r="G183" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="184" spans="1:7">
@@ -5327,7 +5402,7 @@
         <v>44167</v>
       </c>
       <c r="G184" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="185" spans="1:7">
@@ -5350,7 +5425,7 @@
         <v>44167</v>
       </c>
       <c r="G185" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
     </row>
     <row r="186" spans="1:7">
@@ -5373,7 +5448,7 @@
         <v>44167</v>
       </c>
       <c r="G186" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
     </row>
     <row r="187" spans="1:7">
@@ -5396,7 +5471,7 @@
         <v>44167</v>
       </c>
       <c r="G187" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
     </row>
     <row r="188" spans="1:7">
@@ -5419,7 +5494,7 @@
         <v>44167</v>
       </c>
       <c r="G188" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
     </row>
     <row r="189" spans="1:7">
@@ -5442,7 +5517,7 @@
         <v>44167</v>
       </c>
       <c r="G189" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
     </row>
     <row r="190" spans="1:7">
@@ -5465,7 +5540,7 @@
         <v>44167</v>
       </c>
       <c r="G190" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
     </row>
     <row r="191" spans="1:7">
@@ -5488,7 +5563,7 @@
         <v>44167</v>
       </c>
       <c r="G191" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
     </row>
     <row r="192" spans="1:7">
@@ -5511,7 +5586,7 @@
         <v>44167</v>
       </c>
       <c r="G192" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
     </row>
     <row r="193" spans="1:7">
@@ -5534,7 +5609,7 @@
         <v>44167</v>
       </c>
       <c r="G193" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
     </row>
     <row r="194" spans="1:7">
@@ -5557,7 +5632,7 @@
         <v>44167</v>
       </c>
       <c r="G194" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
     </row>
     <row r="195" spans="1:7">
@@ -5580,7 +5655,7 @@
         <v>44167</v>
       </c>
       <c r="G195" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
     </row>
     <row r="196" spans="1:7">
@@ -5603,7 +5678,7 @@
         <v>44167</v>
       </c>
       <c r="G196" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
     </row>
     <row r="197" spans="1:7">
@@ -5626,7 +5701,7 @@
         <v>44167</v>
       </c>
       <c r="G197" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
     </row>
     <row r="198" spans="1:7">
@@ -5649,7 +5724,7 @@
         <v>44167</v>
       </c>
       <c r="G198" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
     </row>
     <row r="199" spans="1:7">
@@ -5672,7 +5747,7 @@
         <v>44167</v>
       </c>
       <c r="G199" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
     </row>
     <row r="200" spans="1:7">
@@ -5695,7 +5770,7 @@
         <v>44167</v>
       </c>
       <c r="G200" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
     </row>
     <row r="201" spans="1:7">
@@ -5718,7 +5793,7 @@
         <v>44167</v>
       </c>
       <c r="G201" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
     </row>
     <row r="202" spans="1:7">
@@ -5741,7 +5816,7 @@
         <v>44167</v>
       </c>
       <c r="G202" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
     </row>
     <row r="203" spans="1:7">
@@ -5764,7 +5839,7 @@
         <v>44167</v>
       </c>
       <c r="G203" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
     </row>
     <row r="204" spans="1:7">
@@ -5787,7 +5862,7 @@
         <v>44167</v>
       </c>
       <c r="G204" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
     </row>
     <row r="205" spans="1:7">
@@ -5810,7 +5885,7 @@
         <v>44167</v>
       </c>
       <c r="G205" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
     </row>
     <row r="206" spans="1:7">
@@ -5833,7 +5908,7 @@
         <v>44167</v>
       </c>
       <c r="G206" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="207" spans="1:7">
@@ -5856,7 +5931,7 @@
         <v>44167</v>
       </c>
       <c r="G207" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="208" spans="1:7">
@@ -5879,7 +5954,7 @@
         <v>44167</v>
       </c>
       <c r="G208" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="209" spans="1:7">
@@ -5902,7 +5977,7 @@
         <v>44167</v>
       </c>
       <c r="G209" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
     </row>
     <row r="210" spans="1:7">
@@ -5925,7 +6000,7 @@
         <v>44167</v>
       </c>
       <c r="G210" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
     </row>
     <row r="211" spans="1:7">
@@ -5948,7 +6023,7 @@
         <v>44167</v>
       </c>
       <c r="G211" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
     </row>
     <row r="212" spans="1:7">
@@ -5971,7 +6046,7 @@
         <v>44167</v>
       </c>
       <c r="G212" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
     </row>
     <row r="213" spans="1:7">
@@ -5994,7 +6069,7 @@
         <v>44167</v>
       </c>
       <c r="G213" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
     </row>
     <row r="214" spans="1:7">
@@ -6017,7 +6092,7 @@
         <v>44167</v>
       </c>
       <c r="G214" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
     </row>
     <row r="215" spans="1:7">
@@ -6040,7 +6115,7 @@
         <v>44167</v>
       </c>
       <c r="G215" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
     </row>
     <row r="216" spans="1:7">
@@ -6063,7 +6138,7 @@
         <v>44167</v>
       </c>
       <c r="G216" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
     </row>
     <row r="217" spans="1:7">
@@ -6086,7 +6161,7 @@
         <v>44167</v>
       </c>
       <c r="G217" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
     </row>
     <row r="218" spans="1:7">
@@ -6109,7 +6184,7 @@
         <v>44167</v>
       </c>
       <c r="G218" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
     </row>
     <row r="219" spans="1:7">
@@ -6132,7 +6207,7 @@
         <v>44167</v>
       </c>
       <c r="G219" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
     </row>
     <row r="220" spans="1:7">
@@ -6155,7 +6230,7 @@
         <v>44167</v>
       </c>
       <c r="G220" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
     </row>
     <row r="221" spans="1:7">
@@ -6178,7 +6253,7 @@
         <v>44167</v>
       </c>
       <c r="G221" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
     </row>
     <row r="222" spans="1:7">
@@ -6201,7 +6276,7 @@
         <v>44167</v>
       </c>
       <c r="G222" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
     </row>
     <row r="223" spans="1:7">
@@ -6224,7 +6299,7 @@
         <v>44167</v>
       </c>
       <c r="G223" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
     </row>
     <row r="224" spans="1:7">
@@ -6247,7 +6322,7 @@
         <v>44167</v>
       </c>
       <c r="G224" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
     </row>
     <row r="225" spans="1:7">
@@ -6270,7 +6345,7 @@
         <v>44167</v>
       </c>
       <c r="G225" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
     </row>
     <row r="226" spans="1:7">
@@ -6293,7 +6368,7 @@
         <v>44167</v>
       </c>
       <c r="G226" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
     </row>
     <row r="227" spans="1:7">
@@ -6316,7 +6391,7 @@
         <v>44167</v>
       </c>
       <c r="G227" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
     </row>
     <row r="228" spans="1:7">
@@ -6339,7 +6414,7 @@
         <v>44167</v>
       </c>
       <c r="G228" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
     </row>
     <row r="229" spans="1:7">
@@ -6362,7 +6437,7 @@
         <v>44167</v>
       </c>
       <c r="G229" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
     </row>
     <row r="230" spans="1:7">
@@ -6385,7 +6460,7 @@
         <v>44167</v>
       </c>
       <c r="G230" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
     </row>
     <row r="231" spans="1:7">
@@ -6408,7 +6483,7 @@
         <v>44167</v>
       </c>
       <c r="G231" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
     </row>
     <row r="232" spans="1:7">
@@ -6431,7 +6506,7 @@
         <v>44167</v>
       </c>
       <c r="G232" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
     </row>
     <row r="233" spans="1:7">
@@ -6454,7 +6529,7 @@
         <v>44167</v>
       </c>
       <c r="G233" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
     </row>
     <row r="234" spans="1:7">
@@ -6477,7 +6552,7 @@
         <v>44167</v>
       </c>
       <c r="G234" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
     </row>
     <row r="235" spans="1:7">
@@ -6500,7 +6575,7 @@
         <v>44167</v>
       </c>
       <c r="G235" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
     </row>
     <row r="236" spans="1:7">
@@ -6523,7 +6598,7 @@
         <v>44167</v>
       </c>
       <c r="G236" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
     </row>
     <row r="237" spans="1:7">
@@ -6546,7 +6621,7 @@
         <v>44167</v>
       </c>
       <c r="G237" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
     </row>
     <row r="238" spans="1:7">
@@ -6569,7 +6644,7 @@
         <v>44167</v>
       </c>
       <c r="G238" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
     </row>
     <row r="239" spans="1:7">
@@ -6592,7 +6667,7 @@
         <v>44167</v>
       </c>
       <c r="G239" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
     </row>
     <row r="240" spans="1:7">
@@ -6615,7 +6690,7 @@
         <v>44167</v>
       </c>
       <c r="G240" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
     </row>
     <row r="241" spans="1:7">
@@ -6638,7 +6713,7 @@
         <v>44167</v>
       </c>
       <c r="G241" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
     </row>
     <row r="242" spans="1:7">
@@ -6661,7 +6736,7 @@
         <v>44167</v>
       </c>
       <c r="G242" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
     </row>
     <row r="243" spans="1:7">
@@ -6684,7 +6759,7 @@
         <v>44167</v>
       </c>
       <c r="G243" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
     </row>
     <row r="244" spans="1:7">
@@ -6707,7 +6782,7 @@
         <v>44167</v>
       </c>
       <c r="G244" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
     </row>
     <row r="245" spans="1:7">
@@ -6730,7 +6805,7 @@
         <v>44167</v>
       </c>
       <c r="G245" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="246" spans="1:7">
@@ -6753,7 +6828,7 @@
         <v>44167</v>
       </c>
       <c r="G246" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="247" spans="1:7">
@@ -6776,7 +6851,7 @@
         <v>44167</v>
       </c>
       <c r="G247" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="248" spans="1:7">
@@ -6799,7 +6874,7 @@
         <v>44167</v>
       </c>
       <c r="G248" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
     </row>
     <row r="249" spans="1:7">
@@ -6822,7 +6897,7 @@
         <v>44167</v>
       </c>
       <c r="G249" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
     </row>
     <row r="250" spans="1:7">
@@ -6845,7 +6920,7 @@
         <v>44167</v>
       </c>
       <c r="G250" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
     </row>
     <row r="251" spans="1:7">
@@ -6868,7 +6943,7 @@
         <v>44167</v>
       </c>
       <c r="G251" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
     </row>
     <row r="252" spans="1:7">
@@ -6891,7 +6966,7 @@
         <v>44167</v>
       </c>
       <c r="G252" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
     </row>
     <row r="253" spans="1:7">
@@ -6914,7 +6989,7 @@
         <v>44167</v>
       </c>
       <c r="G253" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
     </row>
     <row r="254" spans="1:7">
@@ -6937,7 +7012,7 @@
         <v>44167</v>
       </c>
       <c r="G254" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
     </row>
     <row r="255" spans="1:7">
@@ -6960,7 +7035,7 @@
         <v>44167</v>
       </c>
       <c r="G255" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
     </row>
     <row r="256" spans="1:7">
@@ -6983,7 +7058,7 @@
         <v>44167</v>
       </c>
       <c r="G256" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
     </row>
     <row r="257" spans="1:7">
@@ -7006,7 +7081,7 @@
         <v>44167</v>
       </c>
       <c r="G257" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="258" spans="1:7">
@@ -7029,7 +7104,7 @@
         <v>44167</v>
       </c>
       <c r="G258" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="259" spans="1:7">
@@ -7052,7 +7127,7 @@
         <v>44167</v>
       </c>
       <c r="G259" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="260" spans="1:7">
@@ -7075,7 +7150,7 @@
         <v>44167</v>
       </c>
       <c r="G260" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
     </row>
     <row r="261" spans="1:7">
@@ -7098,7 +7173,7 @@
         <v>44167</v>
       </c>
       <c r="G261" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
     </row>
     <row r="262" spans="1:7">
@@ -7121,7 +7196,7 @@
         <v>44167</v>
       </c>
       <c r="G262" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
     </row>
     <row r="263" spans="1:7">
@@ -7144,7 +7219,7 @@
         <v>44167</v>
       </c>
       <c r="G263" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
     </row>
     <row r="264" spans="1:7">
@@ -7167,7 +7242,7 @@
         <v>44167</v>
       </c>
       <c r="G264" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
     </row>
     <row r="265" spans="1:7">
@@ -7190,7 +7265,7 @@
         <v>44167</v>
       </c>
       <c r="G265" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
     </row>
     <row r="266" spans="1:7">
@@ -7213,7 +7288,7 @@
         <v>44167</v>
       </c>
       <c r="G266" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
     </row>
     <row r="267" spans="1:7">
@@ -7236,7 +7311,7 @@
         <v>44167</v>
       </c>
       <c r="G267" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
     </row>
     <row r="268" spans="1:7">
@@ -7259,7 +7334,7 @@
         <v>44167</v>
       </c>
       <c r="G268" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
     </row>
     <row r="269" spans="1:7">
@@ -7282,7 +7357,7 @@
         <v>44167</v>
       </c>
       <c r="G269" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
     </row>
     <row r="270" spans="1:7">
@@ -7305,7 +7380,7 @@
         <v>44167</v>
       </c>
       <c r="G270" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
     </row>
     <row r="271" spans="1:7">
@@ -7328,7 +7403,7 @@
         <v>44167</v>
       </c>
       <c r="G271" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
     </row>
     <row r="272" spans="1:7">
@@ -7351,7 +7426,7 @@
         <v>44167</v>
       </c>
       <c r="G272" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
     </row>
     <row r="273" spans="1:7">
@@ -7374,7 +7449,7 @@
         <v>44167</v>
       </c>
       <c r="G273" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
     </row>
     <row r="274" spans="1:7">
@@ -7397,7 +7472,7 @@
         <v>44167</v>
       </c>
       <c r="G274" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
     </row>
     <row r="275" spans="1:7">
@@ -7420,7 +7495,7 @@
         <v>44167</v>
       </c>
       <c r="G275" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="276" spans="1:7">
@@ -7443,7 +7518,7 @@
         <v>44167</v>
       </c>
       <c r="G276" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="277" spans="1:7">
@@ -7466,7 +7541,7 @@
         <v>44167</v>
       </c>
       <c r="G277" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="278" spans="1:7">
@@ -7489,7 +7564,7 @@
         <v>44167</v>
       </c>
       <c r="G278" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
     </row>
     <row r="279" spans="1:7">
@@ -7512,7 +7587,7 @@
         <v>44167</v>
       </c>
       <c r="G279" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
     </row>
     <row r="280" spans="1:7">
@@ -7535,7 +7610,7 @@
         <v>44167</v>
       </c>
       <c r="G280" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
     </row>
     <row r="281" spans="1:7">
@@ -7558,7 +7633,7 @@
         <v>44167</v>
       </c>
       <c r="G281" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
     </row>
     <row r="282" spans="1:7">
@@ -7581,7 +7656,7 @@
         <v>44167</v>
       </c>
       <c r="G282" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
     </row>
     <row r="283" spans="1:7">
@@ -7604,7 +7679,7 @@
         <v>44167</v>
       </c>
       <c r="G283" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
     </row>
     <row r="284" spans="1:7">
@@ -7627,7 +7702,7 @@
         <v>44167</v>
       </c>
       <c r="G284" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
     </row>
     <row r="285" spans="1:7">
@@ -7650,7 +7725,7 @@
         <v>44167</v>
       </c>
       <c r="G285" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
     </row>
     <row r="286" spans="1:7">
@@ -7673,7 +7748,7 @@
         <v>44167</v>
       </c>
       <c r="G286" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
     </row>
     <row r="287" spans="1:7">
@@ -7696,7 +7771,7 @@
         <v>44167</v>
       </c>
       <c r="G287" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="288" spans="1:7">
@@ -7719,7 +7794,7 @@
         <v>44167</v>
       </c>
       <c r="G288" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="289" spans="1:7">
@@ -7742,7 +7817,7 @@
         <v>44167</v>
       </c>
       <c r="G289" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="290" spans="1:7">
@@ -7765,7 +7840,7 @@
         <v>44167</v>
       </c>
       <c r="G290" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="291" spans="1:7">
@@ -7788,7 +7863,7 @@
         <v>44167</v>
       </c>
       <c r="G291" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="292" spans="1:7">
@@ -7811,7 +7886,7 @@
         <v>44167</v>
       </c>
       <c r="G292" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="293" spans="1:7">
@@ -7834,7 +7909,7 @@
         <v>44167</v>
       </c>
       <c r="G293" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
     </row>
     <row r="294" spans="1:7">
@@ -7857,7 +7932,7 @@
         <v>44167</v>
       </c>
       <c r="G294" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
     </row>
     <row r="295" spans="1:7">
@@ -7880,7 +7955,7 @@
         <v>44167</v>
       </c>
       <c r="G295" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
     </row>
     <row r="296" spans="1:7">
@@ -7903,7 +7978,7 @@
         <v>44167</v>
       </c>
       <c r="G296" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
     </row>
     <row r="297" spans="1:7">
@@ -7926,7 +8001,7 @@
         <v>44167</v>
       </c>
       <c r="G297" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
     </row>
     <row r="298" spans="1:7">
@@ -7949,7 +8024,7 @@
         <v>44167</v>
       </c>
       <c r="G298" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
     </row>
     <row r="299" spans="1:7">
@@ -7972,7 +8047,7 @@
         <v>44167</v>
       </c>
       <c r="G299" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
     </row>
     <row r="300" spans="1:7">
@@ -7995,7 +8070,7 @@
         <v>44167</v>
       </c>
       <c r="G300" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
     </row>
     <row r="301" spans="1:7">
@@ -8018,7 +8093,7 @@
         <v>44167</v>
       </c>
       <c r="G301" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
     </row>
     <row r="302" spans="1:7">
@@ -8041,7 +8116,7 @@
         <v>44167</v>
       </c>
       <c r="G302" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
     </row>
     <row r="303" spans="1:7">
@@ -8064,7 +8139,7 @@
         <v>44167</v>
       </c>
       <c r="G303" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
     </row>
     <row r="304" spans="1:7">
@@ -8087,7 +8162,7 @@
         <v>44167</v>
       </c>
       <c r="G304" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
     </row>
     <row r="305" spans="1:7">
@@ -8110,7 +8185,7 @@
         <v>44167</v>
       </c>
       <c r="G305" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
     </row>
     <row r="306" spans="1:7">
@@ -8133,7 +8208,7 @@
         <v>44167</v>
       </c>
       <c r="G306" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
     </row>
     <row r="307" spans="1:7">
@@ -8156,7 +8231,7 @@
         <v>44167</v>
       </c>
       <c r="G307" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
     </row>
     <row r="308" spans="1:7">
@@ -8179,7 +8254,7 @@
         <v>44167</v>
       </c>
       <c r="G308" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
     </row>
     <row r="309" spans="1:7">
@@ -8202,7 +8277,7 @@
         <v>44167</v>
       </c>
       <c r="G309" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
     </row>
     <row r="310" spans="1:7">
@@ -8225,7 +8300,7 @@
         <v>44167</v>
       </c>
       <c r="G310" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
     </row>
     <row r="311" spans="1:7">
@@ -8248,7 +8323,7 @@
         <v>44167</v>
       </c>
       <c r="G311" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="312" spans="1:7">
@@ -8271,7 +8346,7 @@
         <v>44167</v>
       </c>
       <c r="G312" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="313" spans="1:7">
@@ -8294,7 +8369,7 @@
         <v>44167</v>
       </c>
       <c r="G313" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="314" spans="1:7">
@@ -8317,7 +8392,7 @@
         <v>44167</v>
       </c>
       <c r="G314" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="315" spans="1:7">
@@ -8340,7 +8415,7 @@
         <v>44167</v>
       </c>
       <c r="G315" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="316" spans="1:7">
@@ -8363,7 +8438,7 @@
         <v>44167</v>
       </c>
       <c r="G316" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="317" spans="1:7">
@@ -8386,7 +8461,7 @@
         <v>44167</v>
       </c>
       <c r="G317" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="318" spans="1:7">
@@ -8409,7 +8484,7 @@
         <v>44167</v>
       </c>
       <c r="G318" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="319" spans="1:7">
@@ -8432,7 +8507,7 @@
         <v>44167</v>
       </c>
       <c r="G319" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="320" spans="1:7">
@@ -8455,7 +8530,7 @@
         <v>44167</v>
       </c>
       <c r="G320" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="321" spans="1:7">
@@ -8478,7 +8553,7 @@
         <v>44167</v>
       </c>
       <c r="G321" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="322" spans="1:7">
@@ -8501,7 +8576,7 @@
         <v>44167</v>
       </c>
       <c r="G322" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="323" spans="1:7">
@@ -8524,7 +8599,7 @@
         <v>44167</v>
       </c>
       <c r="G323" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="324" spans="1:7">
@@ -8547,7 +8622,7 @@
         <v>44167</v>
       </c>
       <c r="G324" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="325" spans="1:7">
@@ -8570,7 +8645,7 @@
         <v>44167</v>
       </c>
       <c r="G325" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="326" spans="1:7">
@@ -8593,7 +8668,7 @@
         <v>44167</v>
       </c>
       <c r="G326" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
     </row>
     <row r="327" spans="1:7">
@@ -8616,7 +8691,7 @@
         <v>44167</v>
       </c>
       <c r="G327" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
     </row>
     <row r="328" spans="1:7">
@@ -8639,7 +8714,7 @@
         <v>44167</v>
       </c>
       <c r="G328" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
     </row>
     <row r="329" spans="1:7">
@@ -8662,7 +8737,7 @@
         <v>44167</v>
       </c>
       <c r="G329" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="330" spans="1:7">
@@ -8685,7 +8760,7 @@
         <v>44167</v>
       </c>
       <c r="G330" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="331" spans="1:7">
@@ -8708,7 +8783,7 @@
         <v>44167</v>
       </c>
       <c r="G331" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="332" spans="1:7">
@@ -8731,7 +8806,7 @@
         <v>44167</v>
       </c>
       <c r="G332" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="333" spans="1:7">
@@ -8754,7 +8829,7 @@
         <v>44167</v>
       </c>
       <c r="G333" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="334" spans="1:7">
@@ -8777,7 +8852,7 @@
         <v>44167</v>
       </c>
       <c r="G334" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="335" spans="1:7">
@@ -8800,7 +8875,7 @@
         <v>44167</v>
       </c>
       <c r="G335" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="336" spans="1:7">
@@ -8823,7 +8898,7 @@
         <v>44167</v>
       </c>
       <c r="G336" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="337" spans="1:7">
@@ -8846,7 +8921,7 @@
         <v>44167</v>
       </c>
       <c r="G337" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="338" spans="1:7">
@@ -8869,7 +8944,7 @@
         <v>44167</v>
       </c>
       <c r="G338" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="339" spans="1:7">
@@ -8892,7 +8967,7 @@
         <v>44167</v>
       </c>
       <c r="G339" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="340" spans="1:7">
@@ -8915,7 +8990,7 @@
         <v>44167</v>
       </c>
       <c r="G340" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="341" spans="1:7">
@@ -8938,7 +9013,7 @@
         <v>44167</v>
       </c>
       <c r="G341" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
     </row>
     <row r="342" spans="1:7">
@@ -8961,7 +9036,7 @@
         <v>44167</v>
       </c>
       <c r="G342" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
     </row>
     <row r="343" spans="1:7">
@@ -8984,7 +9059,7 @@
         <v>44167</v>
       </c>
       <c r="G343" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
     </row>
     <row r="344" spans="1:7">
@@ -9007,7 +9082,7 @@
         <v>44167</v>
       </c>
       <c r="G344" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
     </row>
     <row r="345" spans="1:7">
@@ -9030,7 +9105,7 @@
         <v>44167</v>
       </c>
       <c r="G345" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
     </row>
     <row r="346" spans="1:7">
@@ -9053,7 +9128,7 @@
         <v>44167</v>
       </c>
       <c r="G346" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
     </row>
     <row r="347" spans="1:7">
@@ -9076,7 +9151,7 @@
         <v>44167</v>
       </c>
       <c r="G347" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
     </row>
     <row r="348" spans="1:7">
@@ -9099,7 +9174,7 @@
         <v>44167</v>
       </c>
       <c r="G348" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
     </row>
     <row r="349" spans="1:7">
@@ -9122,7 +9197,7 @@
         <v>44167</v>
       </c>
       <c r="G349" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
     </row>
     <row r="350" spans="1:7">
@@ -9145,7 +9220,7 @@
         <v>44167</v>
       </c>
       <c r="G350" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
     </row>
     <row r="351" spans="1:7">
@@ -9168,7 +9243,7 @@
         <v>44167</v>
       </c>
       <c r="G351" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
     </row>
     <row r="352" spans="1:7">
@@ -9191,7 +9266,7 @@
         <v>44167</v>
       </c>
       <c r="G352" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
     </row>
     <row r="353" spans="1:7">
@@ -9214,7 +9289,7 @@
         <v>44167</v>
       </c>
       <c r="G353" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="354" spans="1:7">
@@ -9237,7 +9312,7 @@
         <v>44167</v>
       </c>
       <c r="G354" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="355" spans="1:7">
@@ -9260,7 +9335,7 @@
         <v>44167</v>
       </c>
       <c r="G355" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="356" spans="1:7">
@@ -9283,7 +9358,7 @@
         <v>44167</v>
       </c>
       <c r="G356" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
     </row>
     <row r="357" spans="1:7">
@@ -9306,7 +9381,7 @@
         <v>44167</v>
       </c>
       <c r="G357" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
     </row>
     <row r="358" spans="1:7">
@@ -9329,7 +9404,7 @@
         <v>44167</v>
       </c>
       <c r="G358" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
     </row>
     <row r="359" spans="1:7">
@@ -9352,7 +9427,7 @@
         <v>44167</v>
       </c>
       <c r="G359" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="360" spans="1:7">
@@ -9375,7 +9450,7 @@
         <v>44167</v>
       </c>
       <c r="G360" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="361" spans="1:7">
@@ -9398,7 +9473,7 @@
         <v>44167</v>
       </c>
       <c r="G361" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="362" spans="1:7">
@@ -9421,7 +9496,7 @@
         <v>44167</v>
       </c>
       <c r="G362" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
     </row>
     <row r="363" spans="1:7">
@@ -9444,7 +9519,7 @@
         <v>44167</v>
       </c>
       <c r="G363" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
     </row>
     <row r="364" spans="1:7">
@@ -9467,7 +9542,7 @@
         <v>44167</v>
       </c>
       <c r="G364" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
     </row>
     <row r="365" spans="1:7">
@@ -9490,7 +9565,7 @@
         <v>44167</v>
       </c>
       <c r="G365" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="366" spans="1:7">
@@ -9513,7 +9588,7 @@
         <v>44167</v>
       </c>
       <c r="G366" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="367" spans="1:7">
@@ -9536,7 +9611,7 @@
         <v>44167</v>
       </c>
       <c r="G367" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="368" spans="1:7">
@@ -9559,7 +9634,7 @@
         <v>44167</v>
       </c>
       <c r="G368" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="369" spans="1:7">
@@ -9582,7 +9657,7 @@
         <v>44167</v>
       </c>
       <c r="G369" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="370" spans="1:7">
@@ -9605,7 +9680,7 @@
         <v>44167</v>
       </c>
       <c r="G370" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="371" spans="1:7">
@@ -9628,7 +9703,7 @@
         <v>44167</v>
       </c>
       <c r="G371" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="372" spans="1:7">
@@ -9651,7 +9726,7 @@
         <v>44167</v>
       </c>
       <c r="G372" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="373" spans="1:7">
@@ -9674,7 +9749,7 @@
         <v>44167</v>
       </c>
       <c r="G373" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="374" spans="1:7">
@@ -9697,7 +9772,7 @@
         <v>44167</v>
       </c>
       <c r="G374" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="375" spans="1:7">
@@ -9720,7 +9795,7 @@
         <v>44167</v>
       </c>
       <c r="G375" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="376" spans="1:7">
@@ -9743,7 +9818,7 @@
         <v>44167</v>
       </c>
       <c r="G376" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="377" spans="1:7">
@@ -9766,7 +9841,7 @@
         <v>44167</v>
       </c>
       <c r="G377" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="378" spans="1:7">
@@ -9789,7 +9864,7 @@
         <v>44167</v>
       </c>
       <c r="G378" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="379" spans="1:7">
@@ -9812,7 +9887,7 @@
         <v>44167</v>
       </c>
       <c r="G379" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="380" spans="1:7">
@@ -9835,7 +9910,7 @@
         <v>44167</v>
       </c>
       <c r="G380" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="381" spans="1:7">
@@ -9858,7 +9933,7 @@
         <v>44167</v>
       </c>
       <c r="G381" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="382" spans="1:7">
@@ -9881,7 +9956,7 @@
         <v>44167</v>
       </c>
       <c r="G382" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="383" spans="1:7">
@@ -9904,7 +9979,7 @@
         <v>44167</v>
       </c>
       <c r="G383" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="384" spans="1:7">
@@ -9927,7 +10002,7 @@
         <v>44167</v>
       </c>
       <c r="G384" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="385" spans="1:7">
@@ -9950,7 +10025,7 @@
         <v>44167</v>
       </c>
       <c r="G385" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="386" spans="1:7">
@@ -9973,7 +10048,7 @@
         <v>44167</v>
       </c>
       <c r="G386" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
     </row>
     <row r="387" spans="1:7">
@@ -9996,7 +10071,7 @@
         <v>44167</v>
       </c>
       <c r="G387" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
     </row>
     <row r="388" spans="1:7">
@@ -10019,7 +10094,7 @@
         <v>44167</v>
       </c>
       <c r="G388" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
     </row>
     <row r="389" spans="1:7">
@@ -10042,7 +10117,7 @@
         <v>44167</v>
       </c>
       <c r="G389" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="390" spans="1:7">
@@ -10065,7 +10140,7 @@
         <v>44167</v>
       </c>
       <c r="G390" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="391" spans="1:7">
@@ -10088,7 +10163,7 @@
         <v>44167</v>
       </c>
       <c r="G391" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="392" spans="1:7">
@@ -10111,7 +10186,7 @@
         <v>44167</v>
       </c>
       <c r="G392" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="393" spans="1:7">
@@ -10134,7 +10209,7 @@
         <v>44167</v>
       </c>
       <c r="G393" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="394" spans="1:7">
@@ -10157,7 +10232,7 @@
         <v>44167</v>
       </c>
       <c r="G394" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="395" spans="1:7">
@@ -10180,7 +10255,7 @@
         <v>44169</v>
       </c>
       <c r="G395" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
     </row>
     <row r="396" spans="1:7">
@@ -10203,7 +10278,7 @@
         <v>44169</v>
       </c>
       <c r="G396" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
     </row>
     <row r="397" spans="1:7">
@@ -10226,7 +10301,7 @@
         <v>44169</v>
       </c>
       <c r="G397" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
     </row>
     <row r="398" spans="1:7">
@@ -10249,7 +10324,7 @@
         <v>44169</v>
       </c>
       <c r="G398" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="399" spans="1:7">
@@ -10272,7 +10347,7 @@
         <v>44169</v>
       </c>
       <c r="G399" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="400" spans="1:7">
@@ -10295,7 +10370,7 @@
         <v>44169</v>
       </c>
       <c r="G400" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="401" spans="1:7">
@@ -10318,7 +10393,7 @@
         <v>44169</v>
       </c>
       <c r="G401" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
     </row>
     <row r="402" spans="1:7">
@@ -10341,7 +10416,7 @@
         <v>44169</v>
       </c>
       <c r="G402" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
     </row>
     <row r="403" spans="1:7">
@@ -10364,7 +10439,7 @@
         <v>44169</v>
       </c>
       <c r="G403" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
     </row>
     <row r="404" spans="1:7">
@@ -10387,7 +10462,7 @@
         <v>44169</v>
       </c>
       <c r="G404" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
     </row>
     <row r="405" spans="1:7">
@@ -10410,7 +10485,7 @@
         <v>44169</v>
       </c>
       <c r="G405" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
     </row>
     <row r="406" spans="1:7">
@@ -10433,7 +10508,7 @@
         <v>44169</v>
       </c>
       <c r="G406" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
     </row>
     <row r="407" spans="1:7">
@@ -10456,7 +10531,7 @@
         <v>44169</v>
       </c>
       <c r="G407" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
     </row>
     <row r="408" spans="1:7">
@@ -10479,7 +10554,7 @@
         <v>44169</v>
       </c>
       <c r="G408" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
     </row>
     <row r="409" spans="1:7">
@@ -10502,7 +10577,7 @@
         <v>44169</v>
       </c>
       <c r="G409" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
     </row>
     <row r="410" spans="1:7">
@@ -10525,7 +10600,7 @@
         <v>44169</v>
       </c>
       <c r="G410" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
     </row>
     <row r="411" spans="1:7">
@@ -10548,7 +10623,7 @@
         <v>44169</v>
       </c>
       <c r="G411" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
     </row>
     <row r="412" spans="1:7">
@@ -10571,7 +10646,7 @@
         <v>44169</v>
       </c>
       <c r="G412" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
     </row>
     <row r="413" spans="1:7">
@@ -10594,7 +10669,7 @@
         <v>44169</v>
       </c>
       <c r="G413" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
     </row>
     <row r="414" spans="1:7">
@@ -10617,7 +10692,7 @@
         <v>44169</v>
       </c>
       <c r="G414" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
     </row>
     <row r="415" spans="1:7">
@@ -10640,7 +10715,7 @@
         <v>44169</v>
       </c>
       <c r="G415" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
     </row>
     <row r="416" spans="1:7">
@@ -10663,7 +10738,7 @@
         <v>44169</v>
       </c>
       <c r="G416" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
     </row>
     <row r="417" spans="1:7">
@@ -10686,7 +10761,7 @@
         <v>44169</v>
       </c>
       <c r="G417" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
     </row>
     <row r="418" spans="1:7">
@@ -10709,7 +10784,7 @@
         <v>44169</v>
       </c>
       <c r="G418" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
     </row>
     <row r="419" spans="1:7">
@@ -10732,7 +10807,7 @@
         <v>44169</v>
       </c>
       <c r="G419" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
     </row>
     <row r="420" spans="1:7">
@@ -10755,7 +10830,7 @@
         <v>44169</v>
       </c>
       <c r="G420" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
     </row>
     <row r="421" spans="1:7">
@@ -10778,7 +10853,7 @@
         <v>44169</v>
       </c>
       <c r="G421" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
     </row>
     <row r="422" spans="1:7">
@@ -10801,7 +10876,7 @@
         <v>44169</v>
       </c>
       <c r="G422" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
     </row>
     <row r="423" spans="1:7">
@@ -10824,7 +10899,7 @@
         <v>44169</v>
       </c>
       <c r="G423" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
     </row>
     <row r="424" spans="1:7">
@@ -10847,7 +10922,7 @@
         <v>44169</v>
       </c>
       <c r="G424" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
     </row>
     <row r="425" spans="1:7">
@@ -10870,7 +10945,7 @@
         <v>44170</v>
       </c>
       <c r="G425" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
     </row>
     <row r="426" spans="1:7">
@@ -10893,7 +10968,7 @@
         <v>44170</v>
       </c>
       <c r="G426" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
     </row>
     <row r="427" spans="1:7">
@@ -10916,7 +10991,7 @@
         <v>44170</v>
       </c>
       <c r="G427" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
     </row>
     <row r="428" spans="1:7">
@@ -10939,7 +11014,7 @@
         <v>44170</v>
       </c>
       <c r="G428" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
     </row>
     <row r="429" spans="1:7">
@@ -10962,7 +11037,7 @@
         <v>44170</v>
       </c>
       <c r="G429" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
     </row>
     <row r="430" spans="1:7">
@@ -10985,7 +11060,7 @@
         <v>44170</v>
       </c>
       <c r="G430" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
     </row>
     <row r="431" spans="1:7">
@@ -11008,7 +11083,7 @@
         <v>44170</v>
       </c>
       <c r="G431" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="432" spans="1:7">
@@ -11031,7 +11106,7 @@
         <v>44170</v>
       </c>
       <c r="G432" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="433" spans="1:7">
@@ -11054,7 +11129,7 @@
         <v>44170</v>
       </c>
       <c r="G433" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="434" spans="1:7">
@@ -11077,7 +11152,7 @@
         <v>44170</v>
       </c>
       <c r="G434" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="435" spans="1:7">
@@ -11100,7 +11175,7 @@
         <v>44170</v>
       </c>
       <c r="G435" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="436" spans="1:7">
@@ -11123,7 +11198,7 @@
         <v>44170</v>
       </c>
       <c r="G436" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="437" spans="1:7">
@@ -11146,7 +11221,7 @@
         <v>44170</v>
       </c>
       <c r="G437" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
     </row>
     <row r="438" spans="1:7">
@@ -11169,7 +11244,7 @@
         <v>44170</v>
       </c>
       <c r="G438" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
     </row>
     <row r="439" spans="1:7">
@@ -11192,7 +11267,7 @@
         <v>44170</v>
       </c>
       <c r="G439" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
     </row>
     <row r="440" spans="1:7">
@@ -11215,7 +11290,7 @@
         <v>44170</v>
       </c>
       <c r="G440" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
     </row>
     <row r="441" spans="1:7">
@@ -11238,7 +11313,7 @@
         <v>44170</v>
       </c>
       <c r="G441" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
     </row>
     <row r="442" spans="1:7">
@@ -11261,7 +11336,7 @@
         <v>44170</v>
       </c>
       <c r="G442" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
     </row>
     <row r="443" spans="1:7">
@@ -11284,7 +11359,7 @@
         <v>44170</v>
       </c>
       <c r="G443" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="444" spans="1:7">
@@ -11307,7 +11382,7 @@
         <v>44170</v>
       </c>
       <c r="G444" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="445" spans="1:7">
@@ -11330,7 +11405,7 @@
         <v>44170</v>
       </c>
       <c r="G445" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="446" spans="1:7">
@@ -11353,7 +11428,7 @@
         <v>44170</v>
       </c>
       <c r="G446" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="447" spans="1:7">
@@ -11376,7 +11451,7 @@
         <v>44170</v>
       </c>
       <c r="G447" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="448" spans="1:7">
@@ -11399,7 +11474,7 @@
         <v>44170</v>
       </c>
       <c r="G448" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="449" spans="1:7">
@@ -11422,7 +11497,7 @@
         <v>44170</v>
       </c>
       <c r="G449" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="450" spans="1:7">
@@ -11445,7 +11520,7 @@
         <v>44170</v>
       </c>
       <c r="G450" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="451" spans="1:7">
@@ -11468,7 +11543,7 @@
         <v>44170</v>
       </c>
       <c r="G451" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="452" spans="1:7">
@@ -11491,7 +11566,7 @@
         <v>44170</v>
       </c>
       <c r="G452" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="453" spans="1:7">
@@ -11514,7 +11589,7 @@
         <v>44170</v>
       </c>
       <c r="G453" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="454" spans="1:7">
@@ -11537,7 +11612,7 @@
         <v>44170</v>
       </c>
       <c r="G454" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="455" spans="1:7">
@@ -11560,7 +11635,7 @@
         <v>44170</v>
       </c>
       <c r="G455" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
     </row>
     <row r="456" spans="1:7">
@@ -11583,7 +11658,7 @@
         <v>44170</v>
       </c>
       <c r="G456" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
     </row>
     <row r="457" spans="1:7">
@@ -11606,7 +11681,7 @@
         <v>44170</v>
       </c>
       <c r="G457" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
     </row>
     <row r="458" spans="1:7">
@@ -11629,7 +11704,7 @@
         <v>44170</v>
       </c>
       <c r="G458" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
     </row>
     <row r="459" spans="1:7">
@@ -11652,7 +11727,7 @@
         <v>44170</v>
       </c>
       <c r="G459" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
     </row>
     <row r="460" spans="1:7">
@@ -11675,7 +11750,7 @@
         <v>44170</v>
       </c>
       <c r="G460" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
     </row>
     <row r="461" spans="1:7">
@@ -11698,7 +11773,7 @@
         <v>44170</v>
       </c>
       <c r="G461" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
     </row>
     <row r="462" spans="1:7">
@@ -11721,7 +11796,7 @@
         <v>44170</v>
       </c>
       <c r="G462" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
     </row>
     <row r="463" spans="1:7">
@@ -11744,7 +11819,7 @@
         <v>44170</v>
       </c>
       <c r="G463" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
     </row>
     <row r="464" spans="1:7">
@@ -11767,7 +11842,7 @@
         <v>44170</v>
       </c>
       <c r="G464" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="465" spans="1:7">
@@ -11790,7 +11865,7 @@
         <v>44170</v>
       </c>
       <c r="G465" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="466" spans="1:7">
@@ -11813,7 +11888,7 @@
         <v>44170</v>
       </c>
       <c r="G466" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="467" spans="1:7">
@@ -11836,7 +11911,7 @@
         <v>44170</v>
       </c>
       <c r="G467" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
     </row>
     <row r="468" spans="1:7">
@@ -11859,7 +11934,7 @@
         <v>44170</v>
       </c>
       <c r="G468" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
     </row>
     <row r="469" spans="1:7">
@@ -11882,7 +11957,7 @@
         <v>44170</v>
       </c>
       <c r="G469" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
     </row>
     <row r="470" spans="1:7">
@@ -11905,7 +11980,7 @@
         <v>44170</v>
       </c>
       <c r="G470" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
     </row>
     <row r="471" spans="1:7">
@@ -11928,7 +12003,7 @@
         <v>44170</v>
       </c>
       <c r="G471" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
     </row>
     <row r="472" spans="1:7">
@@ -11951,7 +12026,7 @@
         <v>44170</v>
       </c>
       <c r="G472" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
     </row>
     <row r="473" spans="1:7">
@@ -11974,7 +12049,7 @@
         <v>44170</v>
       </c>
       <c r="G473" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
     </row>
     <row r="474" spans="1:7">
@@ -11997,7 +12072,7 @@
         <v>44170</v>
       </c>
       <c r="G474" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
     </row>
     <row r="475" spans="1:7">
@@ -12020,7 +12095,7 @@
         <v>44170</v>
       </c>
       <c r="G475" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
     </row>
     <row r="476" spans="1:7">
@@ -12043,7 +12118,7 @@
         <v>44170</v>
       </c>
       <c r="G476" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
     </row>
     <row r="477" spans="1:7">
@@ -12066,7 +12141,7 @@
         <v>44170</v>
       </c>
       <c r="G477" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
     </row>
     <row r="478" spans="1:7">
@@ -12089,7 +12164,7 @@
         <v>44170</v>
       </c>
       <c r="G478" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
     </row>
     <row r="479" spans="1:7">
@@ -12112,7 +12187,7 @@
         <v>44170</v>
       </c>
       <c r="G479" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
     </row>
     <row r="480" spans="1:7">
@@ -12135,7 +12210,7 @@
         <v>44170</v>
       </c>
       <c r="G480" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
     </row>
     <row r="481" spans="1:7">
@@ -12158,7 +12233,7 @@
         <v>44170</v>
       </c>
       <c r="G481" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
     </row>
     <row r="482" spans="1:7">
@@ -12181,7 +12256,7 @@
         <v>44170</v>
       </c>
       <c r="G482" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
     </row>
     <row r="483" spans="1:7">
@@ -12204,7 +12279,7 @@
         <v>44170</v>
       </c>
       <c r="G483" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
     </row>
     <row r="484" spans="1:7">
@@ -12227,7 +12302,7 @@
         <v>44170</v>
       </c>
       <c r="G484" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
     </row>
     <row r="485" spans="1:7">
@@ -12250,7 +12325,7 @@
         <v>44170</v>
       </c>
       <c r="G485" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
     </row>
     <row r="486" spans="1:7">
@@ -12273,7 +12348,7 @@
         <v>44170</v>
       </c>
       <c r="G486" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
     </row>
     <row r="487" spans="1:7">
@@ -12296,7 +12371,7 @@
         <v>44170</v>
       </c>
       <c r="G487" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
     </row>
     <row r="488" spans="1:7">
@@ -12319,7 +12394,7 @@
         <v>44170</v>
       </c>
       <c r="G488" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
     </row>
     <row r="489" spans="1:7">
@@ -12342,7 +12417,7 @@
         <v>44170</v>
       </c>
       <c r="G489" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
     </row>
     <row r="490" spans="1:7">
@@ -12365,7 +12440,7 @@
         <v>44170</v>
       </c>
       <c r="G490" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
     </row>
     <row r="491" spans="1:7">
@@ -12388,7 +12463,7 @@
         <v>44170</v>
       </c>
       <c r="G491" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
     </row>
     <row r="492" spans="1:7">
@@ -12411,7 +12486,7 @@
         <v>44170</v>
       </c>
       <c r="G492" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
     </row>
     <row r="493" spans="1:7">
@@ -12434,7 +12509,7 @@
         <v>44170</v>
       </c>
       <c r="G493" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
     </row>
     <row r="494" spans="1:7">
@@ -12457,7 +12532,7 @@
         <v>44170</v>
       </c>
       <c r="G494" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
     </row>
     <row r="495" spans="1:7">
@@ -12480,7 +12555,7 @@
         <v>44170</v>
       </c>
       <c r="G495" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
     </row>
     <row r="496" spans="1:7">
@@ -12503,7 +12578,7 @@
         <v>44170</v>
       </c>
       <c r="G496" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
     </row>
     <row r="497" spans="1:7">
@@ -12526,7 +12601,7 @@
         <v>44170</v>
       </c>
       <c r="G497" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
     </row>
     <row r="498" spans="1:7">
@@ -12549,7 +12624,7 @@
         <v>44170</v>
       </c>
       <c r="G498" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
     </row>
     <row r="499" spans="1:7">
@@ -12572,7 +12647,7 @@
         <v>44170</v>
       </c>
       <c r="G499" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
     </row>
     <row r="500" spans="1:7">
@@ -12595,7 +12670,7 @@
         <v>44170</v>
       </c>
       <c r="G500" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
     </row>
     <row r="501" spans="1:7">
@@ -12618,7 +12693,7 @@
         <v>44170</v>
       </c>
       <c r="G501" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
     </row>
     <row r="502" spans="1:7">
@@ -12641,7 +12716,7 @@
         <v>44170</v>
       </c>
       <c r="G502" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
     </row>
     <row r="503" spans="1:7">
@@ -12664,7 +12739,7 @@
         <v>44170</v>
       </c>
       <c r="G503" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
     </row>
     <row r="504" spans="1:7">
@@ -12687,7 +12762,7 @@
         <v>44170</v>
       </c>
       <c r="G504" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
     </row>
     <row r="505" spans="1:7">
@@ -12710,7 +12785,7 @@
         <v>44170</v>
       </c>
       <c r="G505" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
     </row>
     <row r="506" spans="1:7">
@@ -12733,7 +12808,7 @@
         <v>44170</v>
       </c>
       <c r="G506" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
     </row>
     <row r="507" spans="1:7">
@@ -12756,7 +12831,7 @@
         <v>44170</v>
       </c>
       <c r="G507" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
     </row>
     <row r="508" spans="1:7">
@@ -12779,7 +12854,7 @@
         <v>44170</v>
       </c>
       <c r="G508" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
     </row>
     <row r="509" spans="1:7">
@@ -12802,7 +12877,7 @@
         <v>44170</v>
       </c>
       <c r="G509" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
     </row>
     <row r="510" spans="1:7">
@@ -12825,7 +12900,7 @@
         <v>44170</v>
       </c>
       <c r="G510" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
     </row>
     <row r="511" spans="1:7">
@@ -12848,7 +12923,7 @@
         <v>44170</v>
       </c>
       <c r="G511" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
     </row>
     <row r="512" spans="1:7">
@@ -12871,7 +12946,7 @@
         <v>44170</v>
       </c>
       <c r="G512" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
     </row>
     <row r="513" spans="1:7">
@@ -12894,7 +12969,7 @@
         <v>44170</v>
       </c>
       <c r="G513" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
     </row>
     <row r="514" spans="1:7">
@@ -12917,7 +12992,7 @@
         <v>44170</v>
       </c>
       <c r="G514" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
     </row>
     <row r="515" spans="1:7">
@@ -12940,7 +13015,7 @@
         <v>44170</v>
       </c>
       <c r="G515" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
     </row>
     <row r="516" spans="1:7">
@@ -12963,7 +13038,7 @@
         <v>44170</v>
       </c>
       <c r="G516" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
     </row>
     <row r="517" spans="1:7">
@@ -12986,7 +13061,7 @@
         <v>44170</v>
       </c>
       <c r="G517" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
     </row>
     <row r="518" spans="1:7">
@@ -13009,7 +13084,7 @@
         <v>44170</v>
       </c>
       <c r="G518" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
     </row>
     <row r="519" spans="1:7">
@@ -13032,7 +13107,7 @@
         <v>44170</v>
       </c>
       <c r="G519" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
     </row>
     <row r="520" spans="1:7">
@@ -13055,7 +13130,7 @@
         <v>44170</v>
       </c>
       <c r="G520" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
     </row>
     <row r="521" spans="1:7">
@@ -13078,7 +13153,7 @@
         <v>44170</v>
       </c>
       <c r="G521" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
     </row>
     <row r="522" spans="1:7">
@@ -13101,7 +13176,7 @@
         <v>44170</v>
       </c>
       <c r="G522" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
     </row>
     <row r="523" spans="1:7">
@@ -13124,7 +13199,7 @@
         <v>44170</v>
       </c>
       <c r="G523" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
     </row>
     <row r="524" spans="1:7">
@@ -13147,7 +13222,7 @@
         <v>44170</v>
       </c>
       <c r="G524" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="525" spans="1:7">
@@ -13170,7 +13245,7 @@
         <v>44170</v>
       </c>
       <c r="G525" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="526" spans="1:7">
@@ -13193,7 +13268,7 @@
         <v>44170</v>
       </c>
       <c r="G526" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="527" spans="1:7">
@@ -13216,7 +13291,7 @@
         <v>44170</v>
       </c>
       <c r="G527" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="528" spans="1:7">
@@ -13239,7 +13314,7 @@
         <v>44170</v>
       </c>
       <c r="G528" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="529" spans="1:7">
@@ -13262,7 +13337,7 @@
         <v>44170</v>
       </c>
       <c r="G529" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="530" spans="1:7">
@@ -13285,7 +13360,7 @@
         <v>44170</v>
       </c>
       <c r="G530" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="531" spans="1:7">
@@ -13308,7 +13383,7 @@
         <v>44170</v>
       </c>
       <c r="G531" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="532" spans="1:7">
@@ -13331,7 +13406,7 @@
         <v>44170</v>
       </c>
       <c r="G532" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="533" spans="1:7">
@@ -13354,7 +13429,7 @@
         <v>44170</v>
       </c>
       <c r="G533" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="534" spans="1:7">
@@ -13377,7 +13452,7 @@
         <v>44170</v>
       </c>
       <c r="G534" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="535" spans="1:7">
@@ -13400,7 +13475,7 @@
         <v>44170</v>
       </c>
       <c r="G535" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="536" spans="1:7">
@@ -13423,7 +13498,7 @@
         <v>44170</v>
       </c>
       <c r="G536" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="537" spans="1:7">
@@ -13446,7 +13521,7 @@
         <v>44170</v>
       </c>
       <c r="G537" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="538" spans="1:7">
@@ -13469,7 +13544,7 @@
         <v>44170</v>
       </c>
       <c r="G538" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="539" spans="1:7">
@@ -13492,7 +13567,7 @@
         <v>44170</v>
       </c>
       <c r="G539" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="540" spans="1:7">
@@ -13515,7 +13590,7 @@
         <v>44170</v>
       </c>
       <c r="G540" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="541" spans="1:7">
@@ -13538,7 +13613,7 @@
         <v>44170</v>
       </c>
       <c r="G541" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="542" spans="1:7">
@@ -13561,7 +13636,7 @@
         <v>44170</v>
       </c>
       <c r="G542" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
     </row>
     <row r="543" spans="1:7">
@@ -13584,7 +13659,7 @@
         <v>44170</v>
       </c>
       <c r="G543" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
     </row>
     <row r="544" spans="1:7">
@@ -13607,7 +13682,7 @@
         <v>44170</v>
       </c>
       <c r="G544" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
     </row>
     <row r="545" spans="1:7">
@@ -13630,7 +13705,7 @@
         <v>44170</v>
       </c>
       <c r="G545" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
     </row>
     <row r="546" spans="1:7">
@@ -13653,7 +13728,7 @@
         <v>44170</v>
       </c>
       <c r="G546" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
     </row>
     <row r="547" spans="1:7">
@@ -13676,7 +13751,7 @@
         <v>44170</v>
       </c>
       <c r="G547" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
     </row>
     <row r="548" spans="1:7">
@@ -13699,7 +13774,7 @@
         <v>44170</v>
       </c>
       <c r="G548" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
     </row>
     <row r="549" spans="1:7">
@@ -13722,7 +13797,7 @@
         <v>44170</v>
       </c>
       <c r="G549" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
     </row>
     <row r="550" spans="1:7">
@@ -13745,7 +13820,7 @@
         <v>44170</v>
       </c>
       <c r="G550" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
     </row>
     <row r="551" spans="1:7">
@@ -13768,7 +13843,7 @@
         <v>44170</v>
       </c>
       <c r="G551" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
     </row>
     <row r="552" spans="1:7">
@@ -13791,7 +13866,7 @@
         <v>44170</v>
       </c>
       <c r="G552" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
     </row>
     <row r="553" spans="1:7">
@@ -13814,7 +13889,7 @@
         <v>44170</v>
       </c>
       <c r="G553" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
     </row>
     <row r="554" spans="1:7">
@@ -13837,7 +13912,7 @@
         <v>44171</v>
       </c>
       <c r="G554" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
     </row>
     <row r="555" spans="1:7">
@@ -13860,7 +13935,7 @@
         <v>44171</v>
       </c>
       <c r="G555" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
     </row>
     <row r="556" spans="1:7">
@@ -13883,7 +13958,7 @@
         <v>44171</v>
       </c>
       <c r="G556" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
     </row>
     <row r="557" spans="1:7">
@@ -13906,7 +13981,7 @@
         <v>44171</v>
       </c>
       <c r="G557" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
     </row>
     <row r="558" spans="1:7">
@@ -13929,7 +14004,7 @@
         <v>44171</v>
       </c>
       <c r="G558" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
     </row>
     <row r="559" spans="1:7">
@@ -13952,7 +14027,7 @@
         <v>44171</v>
       </c>
       <c r="G559" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
     </row>
     <row r="560" spans="1:7">
@@ -13975,7 +14050,7 @@
         <v>44171</v>
       </c>
       <c r="G560" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
     </row>
     <row r="561" spans="1:7">
@@ -13998,7 +14073,7 @@
         <v>44171</v>
       </c>
       <c r="G561" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
     </row>
     <row r="562" spans="1:7">
@@ -14021,7 +14096,7 @@
         <v>44171</v>
       </c>
       <c r="G562" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
     </row>
     <row r="563" spans="1:7">
@@ -14044,7 +14119,7 @@
         <v>44171</v>
       </c>
       <c r="G563" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
     </row>
     <row r="564" spans="1:7">
@@ -14067,7 +14142,7 @@
         <v>44171</v>
       </c>
       <c r="G564" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
     </row>
     <row r="565" spans="1:7">
@@ -14090,7 +14165,7 @@
         <v>44171</v>
       </c>
       <c r="G565" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
     </row>
     <row r="566" spans="1:7">
@@ -14113,7 +14188,7 @@
         <v>44171</v>
       </c>
       <c r="G566" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
     </row>
     <row r="567" spans="1:7">
@@ -14136,7 +14211,7 @@
         <v>44171</v>
       </c>
       <c r="G567" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
     </row>
     <row r="568" spans="1:7">
@@ -14159,7 +14234,7 @@
         <v>44171</v>
       </c>
       <c r="G568" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
     </row>
     <row r="569" spans="1:7">
@@ -14182,7 +14257,7 @@
         <v>44171</v>
       </c>
       <c r="G569" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="570" spans="1:7">
@@ -14205,7 +14280,7 @@
         <v>44171</v>
       </c>
       <c r="G570" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="571" spans="1:7">
@@ -14228,7 +14303,7 @@
         <v>44171</v>
       </c>
       <c r="G571" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="572" spans="1:7">
@@ -14251,7 +14326,7 @@
         <v>44171</v>
       </c>
       <c r="G572" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="573" spans="1:7">
@@ -14274,7 +14349,7 @@
         <v>44171</v>
       </c>
       <c r="G573" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="574" spans="1:7">
@@ -14297,7 +14372,7 @@
         <v>44171</v>
       </c>
       <c r="G574" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="575" spans="1:7">
@@ -14320,7 +14395,7 @@
         <v>44171</v>
       </c>
       <c r="G575" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
     </row>
     <row r="576" spans="1:7">
@@ -14343,7 +14418,7 @@
         <v>44171</v>
       </c>
       <c r="G576" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
     </row>
     <row r="577" spans="1:7">
@@ -14366,7 +14441,7 @@
         <v>44171</v>
       </c>
       <c r="G577" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
     </row>
     <row r="578" spans="1:7">
@@ -14389,7 +14464,7 @@
         <v>44171</v>
       </c>
       <c r="G578" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
     </row>
     <row r="579" spans="1:7">
@@ -14412,7 +14487,7 @@
         <v>44171</v>
       </c>
       <c r="G579" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
     </row>
     <row r="580" spans="1:7">
@@ -14435,7 +14510,7 @@
         <v>44171</v>
       </c>
       <c r="G580" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
     </row>
     <row r="581" spans="1:7">
@@ -14458,7 +14533,7 @@
         <v>44171</v>
       </c>
       <c r="G581" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
     </row>
     <row r="582" spans="1:7">
@@ -14481,7 +14556,7 @@
         <v>44171</v>
       </c>
       <c r="G582" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
     </row>
     <row r="583" spans="1:7">
@@ -14504,7 +14579,7 @@
         <v>44171</v>
       </c>
       <c r="G583" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
     </row>
     <row r="584" spans="1:7">
@@ -14527,7 +14602,7 @@
         <v>44171</v>
       </c>
       <c r="G584" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
     </row>
     <row r="585" spans="1:7">
@@ -14550,7 +14625,7 @@
         <v>44171</v>
       </c>
       <c r="G585" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
     </row>
     <row r="586" spans="1:7">
@@ -14573,7 +14648,7 @@
         <v>44171</v>
       </c>
       <c r="G586" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
     </row>
     <row r="587" spans="1:7">
@@ -14596,7 +14671,7 @@
         <v>44178</v>
       </c>
       <c r="G587" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
     </row>
     <row r="588" spans="1:7">
@@ -14619,7 +14694,7 @@
         <v>44178</v>
       </c>
       <c r="G588" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
     </row>
     <row r="589" spans="1:7">
@@ -14642,7 +14717,7 @@
         <v>44178</v>
       </c>
       <c r="G589" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
     </row>
     <row r="590" spans="1:7">
@@ -14665,7 +14740,7 @@
         <v>44178</v>
       </c>
       <c r="G590" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
     </row>
     <row r="591" spans="1:7">
@@ -14688,7 +14763,7 @@
         <v>44178</v>
       </c>
       <c r="G591" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
     </row>
     <row r="592" spans="1:7">
@@ -14711,7 +14786,3319 @@
         <v>44178</v>
       </c>
       <c r="G592" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="593" spans="1:7">
+      <c r="A593" s="1">
+        <v>591</v>
+      </c>
+      <c r="B593">
+        <v>289949</v>
+      </c>
+      <c r="C593" t="s">
+        <v>3</v>
+      </c>
+      <c r="D593">
+        <v>5</v>
+      </c>
+      <c r="E593" t="s">
+        <v>11</v>
+      </c>
+      <c r="F593" s="2">
+        <v>44179</v>
+      </c>
+      <c r="G593" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="594" spans="1:7">
+      <c r="A594" s="1">
+        <v>592</v>
+      </c>
+      <c r="B594">
+        <v>289949</v>
+      </c>
+      <c r="C594" t="s">
+        <v>4</v>
+      </c>
+      <c r="D594">
+        <v>5</v>
+      </c>
+      <c r="E594" t="s">
+        <v>11</v>
+      </c>
+      <c r="F594" s="2">
+        <v>44179</v>
+      </c>
+      <c r="G594" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="595" spans="1:7">
+      <c r="A595" s="1">
+        <v>593</v>
+      </c>
+      <c r="B595">
+        <v>289949</v>
+      </c>
+      <c r="C595" t="s">
+        <v>5</v>
+      </c>
+      <c r="D595">
+        <v>5</v>
+      </c>
+      <c r="E595" t="s">
+        <v>11</v>
+      </c>
+      <c r="F595" s="2">
+        <v>44179</v>
+      </c>
+      <c r="G595" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="596" spans="1:7">
+      <c r="A596" s="1">
+        <v>594</v>
+      </c>
+      <c r="B596">
+        <v>283039</v>
+      </c>
+      <c r="C596" t="s">
+        <v>3</v>
+      </c>
+      <c r="D596">
+        <v>4</v>
+      </c>
+      <c r="E596" t="s">
+        <v>11</v>
+      </c>
+      <c r="F596" s="2">
+        <v>44180</v>
+      </c>
+      <c r="G596" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="597" spans="1:7">
+      <c r="A597" s="1">
+        <v>595</v>
+      </c>
+      <c r="B597">
+        <v>283039</v>
+      </c>
+      <c r="C597" t="s">
+        <v>4</v>
+      </c>
+      <c r="D597">
+        <v>5</v>
+      </c>
+      <c r="E597" t="s">
+        <v>11</v>
+      </c>
+      <c r="F597" s="2">
+        <v>44180</v>
+      </c>
+      <c r="G597" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="598" spans="1:7">
+      <c r="A598" s="1">
+        <v>596</v>
+      </c>
+      <c r="B598">
+        <v>283039</v>
+      </c>
+      <c r="C598" t="s">
+        <v>5</v>
+      </c>
+      <c r="D598">
+        <v>5</v>
+      </c>
+      <c r="E598" t="s">
+        <v>11</v>
+      </c>
+      <c r="F598" s="2">
+        <v>44180</v>
+      </c>
+      <c r="G598" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="599" spans="1:7">
+      <c r="A599" s="1">
+        <v>597</v>
+      </c>
+      <c r="B599">
+        <v>43061</v>
+      </c>
+      <c r="C599" t="s">
+        <v>3</v>
+      </c>
+      <c r="D599">
+        <v>5</v>
+      </c>
+      <c r="E599" t="s">
+        <v>11</v>
+      </c>
+      <c r="F599" s="2">
+        <v>44180</v>
+      </c>
+      <c r="G599" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="600" spans="1:7">
+      <c r="A600" s="1">
+        <v>598</v>
+      </c>
+      <c r="B600">
+        <v>43061</v>
+      </c>
+      <c r="C600" t="s">
+        <v>4</v>
+      </c>
+      <c r="D600">
+        <v>5</v>
+      </c>
+      <c r="E600" t="s">
+        <v>11</v>
+      </c>
+      <c r="F600" s="2">
+        <v>44180</v>
+      </c>
+      <c r="G600" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="601" spans="1:7">
+      <c r="A601" s="1">
+        <v>599</v>
+      </c>
+      <c r="B601">
+        <v>43061</v>
+      </c>
+      <c r="C601" t="s">
+        <v>5</v>
+      </c>
+      <c r="D601">
+        <v>5</v>
+      </c>
+      <c r="E601" t="s">
+        <v>11</v>
+      </c>
+      <c r="F601" s="2">
+        <v>44180</v>
+      </c>
+      <c r="G601" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="602" spans="1:7">
+      <c r="A602" s="1">
+        <v>600</v>
+      </c>
+      <c r="B602">
+        <v>229274</v>
+      </c>
+      <c r="C602" t="s">
+        <v>3</v>
+      </c>
+      <c r="D602">
+        <v>5</v>
+      </c>
+      <c r="E602" t="s">
+        <v>124</v>
+      </c>
+      <c r="F602" s="2">
+        <v>44180</v>
+      </c>
+      <c r="G602" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="603" spans="1:7">
+      <c r="A603" s="1">
+        <v>601</v>
+      </c>
+      <c r="B603">
+        <v>229274</v>
+      </c>
+      <c r="C603" t="s">
+        <v>4</v>
+      </c>
+      <c r="D603">
+        <v>5</v>
+      </c>
+      <c r="E603" t="s">
+        <v>92</v>
+      </c>
+      <c r="F603" s="2">
+        <v>44180</v>
+      </c>
+      <c r="G603" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="604" spans="1:7">
+      <c r="A604" s="1">
+        <v>602</v>
+      </c>
+      <c r="B604">
+        <v>229274</v>
+      </c>
+      <c r="C604" t="s">
+        <v>5</v>
+      </c>
+      <c r="D604">
+        <v>5</v>
+      </c>
+      <c r="E604" t="s">
+        <v>125</v>
+      </c>
+      <c r="F604" s="2">
+        <v>44180</v>
+      </c>
+      <c r="G604" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="605" spans="1:7">
+      <c r="A605" s="1">
+        <v>603</v>
+      </c>
+      <c r="B605">
+        <v>46341</v>
+      </c>
+      <c r="C605" t="s">
+        <v>3</v>
+      </c>
+      <c r="D605">
+        <v>5</v>
+      </c>
+      <c r="E605" t="s">
+        <v>11</v>
+      </c>
+      <c r="F605" s="2">
+        <v>44180</v>
+      </c>
+      <c r="G605" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="606" spans="1:7">
+      <c r="A606" s="1">
+        <v>604</v>
+      </c>
+      <c r="B606">
+        <v>46341</v>
+      </c>
+      <c r="C606" t="s">
+        <v>4</v>
+      </c>
+      <c r="D606">
+        <v>5</v>
+      </c>
+      <c r="E606" t="s">
+        <v>11</v>
+      </c>
+      <c r="F606" s="2">
+        <v>44180</v>
+      </c>
+      <c r="G606" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="607" spans="1:7">
+      <c r="A607" s="1">
+        <v>605</v>
+      </c>
+      <c r="B607">
+        <v>46341</v>
+      </c>
+      <c r="C607" t="s">
+        <v>5</v>
+      </c>
+      <c r="D607">
+        <v>5</v>
+      </c>
+      <c r="E607" t="s">
+        <v>11</v>
+      </c>
+      <c r="F607" s="2">
+        <v>44180</v>
+      </c>
+      <c r="G607" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="608" spans="1:7">
+      <c r="A608" s="1">
+        <v>606</v>
+      </c>
+      <c r="B608">
+        <v>286274</v>
+      </c>
+      <c r="C608" t="s">
+        <v>3</v>
+      </c>
+      <c r="D608">
+        <v>5</v>
+      </c>
+      <c r="E608" t="s">
+        <v>11</v>
+      </c>
+      <c r="F608" s="2">
+        <v>44180</v>
+      </c>
+      <c r="G608" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="609" spans="1:7">
+      <c r="A609" s="1">
+        <v>607</v>
+      </c>
+      <c r="B609">
+        <v>286274</v>
+      </c>
+      <c r="C609" t="s">
+        <v>4</v>
+      </c>
+      <c r="D609">
+        <v>5</v>
+      </c>
+      <c r="E609" t="s">
+        <v>11</v>
+      </c>
+      <c r="F609" s="2">
+        <v>44180</v>
+      </c>
+      <c r="G609" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="610" spans="1:7">
+      <c r="A610" s="1">
+        <v>608</v>
+      </c>
+      <c r="B610">
+        <v>286274</v>
+      </c>
+      <c r="C610" t="s">
+        <v>5</v>
+      </c>
+      <c r="D610">
+        <v>5</v>
+      </c>
+      <c r="E610" t="s">
+        <v>11</v>
+      </c>
+      <c r="F610" s="2">
+        <v>44180</v>
+      </c>
+      <c r="G610" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="611" spans="1:7">
+      <c r="A611" s="1">
+        <v>609</v>
+      </c>
+      <c r="B611">
+        <v>237436</v>
+      </c>
+      <c r="C611" t="s">
+        <v>3</v>
+      </c>
+      <c r="D611">
+        <v>5</v>
+      </c>
+      <c r="E611" t="s">
+        <v>11</v>
+      </c>
+      <c r="F611" s="2">
+        <v>44180</v>
+      </c>
+      <c r="G611" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="612" spans="1:7">
+      <c r="A612" s="1">
+        <v>610</v>
+      </c>
+      <c r="B612">
+        <v>237436</v>
+      </c>
+      <c r="C612" t="s">
+        <v>4</v>
+      </c>
+      <c r="D612">
+        <v>5</v>
+      </c>
+      <c r="E612" t="s">
+        <v>11</v>
+      </c>
+      <c r="F612" s="2">
+        <v>44180</v>
+      </c>
+      <c r="G612" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="613" spans="1:7">
+      <c r="A613" s="1">
+        <v>611</v>
+      </c>
+      <c r="B613">
+        <v>237436</v>
+      </c>
+      <c r="C613" t="s">
+        <v>5</v>
+      </c>
+      <c r="D613">
+        <v>5</v>
+      </c>
+      <c r="E613" t="s">
+        <v>11</v>
+      </c>
+      <c r="F613" s="2">
+        <v>44180</v>
+      </c>
+      <c r="G613" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="614" spans="1:7">
+      <c r="A614" s="1">
+        <v>612</v>
+      </c>
+      <c r="B614">
+        <v>283485</v>
+      </c>
+      <c r="C614" t="s">
+        <v>3</v>
+      </c>
+      <c r="D614">
+        <v>5</v>
+      </c>
+      <c r="E614" t="s">
+        <v>11</v>
+      </c>
+      <c r="F614" s="2">
+        <v>44180</v>
+      </c>
+      <c r="G614" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="615" spans="1:7">
+      <c r="A615" s="1">
+        <v>613</v>
+      </c>
+      <c r="B615">
+        <v>283485</v>
+      </c>
+      <c r="C615" t="s">
+        <v>4</v>
+      </c>
+      <c r="D615">
+        <v>4</v>
+      </c>
+      <c r="E615" t="s">
+        <v>11</v>
+      </c>
+      <c r="F615" s="2">
+        <v>44180</v>
+      </c>
+      <c r="G615" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="616" spans="1:7">
+      <c r="A616" s="1">
+        <v>614</v>
+      </c>
+      <c r="B616">
+        <v>283485</v>
+      </c>
+      <c r="C616" t="s">
+        <v>5</v>
+      </c>
+      <c r="D616">
+        <v>5</v>
+      </c>
+      <c r="E616" t="s">
+        <v>126</v>
+      </c>
+      <c r="F616" s="2">
+        <v>44180</v>
+      </c>
+      <c r="G616" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="617" spans="1:7">
+      <c r="A617" s="1">
+        <v>615</v>
+      </c>
+      <c r="B617">
+        <v>260269</v>
+      </c>
+      <c r="C617" t="s">
+        <v>3</v>
+      </c>
+      <c r="D617">
+        <v>4</v>
+      </c>
+      <c r="E617" t="s">
+        <v>11</v>
+      </c>
+      <c r="F617" s="2">
+        <v>44180</v>
+      </c>
+      <c r="G617" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="618" spans="1:7">
+      <c r="A618" s="1">
+        <v>616</v>
+      </c>
+      <c r="B618">
+        <v>260269</v>
+      </c>
+      <c r="C618" t="s">
+        <v>4</v>
+      </c>
+      <c r="D618">
+        <v>3</v>
+      </c>
+      <c r="E618" t="s">
+        <v>11</v>
+      </c>
+      <c r="F618" s="2">
+        <v>44180</v>
+      </c>
+      <c r="G618" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="619" spans="1:7">
+      <c r="A619" s="1">
+        <v>617</v>
+      </c>
+      <c r="B619">
+        <v>260269</v>
+      </c>
+      <c r="C619" t="s">
+        <v>5</v>
+      </c>
+      <c r="D619">
+        <v>5</v>
+      </c>
+      <c r="E619" t="s">
+        <v>11</v>
+      </c>
+      <c r="F619" s="2">
+        <v>44180</v>
+      </c>
+      <c r="G619" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="620" spans="1:7">
+      <c r="A620" s="1">
+        <v>618</v>
+      </c>
+      <c r="B620">
+        <v>78876</v>
+      </c>
+      <c r="C620" t="s">
+        <v>3</v>
+      </c>
+      <c r="D620">
+        <v>5</v>
+      </c>
+      <c r="E620" t="s">
+        <v>11</v>
+      </c>
+      <c r="F620" s="2">
+        <v>44180</v>
+      </c>
+      <c r="G620" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="621" spans="1:7">
+      <c r="A621" s="1">
+        <v>619</v>
+      </c>
+      <c r="B621">
+        <v>78876</v>
+      </c>
+      <c r="C621" t="s">
+        <v>4</v>
+      </c>
+      <c r="D621">
+        <v>5</v>
+      </c>
+      <c r="E621" t="s">
+        <v>11</v>
+      </c>
+      <c r="F621" s="2">
+        <v>44180</v>
+      </c>
+      <c r="G621" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="622" spans="1:7">
+      <c r="A622" s="1">
+        <v>620</v>
+      </c>
+      <c r="B622">
+        <v>78876</v>
+      </c>
+      <c r="C622" t="s">
+        <v>5</v>
+      </c>
+      <c r="D622">
+        <v>5</v>
+      </c>
+      <c r="E622" t="s">
+        <v>11</v>
+      </c>
+      <c r="F622" s="2">
+        <v>44180</v>
+      </c>
+      <c r="G622" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="623" spans="1:7">
+      <c r="A623" s="1">
+        <v>621</v>
+      </c>
+      <c r="B623">
+        <v>38979</v>
+      </c>
+      <c r="C623" t="s">
+        <v>3</v>
+      </c>
+      <c r="D623">
+        <v>4</v>
+      </c>
+      <c r="E623" t="s">
+        <v>11</v>
+      </c>
+      <c r="F623" s="2">
+        <v>44180</v>
+      </c>
+      <c r="G623" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="624" spans="1:7">
+      <c r="A624" s="1">
+        <v>622</v>
+      </c>
+      <c r="B624">
+        <v>38979</v>
+      </c>
+      <c r="C624" t="s">
+        <v>4</v>
+      </c>
+      <c r="D624">
+        <v>5</v>
+      </c>
+      <c r="E624" t="s">
+        <v>11</v>
+      </c>
+      <c r="F624" s="2">
+        <v>44180</v>
+      </c>
+      <c r="G624" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="625" spans="1:7">
+      <c r="A625" s="1">
+        <v>623</v>
+      </c>
+      <c r="B625">
+        <v>38979</v>
+      </c>
+      <c r="C625" t="s">
+        <v>5</v>
+      </c>
+      <c r="D625">
+        <v>5</v>
+      </c>
+      <c r="E625" t="s">
+        <v>11</v>
+      </c>
+      <c r="F625" s="2">
+        <v>44180</v>
+      </c>
+      <c r="G625" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="626" spans="1:7">
+      <c r="A626" s="1">
+        <v>624</v>
+      </c>
+      <c r="B626">
+        <v>248266</v>
+      </c>
+      <c r="C626" t="s">
+        <v>3</v>
+      </c>
+      <c r="D626">
+        <v>5</v>
+      </c>
+      <c r="E626" t="s">
+        <v>11</v>
+      </c>
+      <c r="F626" s="2">
+        <v>44180</v>
+      </c>
+      <c r="G626" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="627" spans="1:7">
+      <c r="A627" s="1">
+        <v>625</v>
+      </c>
+      <c r="B627">
+        <v>248266</v>
+      </c>
+      <c r="C627" t="s">
+        <v>4</v>
+      </c>
+      <c r="D627">
+        <v>5</v>
+      </c>
+      <c r="E627" t="s">
+        <v>11</v>
+      </c>
+      <c r="F627" s="2">
+        <v>44180</v>
+      </c>
+      <c r="G627" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="628" spans="1:7">
+      <c r="A628" s="1">
+        <v>626</v>
+      </c>
+      <c r="B628">
+        <v>248266</v>
+      </c>
+      <c r="C628" t="s">
+        <v>5</v>
+      </c>
+      <c r="D628">
+        <v>5</v>
+      </c>
+      <c r="E628" t="s">
+        <v>11</v>
+      </c>
+      <c r="F628" s="2">
+        <v>44180</v>
+      </c>
+      <c r="G628" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="629" spans="1:7">
+      <c r="A629" s="1">
+        <v>627</v>
+      </c>
+      <c r="B629">
+        <v>155125</v>
+      </c>
+      <c r="C629" t="s">
+        <v>3</v>
+      </c>
+      <c r="D629">
+        <v>5</v>
+      </c>
+      <c r="E629" t="s">
+        <v>11</v>
+      </c>
+      <c r="F629" s="2">
+        <v>44180</v>
+      </c>
+      <c r="G629" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="630" spans="1:7">
+      <c r="A630" s="1">
+        <v>628</v>
+      </c>
+      <c r="B630">
+        <v>155125</v>
+      </c>
+      <c r="C630" t="s">
+        <v>4</v>
+      </c>
+      <c r="D630">
+        <v>5</v>
+      </c>
+      <c r="E630" t="s">
+        <v>11</v>
+      </c>
+      <c r="F630" s="2">
+        <v>44180</v>
+      </c>
+      <c r="G630" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="631" spans="1:7">
+      <c r="A631" s="1">
+        <v>629</v>
+      </c>
+      <c r="B631">
+        <v>155125</v>
+      </c>
+      <c r="C631" t="s">
+        <v>5</v>
+      </c>
+      <c r="D631">
+        <v>5</v>
+      </c>
+      <c r="E631" t="s">
+        <v>11</v>
+      </c>
+      <c r="F631" s="2">
+        <v>44180</v>
+      </c>
+      <c r="G631" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="632" spans="1:7">
+      <c r="A632" s="1">
+        <v>630</v>
+      </c>
+      <c r="B632">
+        <v>29269</v>
+      </c>
+      <c r="C632" t="s">
+        <v>3</v>
+      </c>
+      <c r="D632">
+        <v>5</v>
+      </c>
+      <c r="E632" t="s">
+        <v>11</v>
+      </c>
+      <c r="F632" s="2">
+        <v>44180</v>
+      </c>
+      <c r="G632" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="633" spans="1:7">
+      <c r="A633" s="1">
+        <v>631</v>
+      </c>
+      <c r="B633">
+        <v>29269</v>
+      </c>
+      <c r="C633" t="s">
+        <v>4</v>
+      </c>
+      <c r="D633">
+        <v>4</v>
+      </c>
+      <c r="E633" t="s">
+        <v>11</v>
+      </c>
+      <c r="F633" s="2">
+        <v>44180</v>
+      </c>
+      <c r="G633" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="634" spans="1:7">
+      <c r="A634" s="1">
+        <v>632</v>
+      </c>
+      <c r="B634">
+        <v>29269</v>
+      </c>
+      <c r="C634" t="s">
+        <v>5</v>
+      </c>
+      <c r="D634">
+        <v>5</v>
+      </c>
+      <c r="E634" t="s">
+        <v>11</v>
+      </c>
+      <c r="F634" s="2">
+        <v>44180</v>
+      </c>
+      <c r="G634" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="635" spans="1:7">
+      <c r="A635" s="1">
+        <v>633</v>
+      </c>
+      <c r="B635">
+        <v>96864</v>
+      </c>
+      <c r="C635" t="s">
+        <v>3</v>
+      </c>
+      <c r="D635">
+        <v>5</v>
+      </c>
+      <c r="E635" t="s">
+        <v>11</v>
+      </c>
+      <c r="F635" s="2">
+        <v>44180</v>
+      </c>
+      <c r="G635" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="636" spans="1:7">
+      <c r="A636" s="1">
+        <v>634</v>
+      </c>
+      <c r="B636">
+        <v>96864</v>
+      </c>
+      <c r="C636" t="s">
+        <v>4</v>
+      </c>
+      <c r="D636">
+        <v>5</v>
+      </c>
+      <c r="E636" t="s">
+        <v>11</v>
+      </c>
+      <c r="F636" s="2">
+        <v>44180</v>
+      </c>
+      <c r="G636" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="637" spans="1:7">
+      <c r="A637" s="1">
+        <v>635</v>
+      </c>
+      <c r="B637">
+        <v>96864</v>
+      </c>
+      <c r="C637" t="s">
+        <v>5</v>
+      </c>
+      <c r="D637">
+        <v>5</v>
+      </c>
+      <c r="E637" t="s">
+        <v>11</v>
+      </c>
+      <c r="F637" s="2">
+        <v>44180</v>
+      </c>
+      <c r="G637" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="638" spans="1:7">
+      <c r="A638" s="1">
+        <v>636</v>
+      </c>
+      <c r="B638">
+        <v>38692</v>
+      </c>
+      <c r="C638" t="s">
+        <v>3</v>
+      </c>
+      <c r="D638">
+        <v>5</v>
+      </c>
+      <c r="E638" t="s">
+        <v>11</v>
+      </c>
+      <c r="F638" s="2">
+        <v>44180</v>
+      </c>
+      <c r="G638" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="639" spans="1:7">
+      <c r="A639" s="1">
+        <v>637</v>
+      </c>
+      <c r="B639">
+        <v>38692</v>
+      </c>
+      <c r="C639" t="s">
+        <v>4</v>
+      </c>
+      <c r="D639">
+        <v>5</v>
+      </c>
+      <c r="E639" t="s">
+        <v>11</v>
+      </c>
+      <c r="F639" s="2">
+        <v>44180</v>
+      </c>
+      <c r="G639" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="640" spans="1:7">
+      <c r="A640" s="1">
+        <v>638</v>
+      </c>
+      <c r="B640">
+        <v>38692</v>
+      </c>
+      <c r="C640" t="s">
+        <v>5</v>
+      </c>
+      <c r="D640">
+        <v>5</v>
+      </c>
+      <c r="E640" t="s">
+        <v>11</v>
+      </c>
+      <c r="F640" s="2">
+        <v>44180</v>
+      </c>
+      <c r="G640" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="641" spans="1:7">
+      <c r="A641" s="1">
+        <v>639</v>
+      </c>
+      <c r="B641">
+        <v>19776</v>
+      </c>
+      <c r="C641" t="s">
+        <v>3</v>
+      </c>
+      <c r="D641">
+        <v>5</v>
+      </c>
+      <c r="E641" t="s">
+        <v>11</v>
+      </c>
+      <c r="F641" s="2">
+        <v>44180</v>
+      </c>
+      <c r="G641" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="642" spans="1:7">
+      <c r="A642" s="1">
+        <v>640</v>
+      </c>
+      <c r="B642">
+        <v>19776</v>
+      </c>
+      <c r="C642" t="s">
+        <v>4</v>
+      </c>
+      <c r="D642">
+        <v>5</v>
+      </c>
+      <c r="E642" t="s">
+        <v>11</v>
+      </c>
+      <c r="F642" s="2">
+        <v>44180</v>
+      </c>
+      <c r="G642" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="643" spans="1:7">
+      <c r="A643" s="1">
+        <v>641</v>
+      </c>
+      <c r="B643">
+        <v>19776</v>
+      </c>
+      <c r="C643" t="s">
+        <v>5</v>
+      </c>
+      <c r="D643">
+        <v>5</v>
+      </c>
+      <c r="E643" t="s">
+        <v>11</v>
+      </c>
+      <c r="F643" s="2">
+        <v>44180</v>
+      </c>
+      <c r="G643" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="644" spans="1:7">
+      <c r="A644" s="1">
+        <v>642</v>
+      </c>
+      <c r="B644">
+        <v>142822</v>
+      </c>
+      <c r="C644" t="s">
+        <v>3</v>
+      </c>
+      <c r="D644">
+        <v>5</v>
+      </c>
+      <c r="E644" t="s">
+        <v>11</v>
+      </c>
+      <c r="F644" s="2">
+        <v>44180</v>
+      </c>
+      <c r="G644" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="645" spans="1:7">
+      <c r="A645" s="1">
+        <v>643</v>
+      </c>
+      <c r="B645">
+        <v>142822</v>
+      </c>
+      <c r="C645" t="s">
+        <v>4</v>
+      </c>
+      <c r="D645">
+        <v>5</v>
+      </c>
+      <c r="E645" t="s">
+        <v>11</v>
+      </c>
+      <c r="F645" s="2">
+        <v>44180</v>
+      </c>
+      <c r="G645" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="646" spans="1:7">
+      <c r="A646" s="1">
+        <v>644</v>
+      </c>
+      <c r="B646">
+        <v>142822</v>
+      </c>
+      <c r="C646" t="s">
+        <v>5</v>
+      </c>
+      <c r="D646">
+        <v>5</v>
+      </c>
+      <c r="E646" t="s">
+        <v>11</v>
+      </c>
+      <c r="F646" s="2">
+        <v>44180</v>
+      </c>
+      <c r="G646" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="647" spans="1:7">
+      <c r="A647" s="1">
+        <v>645</v>
+      </c>
+      <c r="B647">
+        <v>37505</v>
+      </c>
+      <c r="C647" t="s">
+        <v>3</v>
+      </c>
+      <c r="D647">
+        <v>5</v>
+      </c>
+      <c r="E647" t="s">
+        <v>11</v>
+      </c>
+      <c r="F647" s="2">
+        <v>44180</v>
+      </c>
+      <c r="G647" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="648" spans="1:7">
+      <c r="A648" s="1">
+        <v>646</v>
+      </c>
+      <c r="B648">
+        <v>37505</v>
+      </c>
+      <c r="C648" t="s">
+        <v>4</v>
+      </c>
+      <c r="D648">
+        <v>5</v>
+      </c>
+      <c r="E648" t="s">
+        <v>127</v>
+      </c>
+      <c r="F648" s="2">
+        <v>44180</v>
+      </c>
+      <c r="G648" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="649" spans="1:7">
+      <c r="A649" s="1">
+        <v>647</v>
+      </c>
+      <c r="B649">
+        <v>37505</v>
+      </c>
+      <c r="C649" t="s">
+        <v>5</v>
+      </c>
+      <c r="D649">
+        <v>5</v>
+      </c>
+      <c r="E649" t="s">
+        <v>11</v>
+      </c>
+      <c r="F649" s="2">
+        <v>44180</v>
+      </c>
+      <c r="G649" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="650" spans="1:7">
+      <c r="A650" s="1">
+        <v>648</v>
+      </c>
+      <c r="B650">
+        <v>186490</v>
+      </c>
+      <c r="C650" t="s">
+        <v>3</v>
+      </c>
+      <c r="D650">
+        <v>5</v>
+      </c>
+      <c r="E650" t="s">
+        <v>11</v>
+      </c>
+      <c r="F650" s="2">
+        <v>44180</v>
+      </c>
+      <c r="G650" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="651" spans="1:7">
+      <c r="A651" s="1">
+        <v>649</v>
+      </c>
+      <c r="B651">
+        <v>186490</v>
+      </c>
+      <c r="C651" t="s">
+        <v>4</v>
+      </c>
+      <c r="D651">
+        <v>5</v>
+      </c>
+      <c r="E651" t="s">
+        <v>11</v>
+      </c>
+      <c r="F651" s="2">
+        <v>44180</v>
+      </c>
+      <c r="G651" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="652" spans="1:7">
+      <c r="A652" s="1">
+        <v>650</v>
+      </c>
+      <c r="B652">
+        <v>186490</v>
+      </c>
+      <c r="C652" t="s">
+        <v>5</v>
+      </c>
+      <c r="D652">
+        <v>5</v>
+      </c>
+      <c r="E652" t="s">
+        <v>11</v>
+      </c>
+      <c r="F652" s="2">
+        <v>44180</v>
+      </c>
+      <c r="G652" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="653" spans="1:7">
+      <c r="A653" s="1">
+        <v>651</v>
+      </c>
+      <c r="B653">
+        <v>251900</v>
+      </c>
+      <c r="C653" t="s">
+        <v>3</v>
+      </c>
+      <c r="D653">
+        <v>5</v>
+      </c>
+      <c r="E653" t="s">
+        <v>11</v>
+      </c>
+      <c r="F653" s="2">
+        <v>44180</v>
+      </c>
+      <c r="G653" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="654" spans="1:7">
+      <c r="A654" s="1">
+        <v>652</v>
+      </c>
+      <c r="B654">
+        <v>251900</v>
+      </c>
+      <c r="C654" t="s">
+        <v>4</v>
+      </c>
+      <c r="D654">
+        <v>5</v>
+      </c>
+      <c r="E654" t="s">
+        <v>11</v>
+      </c>
+      <c r="F654" s="2">
+        <v>44180</v>
+      </c>
+      <c r="G654" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="655" spans="1:7">
+      <c r="A655" s="1">
+        <v>653</v>
+      </c>
+      <c r="B655">
+        <v>251900</v>
+      </c>
+      <c r="C655" t="s">
+        <v>5</v>
+      </c>
+      <c r="D655">
+        <v>5</v>
+      </c>
+      <c r="E655" t="s">
+        <v>11</v>
+      </c>
+      <c r="F655" s="2">
+        <v>44180</v>
+      </c>
+      <c r="G655" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="656" spans="1:7">
+      <c r="A656" s="1">
+        <v>654</v>
+      </c>
+      <c r="B656">
+        <v>250468</v>
+      </c>
+      <c r="C656" t="s">
+        <v>3</v>
+      </c>
+      <c r="D656">
+        <v>5</v>
+      </c>
+      <c r="E656" t="s">
+        <v>11</v>
+      </c>
+      <c r="F656" s="2">
+        <v>44180</v>
+      </c>
+      <c r="G656" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="657" spans="1:7">
+      <c r="A657" s="1">
+        <v>655</v>
+      </c>
+      <c r="B657">
+        <v>250468</v>
+      </c>
+      <c r="C657" t="s">
+        <v>4</v>
+      </c>
+      <c r="D657">
+        <v>5</v>
+      </c>
+      <c r="E657" t="s">
+        <v>11</v>
+      </c>
+      <c r="F657" s="2">
+        <v>44180</v>
+      </c>
+      <c r="G657" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="658" spans="1:7">
+      <c r="A658" s="1">
+        <v>656</v>
+      </c>
+      <c r="B658">
+        <v>250468</v>
+      </c>
+      <c r="C658" t="s">
+        <v>5</v>
+      </c>
+      <c r="D658">
+        <v>5</v>
+      </c>
+      <c r="E658" t="s">
+        <v>11</v>
+      </c>
+      <c r="F658" s="2">
+        <v>44180</v>
+      </c>
+      <c r="G658" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="659" spans="1:7">
+      <c r="A659" s="1">
+        <v>657</v>
+      </c>
+      <c r="B659">
+        <v>279079</v>
+      </c>
+      <c r="C659" t="s">
+        <v>3</v>
+      </c>
+      <c r="D659">
+        <v>5</v>
+      </c>
+      <c r="E659" t="s">
+        <v>128</v>
+      </c>
+      <c r="F659" s="2">
+        <v>44180</v>
+      </c>
+      <c r="G659" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="660" spans="1:7">
+      <c r="A660" s="1">
+        <v>658</v>
+      </c>
+      <c r="B660">
+        <v>279079</v>
+      </c>
+      <c r="C660" t="s">
+        <v>4</v>
+      </c>
+      <c r="D660">
+        <v>4</v>
+      </c>
+      <c r="E660" t="s">
+        <v>11</v>
+      </c>
+      <c r="F660" s="2">
+        <v>44180</v>
+      </c>
+      <c r="G660" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="661" spans="1:7">
+      <c r="A661" s="1">
+        <v>659</v>
+      </c>
+      <c r="B661">
+        <v>279079</v>
+      </c>
+      <c r="C661" t="s">
+        <v>5</v>
+      </c>
+      <c r="D661">
+        <v>5</v>
+      </c>
+      <c r="E661" t="s">
+        <v>11</v>
+      </c>
+      <c r="F661" s="2">
+        <v>44180</v>
+      </c>
+      <c r="G661" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="662" spans="1:7">
+      <c r="A662" s="1">
+        <v>660</v>
+      </c>
+      <c r="B662">
+        <v>67045</v>
+      </c>
+      <c r="C662" t="s">
+        <v>3</v>
+      </c>
+      <c r="D662">
+        <v>5</v>
+      </c>
+      <c r="E662" t="s">
+        <v>11</v>
+      </c>
+      <c r="F662" s="2">
+        <v>44180</v>
+      </c>
+      <c r="G662" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="663" spans="1:7">
+      <c r="A663" s="1">
+        <v>661</v>
+      </c>
+      <c r="B663">
+        <v>67045</v>
+      </c>
+      <c r="C663" t="s">
+        <v>4</v>
+      </c>
+      <c r="D663">
+        <v>4</v>
+      </c>
+      <c r="E663" t="s">
+        <v>129</v>
+      </c>
+      <c r="F663" s="2">
+        <v>44180</v>
+      </c>
+      <c r="G663" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="664" spans="1:7">
+      <c r="A664" s="1">
+        <v>662</v>
+      </c>
+      <c r="B664">
+        <v>67045</v>
+      </c>
+      <c r="C664" t="s">
+        <v>5</v>
+      </c>
+      <c r="D664">
+        <v>5</v>
+      </c>
+      <c r="E664" t="s">
+        <v>130</v>
+      </c>
+      <c r="F664" s="2">
+        <v>44180</v>
+      </c>
+      <c r="G664" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="665" spans="1:7">
+      <c r="A665" s="1">
+        <v>663</v>
+      </c>
+      <c r="B665">
+        <v>196114</v>
+      </c>
+      <c r="C665" t="s">
+        <v>3</v>
+      </c>
+      <c r="D665">
+        <v>5</v>
+      </c>
+      <c r="E665" t="s">
+        <v>11</v>
+      </c>
+      <c r="F665" s="2">
+        <v>44180</v>
+      </c>
+      <c r="G665" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="666" spans="1:7">
+      <c r="A666" s="1">
+        <v>664</v>
+      </c>
+      <c r="B666">
+        <v>196114</v>
+      </c>
+      <c r="C666" t="s">
+        <v>4</v>
+      </c>
+      <c r="D666">
+        <v>5</v>
+      </c>
+      <c r="E666" t="s">
+        <v>11</v>
+      </c>
+      <c r="F666" s="2">
+        <v>44180</v>
+      </c>
+      <c r="G666" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="667" spans="1:7">
+      <c r="A667" s="1">
+        <v>665</v>
+      </c>
+      <c r="B667">
+        <v>196114</v>
+      </c>
+      <c r="C667" t="s">
+        <v>5</v>
+      </c>
+      <c r="D667">
+        <v>5</v>
+      </c>
+      <c r="E667" t="s">
+        <v>11</v>
+      </c>
+      <c r="F667" s="2">
+        <v>44180</v>
+      </c>
+      <c r="G667" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="668" spans="1:7">
+      <c r="A668" s="1">
+        <v>666</v>
+      </c>
+      <c r="B668">
+        <v>88657</v>
+      </c>
+      <c r="C668" t="s">
+        <v>3</v>
+      </c>
+      <c r="D668">
+        <v>5</v>
+      </c>
+      <c r="E668" t="s">
+        <v>11</v>
+      </c>
+      <c r="F668" s="2">
+        <v>44180</v>
+      </c>
+      <c r="G668" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="669" spans="1:7">
+      <c r="A669" s="1">
+        <v>667</v>
+      </c>
+      <c r="B669">
+        <v>88657</v>
+      </c>
+      <c r="C669" t="s">
+        <v>4</v>
+      </c>
+      <c r="D669">
+        <v>5</v>
+      </c>
+      <c r="E669" t="s">
+        <v>11</v>
+      </c>
+      <c r="F669" s="2">
+        <v>44180</v>
+      </c>
+      <c r="G669" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="670" spans="1:7">
+      <c r="A670" s="1">
+        <v>668</v>
+      </c>
+      <c r="B670">
+        <v>88657</v>
+      </c>
+      <c r="C670" t="s">
+        <v>5</v>
+      </c>
+      <c r="D670">
+        <v>5</v>
+      </c>
+      <c r="E670" t="s">
+        <v>11</v>
+      </c>
+      <c r="F670" s="2">
+        <v>44180</v>
+      </c>
+      <c r="G670" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="671" spans="1:7">
+      <c r="A671" s="1">
+        <v>669</v>
+      </c>
+      <c r="B671">
+        <v>296548</v>
+      </c>
+      <c r="C671" t="s">
+        <v>3</v>
+      </c>
+      <c r="D671">
+        <v>5</v>
+      </c>
+      <c r="E671" t="s">
+        <v>11</v>
+      </c>
+      <c r="F671" s="2">
+        <v>44180</v>
+      </c>
+      <c r="G671" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="672" spans="1:7">
+      <c r="A672" s="1">
+        <v>670</v>
+      </c>
+      <c r="B672">
+        <v>296548</v>
+      </c>
+      <c r="C672" t="s">
+        <v>4</v>
+      </c>
+      <c r="D672">
+        <v>5</v>
+      </c>
+      <c r="E672" t="s">
+        <v>11</v>
+      </c>
+      <c r="F672" s="2">
+        <v>44180</v>
+      </c>
+      <c r="G672" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="673" spans="1:7">
+      <c r="A673" s="1">
+        <v>671</v>
+      </c>
+      <c r="B673">
+        <v>296548</v>
+      </c>
+      <c r="C673" t="s">
+        <v>5</v>
+      </c>
+      <c r="D673">
+        <v>5</v>
+      </c>
+      <c r="E673" t="s">
+        <v>11</v>
+      </c>
+      <c r="F673" s="2">
+        <v>44180</v>
+      </c>
+      <c r="G673" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="674" spans="1:7">
+      <c r="A674" s="1">
+        <v>672</v>
+      </c>
+      <c r="B674">
+        <v>224840</v>
+      </c>
+      <c r="C674" t="s">
+        <v>3</v>
+      </c>
+      <c r="D674">
+        <v>5</v>
+      </c>
+      <c r="E674" t="s">
+        <v>11</v>
+      </c>
+      <c r="F674" s="2">
+        <v>44180</v>
+      </c>
+      <c r="G674" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="675" spans="1:7">
+      <c r="A675" s="1">
+        <v>673</v>
+      </c>
+      <c r="B675">
+        <v>224840</v>
+      </c>
+      <c r="C675" t="s">
+        <v>4</v>
+      </c>
+      <c r="D675">
+        <v>5</v>
+      </c>
+      <c r="E675" t="s">
+        <v>11</v>
+      </c>
+      <c r="F675" s="2">
+        <v>44180</v>
+      </c>
+      <c r="G675" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="676" spans="1:7">
+      <c r="A676" s="1">
+        <v>674</v>
+      </c>
+      <c r="B676">
+        <v>224840</v>
+      </c>
+      <c r="C676" t="s">
+        <v>5</v>
+      </c>
+      <c r="D676">
+        <v>5</v>
+      </c>
+      <c r="E676" t="s">
+        <v>11</v>
+      </c>
+      <c r="F676" s="2">
+        <v>44180</v>
+      </c>
+      <c r="G676" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="677" spans="1:7">
+      <c r="A677" s="1">
+        <v>675</v>
+      </c>
+      <c r="B677">
+        <v>27108</v>
+      </c>
+      <c r="C677" t="s">
+        <v>3</v>
+      </c>
+      <c r="D677">
+        <v>5</v>
+      </c>
+      <c r="E677" t="s">
+        <v>11</v>
+      </c>
+      <c r="F677" s="2">
+        <v>44180</v>
+      </c>
+      <c r="G677" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="678" spans="1:7">
+      <c r="A678" s="1">
+        <v>676</v>
+      </c>
+      <c r="B678">
+        <v>27108</v>
+      </c>
+      <c r="C678" t="s">
+        <v>4</v>
+      </c>
+      <c r="D678">
+        <v>5</v>
+      </c>
+      <c r="E678" t="s">
+        <v>11</v>
+      </c>
+      <c r="F678" s="2">
+        <v>44180</v>
+      </c>
+      <c r="G678" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="679" spans="1:7">
+      <c r="A679" s="1">
+        <v>677</v>
+      </c>
+      <c r="B679">
+        <v>27108</v>
+      </c>
+      <c r="C679" t="s">
+        <v>5</v>
+      </c>
+      <c r="D679">
+        <v>5</v>
+      </c>
+      <c r="E679" t="s">
+        <v>11</v>
+      </c>
+      <c r="F679" s="2">
+        <v>44180</v>
+      </c>
+      <c r="G679" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="680" spans="1:7">
+      <c r="A680" s="1">
+        <v>678</v>
+      </c>
+      <c r="B680">
+        <v>272121</v>
+      </c>
+      <c r="C680" t="s">
+        <v>3</v>
+      </c>
+      <c r="D680">
+        <v>5</v>
+      </c>
+      <c r="E680" t="s">
+        <v>131</v>
+      </c>
+      <c r="F680" s="2">
+        <v>44180</v>
+      </c>
+      <c r="G680" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="681" spans="1:7">
+      <c r="A681" s="1">
+        <v>679</v>
+      </c>
+      <c r="B681">
+        <v>272121</v>
+      </c>
+      <c r="C681" t="s">
+        <v>4</v>
+      </c>
+      <c r="D681">
+        <v>5</v>
+      </c>
+      <c r="E681" t="s">
+        <v>11</v>
+      </c>
+      <c r="F681" s="2">
+        <v>44180</v>
+      </c>
+      <c r="G681" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="682" spans="1:7">
+      <c r="A682" s="1">
+        <v>680</v>
+      </c>
+      <c r="B682">
+        <v>272121</v>
+      </c>
+      <c r="C682" t="s">
+        <v>5</v>
+      </c>
+      <c r="D682">
+        <v>5</v>
+      </c>
+      <c r="E682" t="s">
+        <v>11</v>
+      </c>
+      <c r="F682" s="2">
+        <v>44180</v>
+      </c>
+      <c r="G682" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="683" spans="1:7">
+      <c r="A683" s="1">
+        <v>681</v>
+      </c>
+      <c r="B683">
+        <v>251509</v>
+      </c>
+      <c r="C683" t="s">
+        <v>3</v>
+      </c>
+      <c r="D683">
+        <v>5</v>
+      </c>
+      <c r="E683" t="s">
+        <v>11</v>
+      </c>
+      <c r="F683" s="2">
+        <v>44180</v>
+      </c>
+      <c r="G683" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="684" spans="1:7">
+      <c r="A684" s="1">
+        <v>682</v>
+      </c>
+      <c r="B684">
+        <v>251509</v>
+      </c>
+      <c r="C684" t="s">
+        <v>4</v>
+      </c>
+      <c r="D684">
+        <v>5</v>
+      </c>
+      <c r="E684" t="s">
+        <v>11</v>
+      </c>
+      <c r="F684" s="2">
+        <v>44180</v>
+      </c>
+      <c r="G684" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="685" spans="1:7">
+      <c r="A685" s="1">
+        <v>683</v>
+      </c>
+      <c r="B685">
+        <v>251509</v>
+      </c>
+      <c r="C685" t="s">
+        <v>5</v>
+      </c>
+      <c r="D685">
+        <v>5</v>
+      </c>
+      <c r="E685" t="s">
+        <v>11</v>
+      </c>
+      <c r="F685" s="2">
+        <v>44180</v>
+      </c>
+      <c r="G685" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="686" spans="1:7">
+      <c r="A686" s="1">
+        <v>684</v>
+      </c>
+      <c r="B686">
+        <v>101839</v>
+      </c>
+      <c r="C686" t="s">
+        <v>3</v>
+      </c>
+      <c r="D686">
+        <v>5</v>
+      </c>
+      <c r="E686" t="s">
+        <v>11</v>
+      </c>
+      <c r="F686" s="2">
+        <v>44180</v>
+      </c>
+      <c r="G686" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="687" spans="1:7">
+      <c r="A687" s="1">
+        <v>685</v>
+      </c>
+      <c r="B687">
+        <v>101839</v>
+      </c>
+      <c r="C687" t="s">
+        <v>4</v>
+      </c>
+      <c r="D687">
+        <v>5</v>
+      </c>
+      <c r="E687" t="s">
+        <v>11</v>
+      </c>
+      <c r="F687" s="2">
+        <v>44180</v>
+      </c>
+      <c r="G687" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="688" spans="1:7">
+      <c r="A688" s="1">
+        <v>686</v>
+      </c>
+      <c r="B688">
+        <v>101839</v>
+      </c>
+      <c r="C688" t="s">
+        <v>5</v>
+      </c>
+      <c r="D688">
+        <v>5</v>
+      </c>
+      <c r="E688" t="s">
+        <v>11</v>
+      </c>
+      <c r="F688" s="2">
+        <v>44180</v>
+      </c>
+      <c r="G688" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="689" spans="1:7">
+      <c r="A689" s="1">
+        <v>687</v>
+      </c>
+      <c r="B689">
+        <v>24668</v>
+      </c>
+      <c r="C689" t="s">
+        <v>3</v>
+      </c>
+      <c r="D689">
+        <v>5</v>
+      </c>
+      <c r="E689" t="s">
+        <v>11</v>
+      </c>
+      <c r="F689" s="2">
+        <v>44180</v>
+      </c>
+      <c r="G689" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="690" spans="1:7">
+      <c r="A690" s="1">
+        <v>688</v>
+      </c>
+      <c r="B690">
+        <v>24668</v>
+      </c>
+      <c r="C690" t="s">
+        <v>4</v>
+      </c>
+      <c r="D690">
+        <v>5</v>
+      </c>
+      <c r="E690" t="s">
+        <v>11</v>
+      </c>
+      <c r="F690" s="2">
+        <v>44180</v>
+      </c>
+      <c r="G690" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="691" spans="1:7">
+      <c r="A691" s="1">
+        <v>689</v>
+      </c>
+      <c r="B691">
+        <v>24668</v>
+      </c>
+      <c r="C691" t="s">
+        <v>5</v>
+      </c>
+      <c r="D691">
+        <v>5</v>
+      </c>
+      <c r="E691" t="s">
+        <v>11</v>
+      </c>
+      <c r="F691" s="2">
+        <v>44180</v>
+      </c>
+      <c r="G691" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="692" spans="1:7">
+      <c r="A692" s="1">
+        <v>690</v>
+      </c>
+      <c r="B692">
+        <v>92262</v>
+      </c>
+      <c r="C692" t="s">
+        <v>3</v>
+      </c>
+      <c r="D692">
+        <v>4</v>
+      </c>
+      <c r="E692" t="s">
+        <v>11</v>
+      </c>
+      <c r="F692" s="2">
+        <v>44180</v>
+      </c>
+      <c r="G692" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="693" spans="1:7">
+      <c r="A693" s="1">
+        <v>691</v>
+      </c>
+      <c r="B693">
+        <v>92262</v>
+      </c>
+      <c r="C693" t="s">
+        <v>4</v>
+      </c>
+      <c r="D693">
+        <v>4</v>
+      </c>
+      <c r="E693" t="s">
+        <v>11</v>
+      </c>
+      <c r="F693" s="2">
+        <v>44180</v>
+      </c>
+      <c r="G693" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="694" spans="1:7">
+      <c r="A694" s="1">
+        <v>692</v>
+      </c>
+      <c r="B694">
+        <v>92262</v>
+      </c>
+      <c r="C694" t="s">
+        <v>5</v>
+      </c>
+      <c r="D694">
+        <v>4</v>
+      </c>
+      <c r="E694" t="s">
+        <v>11</v>
+      </c>
+      <c r="F694" s="2">
+        <v>44180</v>
+      </c>
+      <c r="G694" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="695" spans="1:7">
+      <c r="A695" s="1">
+        <v>693</v>
+      </c>
+      <c r="B695">
+        <v>119972</v>
+      </c>
+      <c r="C695" t="s">
+        <v>3</v>
+      </c>
+      <c r="D695">
+        <v>5</v>
+      </c>
+      <c r="E695" t="s">
+        <v>11</v>
+      </c>
+      <c r="F695" s="2">
+        <v>44180</v>
+      </c>
+      <c r="G695" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="696" spans="1:7">
+      <c r="A696" s="1">
+        <v>694</v>
+      </c>
+      <c r="B696">
+        <v>119972</v>
+      </c>
+      <c r="C696" t="s">
+        <v>4</v>
+      </c>
+      <c r="D696">
+        <v>5</v>
+      </c>
+      <c r="E696" t="s">
+        <v>11</v>
+      </c>
+      <c r="F696" s="2">
+        <v>44180</v>
+      </c>
+      <c r="G696" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="697" spans="1:7">
+      <c r="A697" s="1">
+        <v>695</v>
+      </c>
+      <c r="B697">
+        <v>119972</v>
+      </c>
+      <c r="C697" t="s">
+        <v>5</v>
+      </c>
+      <c r="D697">
+        <v>5</v>
+      </c>
+      <c r="E697" t="s">
+        <v>11</v>
+      </c>
+      <c r="F697" s="2">
+        <v>44180</v>
+      </c>
+      <c r="G697" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="698" spans="1:7">
+      <c r="A698" s="1">
+        <v>696</v>
+      </c>
+      <c r="B698">
+        <v>217522</v>
+      </c>
+      <c r="C698" t="s">
+        <v>3</v>
+      </c>
+      <c r="D698">
+        <v>5</v>
+      </c>
+      <c r="E698" t="s">
+        <v>132</v>
+      </c>
+      <c r="F698" s="2">
+        <v>44180</v>
+      </c>
+      <c r="G698" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="699" spans="1:7">
+      <c r="A699" s="1">
+        <v>697</v>
+      </c>
+      <c r="B699">
+        <v>217522</v>
+      </c>
+      <c r="C699" t="s">
+        <v>4</v>
+      </c>
+      <c r="D699">
+        <v>5</v>
+      </c>
+      <c r="E699" t="s">
+        <v>132</v>
+      </c>
+      <c r="F699" s="2">
+        <v>44180</v>
+      </c>
+      <c r="G699" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="700" spans="1:7">
+      <c r="A700" s="1">
+        <v>698</v>
+      </c>
+      <c r="B700">
+        <v>217522</v>
+      </c>
+      <c r="C700" t="s">
+        <v>5</v>
+      </c>
+      <c r="D700">
+        <v>5</v>
+      </c>
+      <c r="E700" t="s">
+        <v>32</v>
+      </c>
+      <c r="F700" s="2">
+        <v>44180</v>
+      </c>
+      <c r="G700" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="701" spans="1:7">
+      <c r="A701" s="1">
+        <v>699</v>
+      </c>
+      <c r="B701">
+        <v>119643</v>
+      </c>
+      <c r="C701" t="s">
+        <v>3</v>
+      </c>
+      <c r="D701">
+        <v>3</v>
+      </c>
+      <c r="E701" t="s">
+        <v>25</v>
+      </c>
+      <c r="F701" s="2">
+        <v>44180</v>
+      </c>
+      <c r="G701" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="702" spans="1:7">
+      <c r="A702" s="1">
+        <v>700</v>
+      </c>
+      <c r="B702">
+        <v>119643</v>
+      </c>
+      <c r="C702" t="s">
+        <v>4</v>
+      </c>
+      <c r="D702">
+        <v>5</v>
+      </c>
+      <c r="E702" t="s">
+        <v>11</v>
+      </c>
+      <c r="F702" s="2">
+        <v>44180</v>
+      </c>
+      <c r="G702" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="703" spans="1:7">
+      <c r="A703" s="1">
+        <v>701</v>
+      </c>
+      <c r="B703">
+        <v>119643</v>
+      </c>
+      <c r="C703" t="s">
+        <v>5</v>
+      </c>
+      <c r="D703">
+        <v>5</v>
+      </c>
+      <c r="E703" t="s">
+        <v>11</v>
+      </c>
+      <c r="F703" s="2">
+        <v>44180</v>
+      </c>
+      <c r="G703" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="704" spans="1:7">
+      <c r="A704" s="1">
+        <v>702</v>
+      </c>
+      <c r="B704">
+        <v>295156</v>
+      </c>
+      <c r="C704" t="s">
+        <v>3</v>
+      </c>
+      <c r="D704">
+        <v>4</v>
+      </c>
+      <c r="E704" t="s">
+        <v>11</v>
+      </c>
+      <c r="F704" s="2">
+        <v>44180</v>
+      </c>
+      <c r="G704" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="705" spans="1:7">
+      <c r="A705" s="1">
+        <v>703</v>
+      </c>
+      <c r="B705">
+        <v>295156</v>
+      </c>
+      <c r="C705" t="s">
+        <v>4</v>
+      </c>
+      <c r="D705">
+        <v>4</v>
+      </c>
+      <c r="E705" t="s">
+        <v>11</v>
+      </c>
+      <c r="F705" s="2">
+        <v>44180</v>
+      </c>
+      <c r="G705" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="706" spans="1:7">
+      <c r="A706" s="1">
+        <v>704</v>
+      </c>
+      <c r="B706">
+        <v>295156</v>
+      </c>
+      <c r="C706" t="s">
+        <v>5</v>
+      </c>
+      <c r="D706">
+        <v>5</v>
+      </c>
+      <c r="E706" t="s">
+        <v>11</v>
+      </c>
+      <c r="F706" s="2">
+        <v>44180</v>
+      </c>
+      <c r="G706" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="707" spans="1:7">
+      <c r="A707" s="1">
+        <v>705</v>
+      </c>
+      <c r="B707">
+        <v>118619</v>
+      </c>
+      <c r="C707" t="s">
+        <v>3</v>
+      </c>
+      <c r="D707">
+        <v>5</v>
+      </c>
+      <c r="E707" t="s">
+        <v>11</v>
+      </c>
+      <c r="F707" s="2">
+        <v>44180</v>
+      </c>
+      <c r="G707" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="708" spans="1:7">
+      <c r="A708" s="1">
+        <v>706</v>
+      </c>
+      <c r="B708">
+        <v>118619</v>
+      </c>
+      <c r="C708" t="s">
+        <v>4</v>
+      </c>
+      <c r="D708">
+        <v>5</v>
+      </c>
+      <c r="E708" t="s">
+        <v>11</v>
+      </c>
+      <c r="F708" s="2">
+        <v>44180</v>
+      </c>
+      <c r="G708" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="709" spans="1:7">
+      <c r="A709" s="1">
+        <v>707</v>
+      </c>
+      <c r="B709">
+        <v>118619</v>
+      </c>
+      <c r="C709" t="s">
+        <v>5</v>
+      </c>
+      <c r="D709">
+        <v>5</v>
+      </c>
+      <c r="E709" t="s">
+        <v>11</v>
+      </c>
+      <c r="F709" s="2">
+        <v>44180</v>
+      </c>
+      <c r="G709" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="710" spans="1:7">
+      <c r="A710" s="1">
+        <v>708</v>
+      </c>
+      <c r="B710">
+        <v>214284</v>
+      </c>
+      <c r="C710" t="s">
+        <v>3</v>
+      </c>
+      <c r="D710">
+        <v>5</v>
+      </c>
+      <c r="E710" t="s">
+        <v>11</v>
+      </c>
+      <c r="F710" s="2">
+        <v>44180</v>
+      </c>
+      <c r="G710" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="711" spans="1:7">
+      <c r="A711" s="1">
+        <v>709</v>
+      </c>
+      <c r="B711">
+        <v>214284</v>
+      </c>
+      <c r="C711" t="s">
+        <v>4</v>
+      </c>
+      <c r="D711">
+        <v>5</v>
+      </c>
+      <c r="E711" t="s">
+        <v>11</v>
+      </c>
+      <c r="F711" s="2">
+        <v>44180</v>
+      </c>
+      <c r="G711" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="712" spans="1:7">
+      <c r="A712" s="1">
+        <v>710</v>
+      </c>
+      <c r="B712">
+        <v>214284</v>
+      </c>
+      <c r="C712" t="s">
+        <v>5</v>
+      </c>
+      <c r="D712">
+        <v>5</v>
+      </c>
+      <c r="E712" t="s">
+        <v>11</v>
+      </c>
+      <c r="F712" s="2">
+        <v>44180</v>
+      </c>
+      <c r="G712" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="713" spans="1:7">
+      <c r="A713" s="1">
+        <v>711</v>
+      </c>
+      <c r="B713">
+        <v>86990</v>
+      </c>
+      <c r="C713" t="s">
+        <v>3</v>
+      </c>
+      <c r="D713">
+        <v>3</v>
+      </c>
+      <c r="E713" t="s">
+        <v>11</v>
+      </c>
+      <c r="F713" s="2">
+        <v>44180</v>
+      </c>
+      <c r="G713" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="714" spans="1:7">
+      <c r="A714" s="1">
+        <v>712</v>
+      </c>
+      <c r="B714">
+        <v>86990</v>
+      </c>
+      <c r="C714" t="s">
+        <v>4</v>
+      </c>
+      <c r="D714">
+        <v>4</v>
+      </c>
+      <c r="E714" t="s">
+        <v>11</v>
+      </c>
+      <c r="F714" s="2">
+        <v>44180</v>
+      </c>
+      <c r="G714" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="715" spans="1:7">
+      <c r="A715" s="1">
+        <v>713</v>
+      </c>
+      <c r="B715">
+        <v>86990</v>
+      </c>
+      <c r="C715" t="s">
+        <v>5</v>
+      </c>
+      <c r="D715">
+        <v>5</v>
+      </c>
+      <c r="E715" t="s">
+        <v>11</v>
+      </c>
+      <c r="F715" s="2">
+        <v>44180</v>
+      </c>
+      <c r="G715" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="716" spans="1:7">
+      <c r="A716" s="1">
+        <v>714</v>
+      </c>
+      <c r="B716">
+        <v>170766</v>
+      </c>
+      <c r="C716" t="s">
+        <v>3</v>
+      </c>
+      <c r="D716">
+        <v>2</v>
+      </c>
+      <c r="E716" t="s">
+        <v>133</v>
+      </c>
+      <c r="F716" s="2">
+        <v>44180</v>
+      </c>
+      <c r="G716" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="717" spans="1:7">
+      <c r="A717" s="1">
+        <v>715</v>
+      </c>
+      <c r="B717">
+        <v>170766</v>
+      </c>
+      <c r="C717" t="s">
+        <v>4</v>
+      </c>
+      <c r="D717">
+        <v>2</v>
+      </c>
+      <c r="E717" t="s">
+        <v>134</v>
+      </c>
+      <c r="F717" s="2">
+        <v>44180</v>
+      </c>
+      <c r="G717" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="718" spans="1:7">
+      <c r="A718" s="1">
+        <v>716</v>
+      </c>
+      <c r="B718">
+        <v>170766</v>
+      </c>
+      <c r="C718" t="s">
+        <v>5</v>
+      </c>
+      <c r="D718">
+        <v>2</v>
+      </c>
+      <c r="E718" t="s">
+        <v>135</v>
+      </c>
+      <c r="F718" s="2">
+        <v>44180</v>
+      </c>
+      <c r="G718" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="719" spans="1:7">
+      <c r="A719" s="1">
+        <v>717</v>
+      </c>
+      <c r="B719">
+        <v>41407</v>
+      </c>
+      <c r="C719" t="s">
+        <v>3</v>
+      </c>
+      <c r="D719">
+        <v>4</v>
+      </c>
+      <c r="E719" t="s">
         <v>136</v>
+      </c>
+      <c r="F719" s="2">
+        <v>44180</v>
+      </c>
+      <c r="G719" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="720" spans="1:7">
+      <c r="A720" s="1">
+        <v>718</v>
+      </c>
+      <c r="B720">
+        <v>41407</v>
+      </c>
+      <c r="C720" t="s">
+        <v>4</v>
+      </c>
+      <c r="D720">
+        <v>3</v>
+      </c>
+      <c r="E720" t="s">
+        <v>137</v>
+      </c>
+      <c r="F720" s="2">
+        <v>44180</v>
+      </c>
+      <c r="G720" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="721" spans="1:7">
+      <c r="A721" s="1">
+        <v>719</v>
+      </c>
+      <c r="B721">
+        <v>41407</v>
+      </c>
+      <c r="C721" t="s">
+        <v>5</v>
+      </c>
+      <c r="D721">
+        <v>5</v>
+      </c>
+      <c r="E721" t="s">
+        <v>122</v>
+      </c>
+      <c r="F721" s="2">
+        <v>44180</v>
+      </c>
+      <c r="G721" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="722" spans="1:7">
+      <c r="A722" s="1">
+        <v>720</v>
+      </c>
+      <c r="B722">
+        <v>114976</v>
+      </c>
+      <c r="C722" t="s">
+        <v>3</v>
+      </c>
+      <c r="D722">
+        <v>3</v>
+      </c>
+      <c r="E722" t="s">
+        <v>138</v>
+      </c>
+      <c r="F722" s="2">
+        <v>44180</v>
+      </c>
+      <c r="G722" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="723" spans="1:7">
+      <c r="A723" s="1">
+        <v>721</v>
+      </c>
+      <c r="B723">
+        <v>114976</v>
+      </c>
+      <c r="C723" t="s">
+        <v>4</v>
+      </c>
+      <c r="D723">
+        <v>3</v>
+      </c>
+      <c r="E723" t="s">
+        <v>139</v>
+      </c>
+      <c r="F723" s="2">
+        <v>44180</v>
+      </c>
+      <c r="G723" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="724" spans="1:7">
+      <c r="A724" s="1">
+        <v>722</v>
+      </c>
+      <c r="B724">
+        <v>114976</v>
+      </c>
+      <c r="C724" t="s">
+        <v>5</v>
+      </c>
+      <c r="D724">
+        <v>5</v>
+      </c>
+      <c r="E724" t="s">
+        <v>140</v>
+      </c>
+      <c r="F724" s="2">
+        <v>44180</v>
+      </c>
+      <c r="G724" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="725" spans="1:7">
+      <c r="A725" s="1">
+        <v>723</v>
+      </c>
+      <c r="B725">
+        <v>80815</v>
+      </c>
+      <c r="C725" t="s">
+        <v>3</v>
+      </c>
+      <c r="D725">
+        <v>5</v>
+      </c>
+      <c r="E725" t="s">
+        <v>11</v>
+      </c>
+      <c r="F725" s="2">
+        <v>44180</v>
+      </c>
+      <c r="G725" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="726" spans="1:7">
+      <c r="A726" s="1">
+        <v>724</v>
+      </c>
+      <c r="B726">
+        <v>80815</v>
+      </c>
+      <c r="C726" t="s">
+        <v>4</v>
+      </c>
+      <c r="D726">
+        <v>4</v>
+      </c>
+      <c r="E726" t="s">
+        <v>11</v>
+      </c>
+      <c r="F726" s="2">
+        <v>44180</v>
+      </c>
+      <c r="G726" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="727" spans="1:7">
+      <c r="A727" s="1">
+        <v>725</v>
+      </c>
+      <c r="B727">
+        <v>80815</v>
+      </c>
+      <c r="C727" t="s">
+        <v>5</v>
+      </c>
+      <c r="D727">
+        <v>5</v>
+      </c>
+      <c r="E727" t="s">
+        <v>11</v>
+      </c>
+      <c r="F727" s="2">
+        <v>44180</v>
+      </c>
+      <c r="G727" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="728" spans="1:7">
+      <c r="A728" s="1">
+        <v>726</v>
+      </c>
+      <c r="B728">
+        <v>67797</v>
+      </c>
+      <c r="C728" t="s">
+        <v>3</v>
+      </c>
+      <c r="D728">
+        <v>3</v>
+      </c>
+      <c r="E728" t="s">
+        <v>11</v>
+      </c>
+      <c r="F728" s="2">
+        <v>44180</v>
+      </c>
+      <c r="G728" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="729" spans="1:7">
+      <c r="A729" s="1">
+        <v>727</v>
+      </c>
+      <c r="B729">
+        <v>67797</v>
+      </c>
+      <c r="C729" t="s">
+        <v>4</v>
+      </c>
+      <c r="D729">
+        <v>4</v>
+      </c>
+      <c r="E729" t="s">
+        <v>11</v>
+      </c>
+      <c r="F729" s="2">
+        <v>44180</v>
+      </c>
+      <c r="G729" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="730" spans="1:7">
+      <c r="A730" s="1">
+        <v>728</v>
+      </c>
+      <c r="B730">
+        <v>67797</v>
+      </c>
+      <c r="C730" t="s">
+        <v>5</v>
+      </c>
+      <c r="D730">
+        <v>5</v>
+      </c>
+      <c r="E730" t="s">
+        <v>11</v>
+      </c>
+      <c r="F730" s="2">
+        <v>44180</v>
+      </c>
+      <c r="G730" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="731" spans="1:7">
+      <c r="A731" s="1">
+        <v>729</v>
+      </c>
+      <c r="B731">
+        <v>246952</v>
+      </c>
+      <c r="C731" t="s">
+        <v>3</v>
+      </c>
+      <c r="D731">
+        <v>4</v>
+      </c>
+      <c r="E731" t="s">
+        <v>141</v>
+      </c>
+      <c r="F731" s="2">
+        <v>44180</v>
+      </c>
+      <c r="G731" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="732" spans="1:7">
+      <c r="A732" s="1">
+        <v>730</v>
+      </c>
+      <c r="B732">
+        <v>246952</v>
+      </c>
+      <c r="C732" t="s">
+        <v>4</v>
+      </c>
+      <c r="D732">
+        <v>3</v>
+      </c>
+      <c r="E732" t="s">
+        <v>142</v>
+      </c>
+      <c r="F732" s="2">
+        <v>44180</v>
+      </c>
+      <c r="G732" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="733" spans="1:7">
+      <c r="A733" s="1">
+        <v>731</v>
+      </c>
+      <c r="B733">
+        <v>246952</v>
+      </c>
+      <c r="C733" t="s">
+        <v>5</v>
+      </c>
+      <c r="D733">
+        <v>5</v>
+      </c>
+      <c r="E733" t="s">
+        <v>11</v>
+      </c>
+      <c r="F733" s="2">
+        <v>44180</v>
+      </c>
+      <c r="G733" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="734" spans="1:7">
+      <c r="A734" s="1">
+        <v>732</v>
+      </c>
+      <c r="B734">
+        <v>95945</v>
+      </c>
+      <c r="C734" t="s">
+        <v>3</v>
+      </c>
+      <c r="D734">
+        <v>5</v>
+      </c>
+      <c r="E734" t="s">
+        <v>43</v>
+      </c>
+      <c r="F734" s="2">
+        <v>44180</v>
+      </c>
+      <c r="G734" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="735" spans="1:7">
+      <c r="A735" s="1">
+        <v>733</v>
+      </c>
+      <c r="B735">
+        <v>95945</v>
+      </c>
+      <c r="C735" t="s">
+        <v>4</v>
+      </c>
+      <c r="D735">
+        <v>5</v>
+      </c>
+      <c r="E735" t="s">
+        <v>32</v>
+      </c>
+      <c r="F735" s="2">
+        <v>44180</v>
+      </c>
+      <c r="G735" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="736" spans="1:7">
+      <c r="A736" s="1">
+        <v>734</v>
+      </c>
+      <c r="B736">
+        <v>95945</v>
+      </c>
+      <c r="C736" t="s">
+        <v>5</v>
+      </c>
+      <c r="D736">
+        <v>5</v>
+      </c>
+      <c r="E736" t="s">
+        <v>32</v>
+      </c>
+      <c r="F736" s="2">
+        <v>44180</v>
+      </c>
+      <c r="G736" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -14729,10 +18116,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>137</v>
+        <v>160</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>138</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -14740,10 +18127,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="C2" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -14751,10 +18138,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>139</v>
+        <v>162</v>
       </c>
       <c r="C3" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -14762,10 +18149,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>140</v>
+        <v>163</v>
       </c>
       <c r="C4" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -14773,10 +18160,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>141</v>
+        <v>164</v>
       </c>
       <c r="C5" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -14784,10 +18171,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>142</v>
+        <v>165</v>
       </c>
       <c r="C6" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -14795,10 +18182,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="C7" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -14806,10 +18193,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="C8" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -14817,10 +18204,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="C9" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -14828,10 +18215,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="C10" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -14839,10 +18226,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
       <c r="C11" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -14850,10 +18237,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="C12" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -14861,10 +18248,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="C13" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -14872,10 +18259,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="C14" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -14885,7 +18272,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C50"/>
+  <dimension ref="A1:C56"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -14896,7 +18283,7 @@
         <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -14907,7 +18294,7 @@
         <v>24057</v>
       </c>
       <c r="C2" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -14918,7 +18305,7 @@
         <v>233336</v>
       </c>
       <c r="C3" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -14929,7 +18316,7 @@
         <v>258094</v>
       </c>
       <c r="C4" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -14940,7 +18327,7 @@
         <v>107781</v>
       </c>
       <c r="C5" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -14951,7 +18338,7 @@
         <v>216148</v>
       </c>
       <c r="C6" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -14962,7 +18349,7 @@
         <v>214558</v>
       </c>
       <c r="C7" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -14973,7 +18360,7 @@
         <v>5871</v>
       </c>
       <c r="C8" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -14984,7 +18371,7 @@
         <v>80327</v>
       </c>
       <c r="C9" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -14995,7 +18382,7 @@
         <v>232342</v>
       </c>
       <c r="C10" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -15006,7 +18393,7 @@
         <v>215485</v>
       </c>
       <c r="C11" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -15017,7 +18404,7 @@
         <v>106616</v>
       </c>
       <c r="C12" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -15028,7 +18415,7 @@
         <v>293274</v>
       </c>
       <c r="C13" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -15039,7 +18426,7 @@
         <v>137281</v>
       </c>
       <c r="C14" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -15050,7 +18437,7 @@
         <v>215431</v>
       </c>
       <c r="C15" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -15061,7 +18448,7 @@
         <v>208016</v>
       </c>
       <c r="C16" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -15072,7 +18459,7 @@
         <v>227785</v>
       </c>
       <c r="C17" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -15083,7 +18470,7 @@
         <v>107364</v>
       </c>
       <c r="C18" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -15094,7 +18481,7 @@
         <v>284926</v>
       </c>
       <c r="C19" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -15105,7 +18492,7 @@
         <v>124609</v>
       </c>
       <c r="C20" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -15116,7 +18503,7 @@
         <v>183271</v>
       </c>
       <c r="C21" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -15127,7 +18514,7 @@
         <v>214182</v>
       </c>
       <c r="C22" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -15138,7 +18525,7 @@
         <v>126371</v>
       </c>
       <c r="C23" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -15149,7 +18536,7 @@
         <v>218071</v>
       </c>
       <c r="C24" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -15160,7 +18547,7 @@
         <v>277513</v>
       </c>
       <c r="C25" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -15171,7 +18558,7 @@
         <v>112959</v>
       </c>
       <c r="C26" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -15182,7 +18569,7 @@
         <v>278974</v>
       </c>
       <c r="C27" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -15193,7 +18580,7 @@
         <v>50154</v>
       </c>
       <c r="C28" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -15204,7 +18591,7 @@
         <v>258548</v>
       </c>
       <c r="C29" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -15215,7 +18602,7 @@
         <v>48868</v>
       </c>
       <c r="C30" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -15226,7 +18613,7 @@
         <v>239683</v>
       </c>
       <c r="C31" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -15237,7 +18624,7 @@
         <v>42165</v>
       </c>
       <c r="C32" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -15248,7 +18635,7 @@
         <v>218901</v>
       </c>
       <c r="C33" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -15259,7 +18646,7 @@
         <v>166374</v>
       </c>
       <c r="C34" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -15270,7 +18657,7 @@
         <v>231747</v>
       </c>
       <c r="C35" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -15281,7 +18668,7 @@
         <v>31016</v>
       </c>
       <c r="C36" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -15292,7 +18679,7 @@
         <v>21933</v>
       </c>
       <c r="C37" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -15303,7 +18690,7 @@
         <v>152440</v>
       </c>
       <c r="C38" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -15314,7 +18701,7 @@
         <v>217149</v>
       </c>
       <c r="C39" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -15325,7 +18712,7 @@
         <v>58273</v>
       </c>
       <c r="C40" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -15336,7 +18723,7 @@
         <v>153489</v>
       </c>
       <c r="C41" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -15347,7 +18734,7 @@
         <v>297019</v>
       </c>
       <c r="C42" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -15358,7 +18745,7 @@
         <v>267752</v>
       </c>
       <c r="C43" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -15369,7 +18756,7 @@
         <v>219521</v>
       </c>
       <c r="C44" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -15380,7 +18767,7 @@
         <v>229749</v>
       </c>
       <c r="C45" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -15391,7 +18778,7 @@
         <v>119098</v>
       </c>
       <c r="C46" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -15402,7 +18789,7 @@
         <v>284142</v>
       </c>
       <c r="C47" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -15413,7 +18800,7 @@
         <v>205192</v>
       </c>
       <c r="C48" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -15424,7 +18811,7 @@
         <v>126808</v>
       </c>
       <c r="C49" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -15435,7 +18822,73 @@
         <v>69464</v>
       </c>
       <c r="C50" t="s">
-        <v>210</v>
+        <v>229</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>67045</v>
+      </c>
+      <c r="C51" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>196114</v>
+      </c>
+      <c r="C52" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>170766</v>
+      </c>
+      <c r="C53" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>41407</v>
+      </c>
+      <c r="C54" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>114976</v>
+      </c>
+      <c r="C55" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>246952</v>
+      </c>
+      <c r="C56" t="s">
+        <v>235</v>
       </c>
     </row>
   </sheetData>
